--- a/covariancedata.xlsx
+++ b/covariancedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kashikawanchoo/Downloads/Mini_Projects/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1DDDE0-555E-4D4B-839D-58E3AECC61B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784159D-8E7E-3141-ADF9-D6EEECC323C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18360" windowHeight="16380" xr2:uid="{E17A3965-B33F-459D-8CEF-FB9FA1A9E5B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E17A3965-B33F-459D-8CEF-FB9FA1A9E5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>MMM</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>BIF</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997C17B-D0E1-4CAC-8616-D9D4F9C038AC}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,3851 +620,3856 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>427.78662121409315</v>
-      </c>
-      <c r="C2" s="2">
-        <v>318.94939455403647</v>
-      </c>
-      <c r="D2" s="2">
-        <v>170.75766605445233</v>
-      </c>
-      <c r="E2" s="2">
-        <v>143.20069436176857</v>
-      </c>
-      <c r="F2" s="2">
-        <v>90.278596282661525</v>
-      </c>
-      <c r="G2" s="2">
-        <v>105.25269988935744</v>
-      </c>
-      <c r="H2" s="2">
-        <v>203.88932364204626</v>
-      </c>
-      <c r="I2" s="2">
-        <v>252.32055661927834</v>
-      </c>
-      <c r="J2" s="2">
-        <v>108.30131640678589</v>
-      </c>
-      <c r="K2" s="2">
-        <v>200.50313914820566</v>
-      </c>
-      <c r="L2" s="2">
-        <v>115.06862158885836</v>
-      </c>
-      <c r="M2" s="2">
-        <v>181.00745688442851</v>
-      </c>
-      <c r="N2" s="2">
-        <v>93.563217131766521</v>
-      </c>
-      <c r="O2" s="2">
-        <v>84.499208257831356</v>
-      </c>
-      <c r="P2" s="2">
-        <v>137.14556104241098</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>129.13553230338633</v>
-      </c>
-      <c r="R2" s="2">
-        <v>136.14701772793222</v>
-      </c>
-      <c r="S2" s="2">
-        <v>215.11526776160673</v>
-      </c>
-      <c r="T2" s="2">
-        <v>165.76853839791477</v>
-      </c>
-      <c r="U2" s="2">
-        <v>85.84730480690186</v>
-      </c>
-      <c r="V2" s="2">
-        <v>157.12167283294951</v>
-      </c>
-      <c r="W2" s="2">
-        <v>113.28014369578361</v>
-      </c>
-      <c r="X2" s="2">
-        <v>79.300422827573186</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>86.975801667560305</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>48.096235457124408</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>87.351408239904288</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>185.57127907696375</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>110.45592297489389</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>84.737451806767524</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>142.93009779980105</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>69.170003234738488</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>82.358756277108995</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>8.1649803695795402</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>152.59305467898622</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>2.7626656999069068</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
+        <v>427.78662121409315</v>
+      </c>
+      <c r="C3" s="2">
         <v>318.94939455403647</v>
       </c>
-      <c r="C3" s="2">
-        <v>1443.5635900274315</v>
-      </c>
       <c r="D3" s="2">
-        <v>291.84536795348561</v>
+        <v>170.75766605445233</v>
       </c>
       <c r="E3" s="2">
-        <v>183.88366913702015</v>
+        <v>143.20069436176857</v>
       </c>
       <c r="F3" s="2">
-        <v>226.06250202967146</v>
+        <v>90.278596282661525</v>
       </c>
       <c r="G3" s="2">
-        <v>219.65137220382215</v>
+        <v>105.25269988935744</v>
       </c>
       <c r="H3" s="2">
-        <v>302.49611120399464</v>
+        <v>203.88932364204626</v>
       </c>
       <c r="I3" s="2">
-        <v>489.91490380122502</v>
+        <v>252.32055661927834</v>
       </c>
       <c r="J3" s="2">
-        <v>242.83825730736905</v>
+        <v>108.30131640678589</v>
       </c>
       <c r="K3" s="2">
-        <v>408.71278354973731</v>
+        <v>200.50313914820566</v>
       </c>
       <c r="L3" s="2">
-        <v>116.31136965816854</v>
+        <v>115.06862158885836</v>
       </c>
       <c r="M3" s="2">
-        <v>341.01969348749583</v>
+        <v>181.00745688442851</v>
       </c>
       <c r="N3" s="2">
-        <v>208.35227731785</v>
+        <v>93.563217131766521</v>
       </c>
       <c r="O3" s="2">
-        <v>201.0832886124773</v>
+        <v>84.499208257831356</v>
       </c>
       <c r="P3" s="2">
-        <v>370.59441619017616</v>
+        <v>137.14556104241098</v>
       </c>
       <c r="Q3" s="2">
-        <v>375.3575740415057</v>
+        <v>129.13553230338633</v>
       </c>
       <c r="R3" s="2">
-        <v>310.0471024202572</v>
+        <v>136.14701772793222</v>
       </c>
       <c r="S3" s="2">
-        <v>506.37347394879293</v>
+        <v>215.11526776160673</v>
       </c>
       <c r="T3" s="2">
-        <v>404.50413447791937</v>
+        <v>165.76853839791477</v>
       </c>
       <c r="U3" s="2">
-        <v>55.358840210033236</v>
+        <v>85.84730480690186</v>
       </c>
       <c r="V3" s="2">
-        <v>386.03568116512037</v>
+        <v>157.12167283294951</v>
       </c>
       <c r="W3" s="2">
-        <v>241.15230865022457</v>
+        <v>113.28014369578361</v>
       </c>
       <c r="X3" s="2">
-        <v>97.810906395725738</v>
+        <v>79.300422827573186</v>
       </c>
       <c r="Y3" s="2">
-        <v>298.88843316559144</v>
+        <v>86.975801667560305</v>
       </c>
       <c r="Z3" s="2">
-        <v>71.804247203378083</v>
+        <v>48.096235457124408</v>
       </c>
       <c r="AA3" s="2">
-        <v>111.43945478450183</v>
+        <v>87.351408239904288</v>
       </c>
       <c r="AB3" s="2">
-        <v>343.1569415680126</v>
+        <v>185.57127907696375</v>
       </c>
       <c r="AC3" s="2">
-        <v>246.98858003890598</v>
+        <v>110.45592297489389</v>
       </c>
       <c r="AD3" s="2">
-        <v>205.89914899222646</v>
+        <v>84.737451806767524</v>
       </c>
       <c r="AE3" s="2">
-        <v>285.85212351796002</v>
+        <v>142.93009779980105</v>
       </c>
       <c r="AF3" s="2">
-        <v>258.39916315194557</v>
+        <v>69.170003234738488</v>
       </c>
       <c r="AG3" s="2">
-        <v>202.31138306339813</v>
+        <v>82.358756277108995</v>
       </c>
       <c r="AH3" s="2">
-        <v>13.975259205978638</v>
+        <v>8.1649803695795402</v>
       </c>
       <c r="AI3" s="2">
-        <v>341.61545538602434</v>
+        <v>152.59305467898622</v>
       </c>
       <c r="AJ3" s="2">
-        <v>1.4987422577254836</v>
+        <v>2.7626656999069068</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>170.75766605445233</v>
+        <v>318.94939455403647</v>
       </c>
       <c r="C4" s="2">
+        <v>1443.5635900274315</v>
+      </c>
+      <c r="D4" s="2">
         <v>291.84536795348561</v>
       </c>
-      <c r="D4" s="2">
-        <v>620.01265265868074</v>
-      </c>
       <c r="E4" s="2">
-        <v>241.67667287795797</v>
+        <v>183.88366913702015</v>
       </c>
       <c r="F4" s="2">
-        <v>162.42343337619269</v>
+        <v>226.06250202967146</v>
       </c>
       <c r="G4" s="2">
-        <v>220.32692598971806</v>
+        <v>219.65137220382215</v>
       </c>
       <c r="H4" s="2">
-        <v>269.84545721360848</v>
+        <v>302.49611120399464</v>
       </c>
       <c r="I4" s="2">
-        <v>243.93213914948922</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="J4" s="2">
-        <v>136.23502699993207</v>
+        <v>242.83825730736905</v>
       </c>
       <c r="K4" s="2">
-        <v>413.14476396087127</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="L4" s="2">
-        <v>185.84805232353955</v>
+        <v>116.31136965816854</v>
       </c>
       <c r="M4" s="2">
-        <v>193.39444093770129</v>
+        <v>341.01969348749583</v>
       </c>
       <c r="N4" s="2">
-        <v>113.02439881934129</v>
+        <v>208.35227731785</v>
       </c>
       <c r="O4" s="2">
-        <v>204.47790189544389</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="P4" s="2">
-        <v>268.48019254081157</v>
+        <v>370.59441619017616</v>
       </c>
       <c r="Q4" s="2">
-        <v>175.23729498843988</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="R4" s="2">
-        <v>285.78521619883679</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="S4" s="2">
-        <v>342.10203461542034</v>
+        <v>506.37347394879293</v>
       </c>
       <c r="T4" s="2">
-        <v>248.90380514951406</v>
+        <v>404.50413447791937</v>
       </c>
       <c r="U4" s="2">
-        <v>133.17960268602755</v>
+        <v>55.358840210033236</v>
       </c>
       <c r="V4" s="2">
-        <v>357.25892961301997</v>
+        <v>386.03568116512037</v>
       </c>
       <c r="W4" s="2">
-        <v>224.99702598411187</v>
+        <v>241.15230865022457</v>
       </c>
       <c r="X4" s="2">
-        <v>159.55153368583834</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="Y4" s="2">
-        <v>214.04981710333632</v>
+        <v>298.88843316559144</v>
       </c>
       <c r="Z4" s="2">
-        <v>119.42477322092432</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="AA4" s="2">
-        <v>129.82225030118101</v>
+        <v>111.43945478450183</v>
       </c>
       <c r="AB4" s="2">
-        <v>285.42221214451922</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="AC4" s="2">
-        <v>152.04070029398508</v>
+        <v>246.98858003890598</v>
       </c>
       <c r="AD4" s="2">
-        <v>202.59261904156267</v>
+        <v>205.89914899222646</v>
       </c>
       <c r="AE4" s="2">
-        <v>268.09914318451069</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="AF4" s="2">
-        <v>186.0212441841133</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="AG4" s="2">
-        <v>118.98359740768296</v>
+        <v>202.31138306339813</v>
       </c>
       <c r="AH4" s="2">
-        <v>70.11951733352862</v>
+        <v>13.975259205978638</v>
       </c>
       <c r="AI4" s="2">
-        <v>313.88674956103398</v>
+        <v>341.61545538602434</v>
       </c>
       <c r="AJ4" s="2">
-        <v>-2.7200732923054822</v>
+        <v>1.4987422577254836</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>143.20069436176857</v>
+        <v>170.75766605445233</v>
       </c>
       <c r="C5" s="2">
-        <v>183.88366913702015</v>
+        <v>291.84536795348561</v>
       </c>
       <c r="D5" s="2">
+        <v>620.01265265868074</v>
+      </c>
+      <c r="E5" s="2">
         <v>241.67667287795797</v>
       </c>
-      <c r="E5" s="2">
-        <v>806.94443866724987</v>
-      </c>
       <c r="F5" s="2">
-        <v>136.93656667581581</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="G5" s="2">
-        <v>144.72546043700572</v>
+        <v>220.32692598971806</v>
       </c>
       <c r="H5" s="2">
-        <v>187.12175498444796</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="I5" s="2">
-        <v>192.30247603599506</v>
+        <v>243.93213914948922</v>
       </c>
       <c r="J5" s="2">
-        <v>127.07697778599002</v>
+        <v>136.23502699993207</v>
       </c>
       <c r="K5" s="2">
-        <v>294.13396230963349</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="L5" s="2">
-        <v>140.33988801706425</v>
+        <v>185.84805232353955</v>
       </c>
       <c r="M5" s="2">
-        <v>175.55334084063418</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="N5" s="2">
-        <v>99.33937199209285</v>
+        <v>113.02439881934129</v>
       </c>
       <c r="O5" s="2">
-        <v>192.9276288874587</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="P5" s="2">
-        <v>209.03090280930763</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="Q5" s="2">
-        <v>112.43188146143657</v>
+        <v>175.23729498843988</v>
       </c>
       <c r="R5" s="2">
-        <v>222.4007556424431</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="S5" s="2">
-        <v>215.07527051520898</v>
+        <v>342.10203461542034</v>
       </c>
       <c r="T5" s="2">
-        <v>141.28425474020241</v>
+        <v>248.90380514951406</v>
       </c>
       <c r="U5" s="2">
-        <v>112.71875502656673</v>
+        <v>133.17960268602755</v>
       </c>
       <c r="V5" s="2">
-        <v>264.22172188476247</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="W5" s="2">
-        <v>186.96620920043364</v>
+        <v>224.99702598411187</v>
       </c>
       <c r="X5" s="2">
-        <v>211.15085757148938</v>
+        <v>159.55153368583834</v>
       </c>
       <c r="Y5" s="2">
-        <v>196.66877664256469</v>
+        <v>214.04981710333632</v>
       </c>
       <c r="Z5" s="2">
-        <v>164.18656556805502</v>
+        <v>119.42477322092432</v>
       </c>
       <c r="AA5" s="2">
-        <v>128.10973717340758</v>
+        <v>129.82225030118101</v>
       </c>
       <c r="AB5" s="2">
-        <v>195.67478926640177</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="AC5" s="2">
-        <v>141.8640674074573</v>
+        <v>152.04070029398508</v>
       </c>
       <c r="AD5" s="2">
-        <v>205.30238835256824</v>
+        <v>202.59261904156267</v>
       </c>
       <c r="AE5" s="2">
-        <v>170.83827402026787</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="AF5" s="2">
-        <v>151.90534258102852</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="AG5" s="2">
-        <v>92.444905272018673</v>
+        <v>118.98359740768296</v>
       </c>
       <c r="AH5" s="2">
-        <v>146.76727709554564</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="AI5" s="2">
-        <v>261.09958839741131</v>
+        <v>313.88674956103398</v>
       </c>
       <c r="AJ5" s="2">
-        <v>4.2523054508408107</v>
+        <v>-2.7200732923054822</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>90.278596282661525</v>
+        <v>143.20069436176857</v>
       </c>
       <c r="C6" s="2">
-        <v>226.06250202967146</v>
+        <v>183.88366913702015</v>
       </c>
       <c r="D6" s="2">
-        <v>162.42343337619269</v>
+        <v>241.67667287795797</v>
       </c>
       <c r="E6" s="2">
+        <v>806.94443866724987</v>
+      </c>
+      <c r="F6" s="2">
         <v>136.93656667581581</v>
       </c>
-      <c r="F6" s="2">
-        <v>597.29555388039876</v>
-      </c>
       <c r="G6" s="2">
-        <v>109.04813747186792</v>
+        <v>144.72546043700572</v>
       </c>
       <c r="H6" s="2">
-        <v>149.688129414873</v>
+        <v>187.12175498444796</v>
       </c>
       <c r="I6" s="2">
-        <v>185.78692594825753</v>
+        <v>192.30247603599506</v>
       </c>
       <c r="J6" s="2">
-        <v>108.40826209825264</v>
+        <v>127.07697778599002</v>
       </c>
       <c r="K6" s="2">
-        <v>233.04336655224688</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="L6" s="2">
-        <v>92.308924426872736</v>
+        <v>140.33988801706425</v>
       </c>
       <c r="M6" s="2">
-        <v>103.74347282853452</v>
+        <v>175.55334084063418</v>
       </c>
       <c r="N6" s="2">
-        <v>119.75681097457645</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="O6" s="2">
-        <v>119.84124204399535</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="P6" s="2">
-        <v>125.79621562096442</v>
+        <v>209.03090280930763</v>
       </c>
       <c r="Q6" s="2">
-        <v>155.88917819746456</v>
+        <v>112.43188146143657</v>
       </c>
       <c r="R6" s="2">
-        <v>149.27121235804003</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="S6" s="2">
-        <v>167.02790109339634</v>
+        <v>215.07527051520898</v>
       </c>
       <c r="T6" s="2">
-        <v>199.79395929571649</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="U6" s="2">
-        <v>80.015176229995902</v>
+        <v>112.71875502656673</v>
       </c>
       <c r="V6" s="2">
-        <v>153.11983147169053</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="W6" s="2">
-        <v>174.60862003666779</v>
+        <v>186.96620920043364</v>
       </c>
       <c r="X6" s="2">
-        <v>183.13135493923937</v>
+        <v>211.15085757148938</v>
       </c>
       <c r="Y6" s="2">
-        <v>182.33471908763198</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="Z6" s="2">
-        <v>94.859690341622724</v>
+        <v>164.18656556805502</v>
       </c>
       <c r="AA6" s="2">
-        <v>53.675001320300026</v>
+        <v>128.10973717340758</v>
       </c>
       <c r="AB6" s="2">
-        <v>146.45685120188563</v>
+        <v>195.67478926640177</v>
       </c>
       <c r="AC6" s="2">
-        <v>285.43280900234117</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="AD6" s="2">
-        <v>127.61260150800848</v>
+        <v>205.30238835256824</v>
       </c>
       <c r="AE6" s="2">
-        <v>105.5091928983724</v>
+        <v>170.83827402026787</v>
       </c>
       <c r="AF6" s="2">
-        <v>108.52105446005433</v>
+        <v>151.90534258102852</v>
       </c>
       <c r="AG6" s="2">
-        <v>104.83719715083578</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="AH6" s="2">
-        <v>64.226422145388767</v>
+        <v>146.76727709554564</v>
       </c>
       <c r="AI6" s="2">
-        <v>205.85741985094154</v>
+        <v>261.09958839741131</v>
       </c>
       <c r="AJ6" s="2">
-        <v>5.1033740819395526</v>
+        <v>4.2523054508408107</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>105.25269988935744</v>
+        <v>90.278596282661525</v>
       </c>
       <c r="C7" s="2">
-        <v>219.65137220382215</v>
+        <v>226.06250202967146</v>
       </c>
       <c r="D7" s="2">
-        <v>220.32692598971806</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="E7" s="2">
-        <v>144.72546043700572</v>
+        <v>136.93656667581581</v>
       </c>
       <c r="F7" s="2">
+        <v>597.29555388039876</v>
+      </c>
+      <c r="G7" s="2">
         <v>109.04813747186792</v>
       </c>
-      <c r="G7" s="2">
-        <v>570.09201448107058</v>
-      </c>
       <c r="H7" s="2">
-        <v>125.57838097445264</v>
+        <v>149.688129414873</v>
       </c>
       <c r="I7" s="2">
-        <v>180.79963479062815</v>
+        <v>185.78692594825753</v>
       </c>
       <c r="J7" s="2">
-        <v>122.89404653724397</v>
+        <v>108.40826209825264</v>
       </c>
       <c r="K7" s="2">
-        <v>383.3199036749437</v>
+        <v>233.04336655224688</v>
       </c>
       <c r="L7" s="2">
-        <v>111.3875824222295</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="M7" s="2">
-        <v>138.32570821238457</v>
+        <v>103.74347282853452</v>
       </c>
       <c r="N7" s="2">
-        <v>68.06412250932965</v>
+        <v>119.75681097457645</v>
       </c>
       <c r="O7" s="2">
-        <v>127.23973828136521</v>
+        <v>119.84124204399535</v>
       </c>
       <c r="P7" s="2">
-        <v>251.54529919627572</v>
+        <v>125.79621562096442</v>
       </c>
       <c r="Q7" s="2">
-        <v>111.55251459621643</v>
+        <v>155.88917819746456</v>
       </c>
       <c r="R7" s="2">
-        <v>185.22327353551367</v>
+        <v>149.27121235804003</v>
       </c>
       <c r="S7" s="2">
-        <v>216.43501583290447</v>
+        <v>167.02790109339634</v>
       </c>
       <c r="T7" s="2">
-        <v>187.62135599764139</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="U7" s="2">
-        <v>69.785371377166143</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="V7" s="2">
-        <v>374.47763327643872</v>
+        <v>153.11983147169053</v>
       </c>
       <c r="W7" s="2">
-        <v>124.02985964442912</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="X7" s="2">
-        <v>105.15909314703926</v>
+        <v>183.13135493923937</v>
       </c>
       <c r="Y7" s="2">
-        <v>138.16263922646189</v>
+        <v>182.33471908763198</v>
       </c>
       <c r="Z7" s="2">
-        <v>108.53147088682937</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="AA7" s="2">
-        <v>74.741122158063831</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="AB7" s="2">
-        <v>205.52971625058493</v>
+        <v>146.45685120188563</v>
       </c>
       <c r="AC7" s="2">
-        <v>101.26209180105236</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="AD7" s="2">
-        <v>138.09358579792573</v>
+        <v>127.61260150800848</v>
       </c>
       <c r="AE7" s="2">
-        <v>191.84772996684228</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="AF7" s="2">
-        <v>140.15735951127334</v>
+        <v>108.52105446005433</v>
       </c>
       <c r="AG7" s="2">
-        <v>79.377723381716109</v>
+        <v>104.83719715083578</v>
       </c>
       <c r="AH7" s="2">
-        <v>69.708961276440959</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="AI7" s="2">
-        <v>205.64795019893123</v>
+        <v>205.85741985094154</v>
       </c>
       <c r="AJ7" s="2">
-        <v>9.0714988551442541</v>
+        <v>5.1033740819395526</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>203.88932364204626</v>
+        <v>105.25269988935744</v>
       </c>
       <c r="C8" s="2">
-        <v>302.49611120399464</v>
+        <v>219.65137220382215</v>
       </c>
       <c r="D8" s="2">
-        <v>269.84545721360848</v>
+        <v>220.32692598971806</v>
       </c>
       <c r="E8" s="2">
-        <v>187.12175498444796</v>
+        <v>144.72546043700572</v>
       </c>
       <c r="F8" s="2">
-        <v>149.688129414873</v>
+        <v>109.04813747186792</v>
       </c>
       <c r="G8" s="2">
+        <v>570.09201448107058</v>
+      </c>
+      <c r="H8" s="2">
         <v>125.57838097445264</v>
       </c>
-      <c r="H8" s="2">
-        <v>781.0518995678417</v>
-      </c>
       <c r="I8" s="2">
-        <v>280.30504619215031</v>
+        <v>180.79963479062815</v>
       </c>
       <c r="J8" s="2">
-        <v>173.5097797242243</v>
+        <v>122.89404653724397</v>
       </c>
       <c r="K8" s="2">
-        <v>251.24721436420126</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="L8" s="2">
-        <v>180.62492182429742</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="M8" s="2">
-        <v>192.81629066413018</v>
+        <v>138.32570821238457</v>
       </c>
       <c r="N8" s="2">
-        <v>170.15459740112573</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="O8" s="2">
-        <v>136.67598427902263</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="P8" s="2">
-        <v>252.6496579583839</v>
+        <v>251.54529919627572</v>
       </c>
       <c r="Q8" s="2">
-        <v>142.99511660708367</v>
+        <v>111.55251459621643</v>
       </c>
       <c r="R8" s="2">
-        <v>144.67239228758774</v>
+        <v>185.22327353551367</v>
       </c>
       <c r="S8" s="2">
-        <v>230.25819308606742</v>
+        <v>216.43501583290447</v>
       </c>
       <c r="T8" s="2">
-        <v>127.64373077765754</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="U8" s="2">
-        <v>95.631152378042515</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="V8" s="2">
-        <v>197.90921028774486</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="W8" s="2">
-        <v>163.0985006254939</v>
+        <v>124.02985964442912</v>
       </c>
       <c r="X8" s="2">
-        <v>167.16529252466458</v>
+        <v>105.15909314703926</v>
       </c>
       <c r="Y8" s="2">
-        <v>138.12773798857691</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="Z8" s="2">
-        <v>91.403523725559012</v>
+        <v>108.53147088682937</v>
       </c>
       <c r="AA8" s="2">
-        <v>109.51706971724869</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="AB8" s="2">
-        <v>289.78306384273918</v>
+        <v>205.52971625058493</v>
       </c>
       <c r="AC8" s="2">
-        <v>150.40515920172965</v>
+        <v>101.26209180105236</v>
       </c>
       <c r="AD8" s="2">
-        <v>84.603949108836957</v>
+        <v>138.09358579792573</v>
       </c>
       <c r="AE8" s="2">
-        <v>234.16100471047412</v>
+        <v>191.84772996684228</v>
       </c>
       <c r="AF8" s="2">
-        <v>159.1455811408938</v>
+        <v>140.15735951127334</v>
       </c>
       <c r="AG8" s="2">
-        <v>151.13359075246257</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="AH8" s="2">
-        <v>55.780550667750738</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="AI8" s="2">
-        <v>208.85122278344457</v>
+        <v>205.64795019893123</v>
       </c>
       <c r="AJ8" s="2">
-        <v>-0.68389570994587867</v>
+        <v>9.0714988551442541</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>252.32055661927834</v>
+        <v>203.88932364204626</v>
       </c>
       <c r="C9" s="2">
-        <v>489.91490380122502</v>
+        <v>302.49611120399464</v>
       </c>
       <c r="D9" s="2">
-        <v>243.93213914948922</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="E9" s="2">
-        <v>192.30247603599506</v>
+        <v>187.12175498444796</v>
       </c>
       <c r="F9" s="2">
-        <v>185.78692594825753</v>
+        <v>149.688129414873</v>
       </c>
       <c r="G9" s="2">
-        <v>180.79963479062815</v>
+        <v>125.57838097445264</v>
       </c>
       <c r="H9" s="2">
+        <v>781.0518995678417</v>
+      </c>
+      <c r="I9" s="2">
         <v>280.30504619215031</v>
       </c>
-      <c r="I9" s="2">
-        <v>838.37351035793881</v>
-      </c>
       <c r="J9" s="2">
-        <v>220.18753541886923</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="K9" s="2">
-        <v>331.84029128463823</v>
+        <v>251.24721436420126</v>
       </c>
       <c r="L9" s="2">
-        <v>124.14118164992939</v>
+        <v>180.62492182429742</v>
       </c>
       <c r="M9" s="2">
-        <v>262.13667558192969</v>
+        <v>192.81629066413018</v>
       </c>
       <c r="N9" s="2">
-        <v>168.44448811912821</v>
+        <v>170.15459740112573</v>
       </c>
       <c r="O9" s="2">
-        <v>135.09745559205268</v>
+        <v>136.67598427902263</v>
       </c>
       <c r="P9" s="2">
-        <v>249.23855169302476</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="Q9" s="2">
-        <v>147.26273782696541</v>
+        <v>142.99511660708367</v>
       </c>
       <c r="R9" s="2">
-        <v>196.63732419034918</v>
+        <v>144.67239228758774</v>
       </c>
       <c r="S9" s="2">
-        <v>297.52217131521729</v>
+        <v>230.25819308606742</v>
       </c>
       <c r="T9" s="2">
-        <v>238.3637960786499</v>
+        <v>127.64373077765754</v>
       </c>
       <c r="U9" s="2">
-        <v>101.09869063829854</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="V9" s="2">
-        <v>280.94754563979768</v>
+        <v>197.90921028774486</v>
       </c>
       <c r="W9" s="2">
-        <v>207.55670991793721</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="X9" s="2">
-        <v>125.25502946381992</v>
+        <v>167.16529252466458</v>
       </c>
       <c r="Y9" s="2">
-        <v>156.85848823254082</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="Z9" s="2">
-        <v>88.365353761371409</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="AA9" s="2">
-        <v>80.08950551702371</v>
+        <v>109.51706971724869</v>
       </c>
       <c r="AB9" s="2">
-        <v>271.46820872045174</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="AC9" s="2">
-        <v>191.78676933604606</v>
+        <v>150.40515920172965</v>
       </c>
       <c r="AD9" s="2">
-        <v>169.6005056495419</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="AE9" s="2">
-        <v>200.7469200148355</v>
+        <v>234.16100471047412</v>
       </c>
       <c r="AF9" s="2">
-        <v>145.12829205664357</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="AG9" s="2">
-        <v>180.522480947487</v>
+        <v>151.13359075246257</v>
       </c>
       <c r="AH9" s="2">
-        <v>35.802153222879895</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="AI9" s="2">
-        <v>293.57924943581298</v>
+        <v>208.85122278344457</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0.46221255354074797</v>
+        <v>-0.68389570994587867</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>108.30131640678589</v>
+        <v>252.32055661927834</v>
       </c>
       <c r="C10" s="2">
-        <v>242.83825730736905</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="D10" s="2">
-        <v>136.23502699993207</v>
+        <v>243.93213914948922</v>
       </c>
       <c r="E10" s="2">
-        <v>127.07697778599002</v>
+        <v>192.30247603599506</v>
       </c>
       <c r="F10" s="2">
-        <v>108.40826209825264</v>
+        <v>185.78692594825753</v>
       </c>
       <c r="G10" s="2">
-        <v>122.89404653724397</v>
+        <v>180.79963479062815</v>
       </c>
       <c r="H10" s="2">
-        <v>173.5097797242243</v>
+        <v>280.30504619215031</v>
       </c>
       <c r="I10" s="2">
+        <v>838.37351035793881</v>
+      </c>
+      <c r="J10" s="2">
         <v>220.18753541886923</v>
       </c>
-      <c r="J10" s="2">
-        <v>427.5260294914907</v>
-      </c>
       <c r="K10" s="2">
-        <v>175.77684077764803</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="L10" s="2">
-        <v>91.742790542443686</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="M10" s="2">
-        <v>134.59344549350874</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="N10" s="2">
-        <v>171.99425366262642</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="O10" s="2">
-        <v>84.46557649713256</v>
+        <v>135.09745559205268</v>
       </c>
       <c r="P10" s="2">
-        <v>149.48931298742752</v>
+        <v>249.23855169302476</v>
       </c>
       <c r="Q10" s="2">
-        <v>86.427360201401385</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="R10" s="2">
-        <v>119.16158558104587</v>
+        <v>196.63732419034918</v>
       </c>
       <c r="S10" s="2">
-        <v>144.63945202686403</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="T10" s="2">
-        <v>173.15977494776553</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="U10" s="2">
-        <v>85.209278775506945</v>
+        <v>101.09869063829854</v>
       </c>
       <c r="V10" s="2">
-        <v>150.84930551726367</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="W10" s="2">
-        <v>165.56283797010582</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="X10" s="2">
-        <v>80.640600918740205</v>
+        <v>125.25502946381992</v>
       </c>
       <c r="Y10" s="2">
-        <v>135.22580595984829</v>
+        <v>156.85848823254082</v>
       </c>
       <c r="Z10" s="2">
-        <v>108.45053628077954</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="AA10" s="2">
-        <v>26.369500186548059</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="AB10" s="2">
-        <v>178.1678290413758</v>
+        <v>271.46820872045174</v>
       </c>
       <c r="AC10" s="2">
-        <v>98.377737243468786</v>
+        <v>191.78676933604606</v>
       </c>
       <c r="AD10" s="2">
-        <v>67.293386455081745</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="AE10" s="2">
-        <v>110.64617933239825</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="AF10" s="2">
-        <v>133.48830432935381</v>
+        <v>145.12829205664357</v>
       </c>
       <c r="AG10" s="2">
-        <v>211.23140839310469</v>
+        <v>180.522480947487</v>
       </c>
       <c r="AH10" s="2">
-        <v>72.606150947101668</v>
+        <v>35.802153222879895</v>
       </c>
       <c r="AI10" s="2">
-        <v>148.09795549277288</v>
+        <v>293.57924943581298</v>
       </c>
       <c r="AJ10" s="2">
-        <v>6.5994493255562467</v>
+        <v>0.46221255354074797</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>200.50313914820566</v>
+        <v>108.30131640678589</v>
       </c>
       <c r="C11" s="2">
-        <v>408.71278354973731</v>
+        <v>242.83825730736905</v>
       </c>
       <c r="D11" s="2">
-        <v>413.14476396087127</v>
+        <v>136.23502699993207</v>
       </c>
       <c r="E11" s="2">
-        <v>294.13396230963349</v>
+        <v>127.07697778599002</v>
       </c>
       <c r="F11" s="2">
-        <v>233.04336655224688</v>
+        <v>108.40826209825264</v>
       </c>
       <c r="G11" s="2">
-        <v>383.3199036749437</v>
+        <v>122.89404653724397</v>
       </c>
       <c r="H11" s="2">
-        <v>251.24721436420126</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="I11" s="2">
-        <v>331.84029128463823</v>
+        <v>220.18753541886923</v>
       </c>
       <c r="J11" s="2">
+        <v>427.5260294914907</v>
+      </c>
+      <c r="K11" s="2">
         <v>175.77684077764803</v>
       </c>
-      <c r="K11" s="2">
-        <v>1358.787686183151</v>
-      </c>
       <c r="L11" s="2">
-        <v>195.3051796373278</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="M11" s="2">
-        <v>238.15967503158038</v>
+        <v>134.59344549350874</v>
       </c>
       <c r="N11" s="2">
-        <v>126.30311912455112</v>
+        <v>171.99425366262642</v>
       </c>
       <c r="O11" s="2">
-        <v>271.41290296929685</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="P11" s="2">
-        <v>372.50991851566602</v>
+        <v>149.48931298742752</v>
       </c>
       <c r="Q11" s="2">
-        <v>231.48432071032732</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="R11" s="2">
-        <v>354.00694907312237</v>
+        <v>119.16158558104587</v>
       </c>
       <c r="S11" s="2">
-        <v>488.72347404409368</v>
+        <v>144.63945202686403</v>
       </c>
       <c r="T11" s="2">
-        <v>382.65433855922231</v>
+        <v>173.15977494776553</v>
       </c>
       <c r="U11" s="2">
-        <v>167.53980080791092</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="V11" s="2">
-        <v>572.0380229936676</v>
+        <v>150.84930551726367</v>
       </c>
       <c r="W11" s="2">
-        <v>235.0059811950203</v>
+        <v>165.56283797010582</v>
       </c>
       <c r="X11" s="2">
-        <v>191.48450236987463</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="Y11" s="2">
-        <v>316.97459323691658</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="Z11" s="2">
-        <v>177.12909713551551</v>
+        <v>108.45053628077954</v>
       </c>
       <c r="AA11" s="2">
-        <v>122.96093553755861</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="AB11" s="2">
-        <v>396.35675306308644</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="AC11" s="2">
-        <v>249.19836635872809</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="AD11" s="2">
-        <v>301.48926285497038</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="AE11" s="2">
-        <v>323.53972515804298</v>
+        <v>110.64617933239825</v>
       </c>
       <c r="AF11" s="2">
-        <v>301.91221359934354</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="AG11" s="2">
-        <v>120.9052137266375</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="AH11" s="2">
-        <v>124.94613956133232</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="AI11" s="2">
-        <v>396.98320448909578</v>
+        <v>148.09795549277288</v>
       </c>
       <c r="AJ11" s="2">
-        <v>4.1210709777962204</v>
+        <v>6.5994493255562467</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>115.06862158885836</v>
+        <v>200.50313914820566</v>
       </c>
       <c r="C12" s="2">
-        <v>116.31136965816854</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="D12" s="2">
-        <v>185.84805232353955</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="E12" s="2">
-        <v>140.33988801706425</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="F12" s="2">
-        <v>92.308924426872736</v>
+        <v>233.04336655224688</v>
       </c>
       <c r="G12" s="2">
-        <v>111.3875824222295</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="H12" s="2">
-        <v>180.62492182429742</v>
+        <v>251.24721436420126</v>
       </c>
       <c r="I12" s="2">
-        <v>124.14118164992939</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="J12" s="2">
-        <v>91.742790542443686</v>
+        <v>175.77684077764803</v>
       </c>
       <c r="K12" s="2">
+        <v>1358.787686183151</v>
+      </c>
+      <c r="L12" s="2">
         <v>195.3051796373278</v>
       </c>
-      <c r="L12" s="2">
-        <v>503.97717427459997</v>
-      </c>
       <c r="M12" s="2">
-        <v>108.44078065854272</v>
+        <v>238.15967503158038</v>
       </c>
       <c r="N12" s="2">
-        <v>100.65767553665017</v>
+        <v>126.30311912455112</v>
       </c>
       <c r="O12" s="2">
-        <v>57.945289154956072</v>
+        <v>271.41290296929685</v>
       </c>
       <c r="P12" s="2">
-        <v>127.11667649537377</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="Q12" s="2">
-        <v>72.437453574559527</v>
+        <v>231.48432071032732</v>
       </c>
       <c r="R12" s="2">
-        <v>84.302761996605113</v>
+        <v>354.00694907312237</v>
       </c>
       <c r="S12" s="2">
-        <v>104.82028100088206</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="T12" s="2">
-        <v>61.502970093786168</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="U12" s="2">
-        <v>128.57685413453819</v>
+        <v>167.53980080791092</v>
       </c>
       <c r="V12" s="2">
-        <v>200.74189320986176</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="W12" s="2">
-        <v>147.86773917655279</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="X12" s="2">
-        <v>158.65563973998485</v>
+        <v>191.48450236987463</v>
       </c>
       <c r="Y12" s="2">
-        <v>72.022935281638695</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="Z12" s="2">
-        <v>94.041414506079477</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="AA12" s="2">
-        <v>165.82529262500913</v>
+        <v>122.96093553755861</v>
       </c>
       <c r="AB12" s="2">
-        <v>120.62583007144414</v>
+        <v>396.35675306308644</v>
       </c>
       <c r="AC12" s="2">
-        <v>71.235072299085743</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="AD12" s="2">
-        <v>102.09438731975064</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="AE12" s="2">
-        <v>131.72799395978635</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="AF12" s="2">
-        <v>48.012541311291379</v>
+        <v>301.91221359934354</v>
       </c>
       <c r="AG12" s="2">
-        <v>86.499890084909353</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="AH12" s="2">
-        <v>71.835602510157244</v>
+        <v>124.94613956133232</v>
       </c>
       <c r="AI12" s="2">
-        <v>205.37467904529368</v>
+        <v>396.98320448909578</v>
       </c>
       <c r="AJ12" s="2">
-        <v>2.0945591127529246</v>
+        <v>4.1210709777962204</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>181.00745688442851</v>
+        <v>115.06862158885836</v>
       </c>
       <c r="C13" s="2">
-        <v>341.01969348749583</v>
+        <v>116.31136965816854</v>
       </c>
       <c r="D13" s="2">
-        <v>193.39444093770129</v>
+        <v>185.84805232353955</v>
       </c>
       <c r="E13" s="2">
-        <v>175.55334084063418</v>
+        <v>140.33988801706425</v>
       </c>
       <c r="F13" s="2">
-        <v>103.74347282853452</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="G13" s="2">
-        <v>138.32570821238457</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="H13" s="2">
-        <v>192.81629066413018</v>
+        <v>180.62492182429742</v>
       </c>
       <c r="I13" s="2">
-        <v>262.13667558192969</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="J13" s="2">
-        <v>134.59344549350874</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="K13" s="2">
-        <v>238.15967503158038</v>
+        <v>195.3051796373278</v>
       </c>
       <c r="L13" s="2">
+        <v>503.97717427459997</v>
+      </c>
+      <c r="M13" s="2">
         <v>108.44078065854272</v>
       </c>
-      <c r="M13" s="2">
-        <v>459.80909542628228</v>
-      </c>
       <c r="N13" s="2">
-        <v>118.62388953632595</v>
+        <v>100.65767553665017</v>
       </c>
       <c r="O13" s="2">
-        <v>135.10811775801392</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="P13" s="2">
-        <v>139.501244722682</v>
+        <v>127.11667649537377</v>
       </c>
       <c r="Q13" s="2">
-        <v>128.13600354240052</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="R13" s="2">
-        <v>167.12036312952466</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="S13" s="2">
-        <v>193.38890278254826</v>
+        <v>104.82028100088206</v>
       </c>
       <c r="T13" s="2">
-        <v>161.74073601764644</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="U13" s="2">
-        <v>71.215619934374232</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="V13" s="2">
-        <v>194.54109988576079</v>
+        <v>200.74189320986176</v>
       </c>
       <c r="W13" s="2">
-        <v>136.16834099815333</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="X13" s="2">
-        <v>106.828537318736</v>
+        <v>158.65563973998485</v>
       </c>
       <c r="Y13" s="2">
-        <v>147.01993140673713</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="Z13" s="2">
-        <v>41.506220177290956</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="AA13" s="2">
-        <v>75.401018589211333</v>
+        <v>165.82529262500913</v>
       </c>
       <c r="AB13" s="2">
-        <v>186.68811405136699</v>
+        <v>120.62583007144414</v>
       </c>
       <c r="AC13" s="2">
-        <v>117.88409421190754</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="AD13" s="2">
-        <v>118.92646708236742</v>
+        <v>102.09438731975064</v>
       </c>
       <c r="AE13" s="2">
-        <v>144.0909217684362</v>
+        <v>131.72799395978635</v>
       </c>
       <c r="AF13" s="2">
-        <v>168.39880012754691</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="AG13" s="2">
-        <v>121.616893836727</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="AH13" s="2">
-        <v>31.170007378826824</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="AI13" s="2">
-        <v>190.64121786924881</v>
+        <v>205.37467904529368</v>
       </c>
       <c r="AJ13" s="2">
-        <v>0.86120533912917052</v>
+        <v>2.0945591127529246</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>93.563217131766521</v>
+        <v>181.00745688442851</v>
       </c>
       <c r="C14" s="2">
-        <v>208.35227731785</v>
+        <v>341.01969348749583</v>
       </c>
       <c r="D14" s="2">
-        <v>113.02439881934129</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="E14" s="2">
-        <v>99.33937199209285</v>
+        <v>175.55334084063418</v>
       </c>
       <c r="F14" s="2">
-        <v>119.75681097457645</v>
+        <v>103.74347282853452</v>
       </c>
       <c r="G14" s="2">
-        <v>68.06412250932965</v>
+        <v>138.32570821238457</v>
       </c>
       <c r="H14" s="2">
-        <v>170.15459740112573</v>
+        <v>192.81629066413018</v>
       </c>
       <c r="I14" s="2">
-        <v>168.44448811912821</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="J14" s="2">
-        <v>171.99425366262642</v>
+        <v>134.59344549350874</v>
       </c>
       <c r="K14" s="2">
-        <v>126.30311912455112</v>
+        <v>238.15967503158038</v>
       </c>
       <c r="L14" s="2">
-        <v>100.65767553665017</v>
+        <v>108.44078065854272</v>
       </c>
       <c r="M14" s="2">
+        <v>459.80909542628228</v>
+      </c>
+      <c r="N14" s="2">
         <v>118.62388953632595</v>
       </c>
-      <c r="N14" s="2">
-        <v>294.32254631190136</v>
-      </c>
       <c r="O14" s="2">
-        <v>63.741222126939007</v>
+        <v>135.10811775801392</v>
       </c>
       <c r="P14" s="2">
-        <v>121.78234326620017</v>
+        <v>139.501244722682</v>
       </c>
       <c r="Q14" s="2">
-        <v>103.47885801711872</v>
+        <v>128.13600354240052</v>
       </c>
       <c r="R14" s="2">
-        <v>67.399145730913588</v>
+        <v>167.12036312952466</v>
       </c>
       <c r="S14" s="2">
-        <v>114.58721658693514</v>
+        <v>193.38890278254826</v>
       </c>
       <c r="T14" s="2">
-        <v>140.53359294640407</v>
+        <v>161.74073601764644</v>
       </c>
       <c r="U14" s="2">
-        <v>62.512086287662456</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="V14" s="2">
-        <v>99.389567888432452</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="W14" s="2">
-        <v>106.03258109480784</v>
+        <v>136.16834099815333</v>
       </c>
       <c r="X14" s="2">
-        <v>85.223776598623346</v>
+        <v>106.828537318736</v>
       </c>
       <c r="Y14" s="2">
-        <v>103.70071992210784</v>
+        <v>147.01993140673713</v>
       </c>
       <c r="Z14" s="2">
-        <v>71.567080711629714</v>
+        <v>41.506220177290956</v>
       </c>
       <c r="AA14" s="2">
-        <v>59.172917352252909</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="AB14" s="2">
-        <v>109.66022273595465</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="AC14" s="2">
-        <v>115.82963637627815</v>
+        <v>117.88409421190754</v>
       </c>
       <c r="AD14" s="2">
-        <v>41.508475309720168</v>
+        <v>118.92646708236742</v>
       </c>
       <c r="AE14" s="2">
-        <v>87.907641664722789</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="AF14" s="2">
-        <v>81.086486769544706</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="AG14" s="2">
-        <v>151.11324751753361</v>
+        <v>121.616893836727</v>
       </c>
       <c r="AH14" s="2">
-        <v>39.212363566967007</v>
+        <v>31.170007378826824</v>
       </c>
       <c r="AI14" s="2">
-        <v>131.23207470926553</v>
+        <v>190.64121786924881</v>
       </c>
       <c r="AJ14" s="2">
-        <v>1.8336803660598988</v>
+        <v>0.86120533912917052</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>84.499208257831356</v>
+        <v>93.563217131766521</v>
       </c>
       <c r="C15" s="2">
-        <v>201.0832886124773</v>
+        <v>208.35227731785</v>
       </c>
       <c r="D15" s="2">
-        <v>204.47790189544389</v>
+        <v>113.02439881934129</v>
       </c>
       <c r="E15" s="2">
-        <v>192.9276288874587</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="F15" s="2">
-        <v>119.84124204399535</v>
+        <v>119.75681097457645</v>
       </c>
       <c r="G15" s="2">
-        <v>127.23973828136521</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="H15" s="2">
-        <v>136.67598427902263</v>
+        <v>170.15459740112573</v>
       </c>
       <c r="I15" s="2">
-        <v>135.09745559205268</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="J15" s="2">
-        <v>84.46557649713256</v>
+        <v>171.99425366262642</v>
       </c>
       <c r="K15" s="2">
-        <v>271.41290296929685</v>
+        <v>126.30311912455112</v>
       </c>
       <c r="L15" s="2">
-        <v>57.945289154956072</v>
+        <v>100.65767553665017</v>
       </c>
       <c r="M15" s="2">
-        <v>135.10811775801392</v>
+        <v>118.62388953632595</v>
       </c>
       <c r="N15" s="2">
+        <v>294.32254631190136</v>
+      </c>
+      <c r="O15" s="2">
         <v>63.741222126939007</v>
       </c>
-      <c r="O15" s="2">
-        <v>466.65689750258787</v>
-      </c>
       <c r="P15" s="2">
-        <v>193.68991843799023</v>
+        <v>121.78234326620017</v>
       </c>
       <c r="Q15" s="2">
-        <v>164.46631065710034</v>
+        <v>103.47885801711872</v>
       </c>
       <c r="R15" s="2">
-        <v>239.89849014505882</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="S15" s="2">
-        <v>290.798772494236</v>
+        <v>114.58721658693514</v>
       </c>
       <c r="T15" s="2">
-        <v>237.64225261060812</v>
+        <v>140.53359294640407</v>
       </c>
       <c r="U15" s="2">
-        <v>89.89307816297439</v>
+        <v>62.512086287662456</v>
       </c>
       <c r="V15" s="2">
-        <v>217.07156143559041</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="W15" s="2">
-        <v>135.33697030066872</v>
+        <v>106.03258109480784</v>
       </c>
       <c r="X15" s="2">
-        <v>87.116106911327421</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="Y15" s="2">
-        <v>273.46958385683422</v>
+        <v>103.70071992210784</v>
       </c>
       <c r="Z15" s="2">
-        <v>94.853642301371025</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="AA15" s="2">
-        <v>65.071783678878262</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="AB15" s="2">
-        <v>207.36809374720599</v>
+        <v>109.66022273595465</v>
       </c>
       <c r="AC15" s="2">
-        <v>110.88883408561448</v>
+        <v>115.82963637627815</v>
       </c>
       <c r="AD15" s="2">
-        <v>167.52545705243415</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="AE15" s="2">
-        <v>149.94029582364553</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="AF15" s="2">
-        <v>209.37039822178861</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="AG15" s="2">
-        <v>77.44398318164923</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="AH15" s="2">
-        <v>105.72820911861342</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="AI15" s="2">
-        <v>234.63224645485644</v>
+        <v>131.23207470926553</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0.26742936917059534</v>
+        <v>1.8336803660598988</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>137.14556104241098</v>
+        <v>84.499208257831356</v>
       </c>
       <c r="C16" s="2">
-        <v>370.59441619017616</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="D16" s="2">
-        <v>268.48019254081157</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="E16" s="2">
-        <v>209.03090280930763</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="F16" s="2">
-        <v>125.79621562096442</v>
+        <v>119.84124204399535</v>
       </c>
       <c r="G16" s="2">
-        <v>251.54529919627572</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="H16" s="2">
-        <v>252.6496579583839</v>
+        <v>136.67598427902263</v>
       </c>
       <c r="I16" s="2">
-        <v>249.23855169302476</v>
+        <v>135.09745559205268</v>
       </c>
       <c r="J16" s="2">
-        <v>149.48931298742752</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="K16" s="2">
-        <v>372.50991851566602</v>
+        <v>271.41290296929685</v>
       </c>
       <c r="L16" s="2">
-        <v>127.11667649537377</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="M16" s="2">
-        <v>139.501244722682</v>
+        <v>135.10811775801392</v>
       </c>
       <c r="N16" s="2">
-        <v>121.78234326620017</v>
+        <v>63.741222126939007</v>
       </c>
       <c r="O16" s="2">
+        <v>466.65689750258787</v>
+      </c>
+      <c r="P16" s="2">
         <v>193.68991843799023</v>
       </c>
-      <c r="P16" s="2">
-        <v>1086.8773107326451</v>
-      </c>
       <c r="Q16" s="2">
-        <v>245.6704146611259</v>
+        <v>164.46631065710034</v>
       </c>
       <c r="R16" s="2">
-        <v>251.00856971975074</v>
+        <v>239.89849014505882</v>
       </c>
       <c r="S16" s="2">
-        <v>429.37894065076455</v>
+        <v>290.798772494236</v>
       </c>
       <c r="T16" s="2">
-        <v>239.5144709788452</v>
+        <v>237.64225261060812</v>
       </c>
       <c r="U16" s="2">
-        <v>92.04110921170934</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="V16" s="2">
-        <v>392.28232371086057</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="W16" s="2">
-        <v>191.24409203313044</v>
+        <v>135.33697030066872</v>
       </c>
       <c r="X16" s="2">
-        <v>131.27163202690593</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="Y16" s="2">
-        <v>259.48638099811751</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="Z16" s="2">
-        <v>146.37163608302396</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="AA16" s="2">
-        <v>98.06780864946208</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="AB16" s="2">
-        <v>272.23324186599973</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="AC16" s="2">
-        <v>125.66350170105912</v>
+        <v>110.88883408561448</v>
       </c>
       <c r="AD16" s="2">
-        <v>165.16239197600535</v>
+        <v>167.52545705243415</v>
       </c>
       <c r="AE16" s="2">
-        <v>308.33902222680797</v>
+        <v>149.94029582364553</v>
       </c>
       <c r="AF16" s="2">
-        <v>221.29370171731847</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="AG16" s="2">
-        <v>131.72185730605403</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="AH16" s="2">
-        <v>115.72278478089477</v>
+        <v>105.72820911861342</v>
       </c>
       <c r="AI16" s="2">
-        <v>261.66767661709116</v>
+        <v>234.63224645485644</v>
       </c>
       <c r="AJ16" s="2">
-        <v>5.5938319634512306</v>
+        <v>0.26742936917059534</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>129.13553230338633</v>
+        <v>137.14556104241098</v>
       </c>
       <c r="C17" s="2">
-        <v>375.3575740415057</v>
+        <v>370.59441619017616</v>
       </c>
       <c r="D17" s="2">
-        <v>175.23729498843988</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="E17" s="2">
-        <v>112.43188146143657</v>
+        <v>209.03090280930763</v>
       </c>
       <c r="F17" s="2">
-        <v>155.88917819746456</v>
+        <v>125.79621562096442</v>
       </c>
       <c r="G17" s="2">
-        <v>111.55251459621643</v>
+        <v>251.54529919627572</v>
       </c>
       <c r="H17" s="2">
-        <v>142.99511660708367</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="I17" s="2">
-        <v>147.26273782696541</v>
+        <v>249.23855169302476</v>
       </c>
       <c r="J17" s="2">
-        <v>86.427360201401385</v>
+        <v>149.48931298742752</v>
       </c>
       <c r="K17" s="2">
-        <v>231.48432071032732</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="L17" s="2">
-        <v>72.437453574559527</v>
+        <v>127.11667649537377</v>
       </c>
       <c r="M17" s="2">
-        <v>128.13600354240052</v>
+        <v>139.501244722682</v>
       </c>
       <c r="N17" s="2">
-        <v>103.47885801711872</v>
+        <v>121.78234326620017</v>
       </c>
       <c r="O17" s="2">
-        <v>164.46631065710034</v>
+        <v>193.68991843799023</v>
       </c>
       <c r="P17" s="2">
+        <v>1086.8773107326451</v>
+      </c>
+      <c r="Q17" s="2">
         <v>245.6704146611259</v>
       </c>
-      <c r="Q17" s="2">
-        <v>978.61309168424441</v>
-      </c>
       <c r="R17" s="2">
-        <v>252.52021059264899</v>
+        <v>251.00856971975074</v>
       </c>
       <c r="S17" s="2">
-        <v>535.62283932289301</v>
+        <v>429.37894065076455</v>
       </c>
       <c r="T17" s="2">
-        <v>375.2416364702961</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="U17" s="2">
-        <v>19.947362356354745</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="V17" s="2">
-        <v>253.47970241250792</v>
+        <v>392.28232371086057</v>
       </c>
       <c r="W17" s="2">
-        <v>125.03929936919268</v>
+        <v>191.24409203313044</v>
       </c>
       <c r="X17" s="2">
-        <v>51.316562143824932</v>
+        <v>131.27163202690593</v>
       </c>
       <c r="Y17" s="2">
-        <v>357.56488183561294</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Z17" s="2">
-        <v>67.849797906623991</v>
+        <v>146.37163608302396</v>
       </c>
       <c r="AA17" s="2">
-        <v>53.578182415381313</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="AB17" s="2">
-        <v>212.68404085167327</v>
+        <v>272.23324186599973</v>
       </c>
       <c r="AC17" s="2">
-        <v>154.67817954636763</v>
+        <v>125.66350170105912</v>
       </c>
       <c r="AD17" s="2">
-        <v>95.545536267340097</v>
+        <v>165.16239197600535</v>
       </c>
       <c r="AE17" s="2">
-        <v>256.28578800037286</v>
+        <v>308.33902222680797</v>
       </c>
       <c r="AF17" s="2">
-        <v>235.47108672824291</v>
+        <v>221.29370171731847</v>
       </c>
       <c r="AG17" s="2">
-        <v>115.15758581186131</v>
+        <v>131.72185730605403</v>
       </c>
       <c r="AH17" s="2">
-        <v>20.015755498576198</v>
+        <v>115.72278478089477</v>
       </c>
       <c r="AI17" s="2">
-        <v>220.94513750645314</v>
+        <v>261.66767661709116</v>
       </c>
       <c r="AJ17" s="2">
-        <v>2.5260578366523889</v>
+        <v>5.5938319634512306</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>136.14701772793222</v>
+        <v>129.13553230338633</v>
       </c>
       <c r="C18" s="2">
-        <v>310.0471024202572</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="D18" s="2">
-        <v>285.78521619883679</v>
+        <v>175.23729498843988</v>
       </c>
       <c r="E18" s="2">
-        <v>222.4007556424431</v>
+        <v>112.43188146143657</v>
       </c>
       <c r="F18" s="2">
-        <v>149.27121235804003</v>
+        <v>155.88917819746456</v>
       </c>
       <c r="G18" s="2">
-        <v>185.22327353551367</v>
+        <v>111.55251459621643</v>
       </c>
       <c r="H18" s="2">
-        <v>144.67239228758774</v>
+        <v>142.99511660708367</v>
       </c>
       <c r="I18" s="2">
-        <v>196.63732419034918</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="J18" s="2">
-        <v>119.16158558104587</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="K18" s="2">
-        <v>354.00694907312237</v>
+        <v>231.48432071032732</v>
       </c>
       <c r="L18" s="2">
-        <v>84.302761996605113</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="M18" s="2">
-        <v>167.12036312952466</v>
+        <v>128.13600354240052</v>
       </c>
       <c r="N18" s="2">
-        <v>67.399145730913588</v>
+        <v>103.47885801711872</v>
       </c>
       <c r="O18" s="2">
-        <v>239.89849014505882</v>
+        <v>164.46631065710034</v>
       </c>
       <c r="P18" s="2">
-        <v>251.00856971975074</v>
+        <v>245.6704146611259</v>
       </c>
       <c r="Q18" s="2">
+        <v>978.61309168424441</v>
+      </c>
+      <c r="R18" s="2">
         <v>252.52021059264899</v>
       </c>
-      <c r="R18" s="2">
-        <v>910.13109087652469</v>
-      </c>
       <c r="S18" s="2">
-        <v>341.09453450445494</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="T18" s="2">
-        <v>295.93421881220456</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="U18" s="2">
-        <v>57.247904196337423</v>
+        <v>19.947362356354745</v>
       </c>
       <c r="V18" s="2">
-        <v>338.66684620604821</v>
+        <v>253.47970241250792</v>
       </c>
       <c r="W18" s="2">
-        <v>229.17211813202664</v>
+        <v>125.03929936919268</v>
       </c>
       <c r="X18" s="2">
-        <v>35.582608421144116</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="Y18" s="2">
-        <v>303.25524381254525</v>
+        <v>357.56488183561294</v>
       </c>
       <c r="Z18" s="2">
-        <v>97.486373264302628</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="AA18" s="2">
-        <v>67.437693902691919</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="AB18" s="2">
-        <v>263.66207538828655</v>
+        <v>212.68404085167327</v>
       </c>
       <c r="AC18" s="2">
-        <v>133.82299263943048</v>
+        <v>154.67817954636763</v>
       </c>
       <c r="AD18" s="2">
-        <v>306.05824352191001</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="AE18" s="2">
-        <v>203.54624800442815</v>
+        <v>256.28578800037286</v>
       </c>
       <c r="AF18" s="2">
-        <v>268.4656919372826</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="AG18" s="2">
-        <v>112.24584064721385</v>
+        <v>115.15758581186131</v>
       </c>
       <c r="AH18" s="2">
-        <v>107.4569121428264</v>
+        <v>20.015755498576198</v>
       </c>
       <c r="AI18" s="2">
-        <v>293.99535247559885</v>
+        <v>220.94513750645314</v>
       </c>
       <c r="AJ18" s="2">
-        <v>6.2779338804389804</v>
+        <v>2.5260578366523889</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>215.11526776160673</v>
+        <v>136.14701772793222</v>
       </c>
       <c r="C19" s="2">
-        <v>506.37347394879293</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="D19" s="2">
-        <v>342.10203461542034</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="E19" s="2">
-        <v>215.07527051520898</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="F19" s="2">
-        <v>167.02790109339634</v>
+        <v>149.27121235804003</v>
       </c>
       <c r="G19" s="2">
-        <v>216.43501583290447</v>
+        <v>185.22327353551367</v>
       </c>
       <c r="H19" s="2">
-        <v>230.25819308606742</v>
+        <v>144.67239228758774</v>
       </c>
       <c r="I19" s="2">
-        <v>297.52217131521729</v>
+        <v>196.63732419034918</v>
       </c>
       <c r="J19" s="2">
-        <v>144.63945202686403</v>
+        <v>119.16158558104587</v>
       </c>
       <c r="K19" s="2">
-        <v>488.72347404409368</v>
+        <v>354.00694907312237</v>
       </c>
       <c r="L19" s="2">
-        <v>104.82028100088206</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="M19" s="2">
-        <v>193.38890278254826</v>
+        <v>167.12036312952466</v>
       </c>
       <c r="N19" s="2">
-        <v>114.58721658693514</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="O19" s="2">
-        <v>290.798772494236</v>
+        <v>239.89849014505882</v>
       </c>
       <c r="P19" s="2">
-        <v>429.37894065076455</v>
+        <v>251.00856971975074</v>
       </c>
       <c r="Q19" s="2">
-        <v>535.62283932289301</v>
+        <v>252.52021059264899</v>
       </c>
       <c r="R19" s="2">
+        <v>910.13109087652469</v>
+      </c>
+      <c r="S19" s="2">
         <v>341.09453450445494</v>
       </c>
-      <c r="S19" s="2">
-        <v>1783.3369441713976</v>
-      </c>
       <c r="T19" s="2">
-        <v>550.79191919530172</v>
+        <v>295.93421881220456</v>
       </c>
       <c r="U19" s="2">
-        <v>126.75507674567965</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="V19" s="2">
-        <v>458.90299983472732</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="W19" s="2">
-        <v>211.99582921518669</v>
+        <v>229.17211813202664</v>
       </c>
       <c r="X19" s="2">
-        <v>148.19028888487753</v>
+        <v>35.582608421144116</v>
       </c>
       <c r="Y19" s="2">
-        <v>553.34048404281725</v>
+        <v>303.25524381254525</v>
       </c>
       <c r="Z19" s="2">
-        <v>195.29515394921083</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="AA19" s="2">
-        <v>40.581894946375208</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="AB19" s="2">
-        <v>314.74757018371292</v>
+        <v>263.66207538828655</v>
       </c>
       <c r="AC19" s="2">
-        <v>218.0755684264671</v>
+        <v>133.82299263943048</v>
       </c>
       <c r="AD19" s="2">
-        <v>191.00651545207296</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="AE19" s="2">
-        <v>399.39223543329865</v>
+        <v>203.54624800442815</v>
       </c>
       <c r="AF19" s="2">
-        <v>270.73764185630307</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="AG19" s="2">
-        <v>122.36388529461458</v>
+        <v>112.24584064721385</v>
       </c>
       <c r="AH19" s="2">
-        <v>66.556604606616546</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="AI19" s="2">
-        <v>367.90002629035922</v>
+        <v>293.99535247559885</v>
       </c>
       <c r="AJ19" s="2">
-        <v>5.6092366200626467</v>
+        <v>6.2779338804389804</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>165.76853839791477</v>
+        <v>215.11526776160673</v>
       </c>
       <c r="C20" s="2">
-        <v>404.50413447791937</v>
+        <v>506.37347394879293</v>
       </c>
       <c r="D20" s="2">
-        <v>248.90380514951406</v>
+        <v>342.10203461542034</v>
       </c>
       <c r="E20" s="2">
-        <v>141.28425474020241</v>
+        <v>215.07527051520898</v>
       </c>
       <c r="F20" s="2">
-        <v>199.79395929571649</v>
+        <v>167.02790109339634</v>
       </c>
       <c r="G20" s="2">
-        <v>187.62135599764139</v>
+        <v>216.43501583290447</v>
       </c>
       <c r="H20" s="2">
-        <v>127.64373077765754</v>
+        <v>230.25819308606742</v>
       </c>
       <c r="I20" s="2">
-        <v>238.3637960786499</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="J20" s="2">
-        <v>173.15977494776553</v>
+        <v>144.63945202686403</v>
       </c>
       <c r="K20" s="2">
-        <v>382.65433855922231</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="L20" s="2">
-        <v>61.502970093786168</v>
+        <v>104.82028100088206</v>
       </c>
       <c r="M20" s="2">
-        <v>161.74073601764644</v>
+        <v>193.38890278254826</v>
       </c>
       <c r="N20" s="2">
-        <v>140.53359294640407</v>
+        <v>114.58721658693514</v>
       </c>
       <c r="O20" s="2">
-        <v>237.64225261060812</v>
+        <v>290.798772494236</v>
       </c>
       <c r="P20" s="2">
-        <v>239.5144709788452</v>
+        <v>429.37894065076455</v>
       </c>
       <c r="Q20" s="2">
-        <v>375.2416364702961</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="R20" s="2">
-        <v>295.93421881220456</v>
+        <v>341.09453450445494</v>
       </c>
       <c r="S20" s="2">
+        <v>1783.3369441713976</v>
+      </c>
+      <c r="T20" s="2">
         <v>550.79191919530172</v>
       </c>
-      <c r="T20" s="2">
-        <v>969.61592179225852</v>
-      </c>
       <c r="U20" s="2">
-        <v>85.398734410171826</v>
+        <v>126.75507674567965</v>
       </c>
       <c r="V20" s="2">
-        <v>361.24143922807997</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="W20" s="2">
-        <v>162.13349425146458</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="X20" s="2">
-        <v>67.261857081319206</v>
+        <v>148.19028888487753</v>
       </c>
       <c r="Y20" s="2">
-        <v>433.55858268746113</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="Z20" s="2">
-        <v>105.84527761617709</v>
+        <v>195.29515394921083</v>
       </c>
       <c r="AA20" s="2">
-        <v>12.362771975126645</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="AB20" s="2">
-        <v>248.2669691986157</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="AC20" s="2">
-        <v>236.33810606103117</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="AD20" s="2">
-        <v>188.48650571104719</v>
+        <v>191.00651545207296</v>
       </c>
       <c r="AE20" s="2">
-        <v>248.22324024451484</v>
+        <v>399.39223543329865</v>
       </c>
       <c r="AF20" s="2">
-        <v>231.25000817449251</v>
+        <v>270.73764185630307</v>
       </c>
       <c r="AG20" s="2">
-        <v>145.60098746437978</v>
+        <v>122.36388529461458</v>
       </c>
       <c r="AH20" s="2">
-        <v>38.467916507858817</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="AI20" s="2">
-        <v>294.62416971213156</v>
+        <v>367.90002629035922</v>
       </c>
       <c r="AJ20" s="2">
-        <v>2.8853417908161023</v>
+        <v>5.6092366200626467</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>85.84730480690186</v>
+        <v>165.76853839791477</v>
       </c>
       <c r="C21" s="2">
-        <v>55.358840210033236</v>
+        <v>404.50413447791937</v>
       </c>
       <c r="D21" s="2">
-        <v>133.17960268602755</v>
+        <v>248.90380514951406</v>
       </c>
       <c r="E21" s="2">
-        <v>112.71875502656673</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="F21" s="2">
-        <v>80.015176229995902</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="G21" s="2">
-        <v>69.785371377166143</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="H21" s="2">
-        <v>95.631152378042515</v>
+        <v>127.64373077765754</v>
       </c>
       <c r="I21" s="2">
-        <v>101.09869063829854</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="J21" s="2">
-        <v>85.209278775506945</v>
+        <v>173.15977494776553</v>
       </c>
       <c r="K21" s="2">
-        <v>167.53980080791092</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="L21" s="2">
-        <v>128.57685413453819</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="M21" s="2">
-        <v>71.215619934374232</v>
+        <v>161.74073601764644</v>
       </c>
       <c r="N21" s="2">
-        <v>62.512086287662456</v>
+        <v>140.53359294640407</v>
       </c>
       <c r="O21" s="2">
-        <v>89.89307816297439</v>
+        <v>237.64225261060812</v>
       </c>
       <c r="P21" s="2">
-        <v>92.04110921170934</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="Q21" s="2">
-        <v>19.947362356354745</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="R21" s="2">
-        <v>57.247904196337423</v>
+        <v>295.93421881220456</v>
       </c>
       <c r="S21" s="2">
-        <v>126.75507674567965</v>
+        <v>550.79191919530172</v>
       </c>
       <c r="T21" s="2">
+        <v>969.61592179225852</v>
+      </c>
+      <c r="U21" s="2">
         <v>85.398734410171826</v>
       </c>
-      <c r="U21" s="2">
-        <v>342.83574308192988</v>
-      </c>
       <c r="V21" s="2">
-        <v>78.194670118302625</v>
+        <v>361.24143922807997</v>
       </c>
       <c r="W21" s="2">
-        <v>98.855396875204917</v>
+        <v>162.13349425146458</v>
       </c>
       <c r="X21" s="2">
-        <v>145.92444837489415</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="Y21" s="2">
-        <v>91.265423044492252</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="Z21" s="2">
-        <v>128.93300316240015</v>
+        <v>105.84527761617709</v>
       </c>
       <c r="AA21" s="2">
-        <v>116.08120186993273</v>
+        <v>12.362771975126645</v>
       </c>
       <c r="AB21" s="2">
-        <v>115.18922798577128</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="AC21" s="2">
-        <v>57.656572750020857</v>
+        <v>236.33810606103117</v>
       </c>
       <c r="AD21" s="2">
-        <v>96.472069016605019</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="AE21" s="2">
-        <v>60.919383187046833</v>
+        <v>248.22324024451484</v>
       </c>
       <c r="AF21" s="2">
-        <v>21.787078320462694</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="AG21" s="2">
-        <v>78.057037873540764</v>
+        <v>145.60098746437978</v>
       </c>
       <c r="AH21" s="2">
-        <v>87.169651057370842</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="AI21" s="2">
-        <v>118.00567793560012</v>
+        <v>294.62416971213156</v>
       </c>
       <c r="AJ21" s="2">
-        <v>6.1385302978581811</v>
+        <v>2.8853417908161023</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>157.12167283294951</v>
+        <v>85.84730480690186</v>
       </c>
       <c r="C22" s="2">
-        <v>386.03568116512037</v>
+        <v>55.358840210033236</v>
       </c>
       <c r="D22" s="2">
-        <v>357.25892961301997</v>
+        <v>133.17960268602755</v>
       </c>
       <c r="E22" s="2">
-        <v>264.22172188476247</v>
+        <v>112.71875502656673</v>
       </c>
       <c r="F22" s="2">
-        <v>153.11983147169053</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="G22" s="2">
-        <v>374.47763327643872</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="H22" s="2">
-        <v>197.90921028774486</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="I22" s="2">
-        <v>280.94754563979768</v>
+        <v>101.09869063829854</v>
       </c>
       <c r="J22" s="2">
-        <v>150.84930551726367</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="K22" s="2">
-        <v>572.0380229936676</v>
+        <v>167.53980080791092</v>
       </c>
       <c r="L22" s="2">
-        <v>200.74189320986176</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="M22" s="2">
-        <v>194.54109988576079</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="N22" s="2">
-        <v>99.389567888432452</v>
+        <v>62.512086287662456</v>
       </c>
       <c r="O22" s="2">
-        <v>217.07156143559041</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="P22" s="2">
-        <v>392.28232371086057</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="Q22" s="2">
-        <v>253.47970241250792</v>
+        <v>19.947362356354745</v>
       </c>
       <c r="R22" s="2">
-        <v>338.66684620604821</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="S22" s="2">
-        <v>458.90299983472732</v>
+        <v>126.75507674567965</v>
       </c>
       <c r="T22" s="2">
-        <v>361.24143922807997</v>
+        <v>85.398734410171826</v>
       </c>
       <c r="U22" s="2">
+        <v>342.83574308192988</v>
+      </c>
+      <c r="V22" s="2">
         <v>78.194670118302625</v>
       </c>
-      <c r="V22" s="2">
-        <v>1059.7489095044148</v>
-      </c>
       <c r="W22" s="2">
-        <v>242.30025675577815</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="X22" s="2">
-        <v>150.90579374966055</v>
+        <v>145.92444837489415</v>
       </c>
       <c r="Y22" s="2">
-        <v>315.85552088591658</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="Z22" s="2">
-        <v>178.26517289086439</v>
+        <v>128.93300316240015</v>
       </c>
       <c r="AA22" s="2">
-        <v>132.61655851596953</v>
+        <v>116.08120186993273</v>
       </c>
       <c r="AB22" s="2">
-        <v>297.50079837228157</v>
+        <v>115.18922798577128</v>
       </c>
       <c r="AC22" s="2">
-        <v>181.63100538466776</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="AD22" s="2">
-        <v>250.7894396986915</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="AE22" s="2">
-        <v>309.50975548335617</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="AF22" s="2">
-        <v>223.49066459331061</v>
+        <v>21.787078320462694</v>
       </c>
       <c r="AG22" s="2">
-        <v>120.39384764956905</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="AH22" s="2">
-        <v>99.387070311455034</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="AI22" s="2">
-        <v>420.8796707612691</v>
+        <v>118.00567793560012</v>
       </c>
       <c r="AJ22" s="2">
-        <v>5.7693234801404731</v>
+        <v>6.1385302978581811</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>113.28014369578361</v>
+        <v>157.12167283294951</v>
       </c>
       <c r="C23" s="2">
-        <v>241.15230865022457</v>
+        <v>386.03568116512037</v>
       </c>
       <c r="D23" s="2">
-        <v>224.99702598411187</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="E23" s="2">
-        <v>186.96620920043364</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="F23" s="2">
-        <v>174.60862003666779</v>
+        <v>153.11983147169053</v>
       </c>
       <c r="G23" s="2">
-        <v>124.02985964442912</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="H23" s="2">
-        <v>163.0985006254939</v>
+        <v>197.90921028774486</v>
       </c>
       <c r="I23" s="2">
-        <v>207.55670991793721</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="J23" s="2">
-        <v>165.56283797010582</v>
+        <v>150.84930551726367</v>
       </c>
       <c r="K23" s="2">
-        <v>235.0059811950203</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="L23" s="2">
-        <v>147.86773917655279</v>
+        <v>200.74189320986176</v>
       </c>
       <c r="M23" s="2">
-        <v>136.16834099815333</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="N23" s="2">
-        <v>106.03258109480784</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="O23" s="2">
-        <v>135.33697030066872</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="P23" s="2">
-        <v>191.24409203313044</v>
+        <v>392.28232371086057</v>
       </c>
       <c r="Q23" s="2">
-        <v>125.03929936919268</v>
+        <v>253.47970241250792</v>
       </c>
       <c r="R23" s="2">
-        <v>229.17211813202664</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="S23" s="2">
-        <v>211.99582921518669</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="T23" s="2">
-        <v>162.13349425146458</v>
+        <v>361.24143922807997</v>
       </c>
       <c r="U23" s="2">
-        <v>98.855396875204917</v>
+        <v>78.194670118302625</v>
       </c>
       <c r="V23" s="2">
+        <v>1059.7489095044148</v>
+      </c>
+      <c r="W23" s="2">
         <v>242.30025675577815</v>
       </c>
-      <c r="W23" s="2">
-        <v>571.63494150457609</v>
-      </c>
       <c r="X23" s="2">
-        <v>157.86722921178691</v>
+        <v>150.90579374966055</v>
       </c>
       <c r="Y23" s="2">
-        <v>150.20428679956024</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="Z23" s="2">
-        <v>142.52126810753256</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="AA23" s="2">
-        <v>99.650467666795208</v>
+        <v>132.61655851596953</v>
       </c>
       <c r="AB23" s="2">
-        <v>211.26784329028064</v>
+        <v>297.50079837228157</v>
       </c>
       <c r="AC23" s="2">
-        <v>156.35117624772391</v>
+        <v>181.63100538466776</v>
       </c>
       <c r="AD23" s="2">
-        <v>163.15001222632372</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="AE23" s="2">
-        <v>192.38393611383751</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="AF23" s="2">
-        <v>140.38408968465222</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="AG23" s="2">
-        <v>136.98272441857836</v>
+        <v>120.39384764956905</v>
       </c>
       <c r="AH23" s="2">
-        <v>103.24423149338566</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="AI23" s="2">
-        <v>252.93470682843082</v>
+        <v>420.8796707612691</v>
       </c>
       <c r="AJ23" s="2">
-        <v>3.7099088904163136</v>
+        <v>5.7693234801404731</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>79.300422827573186</v>
+        <v>113.28014369578361</v>
       </c>
       <c r="C24" s="2">
-        <v>97.810906395725738</v>
+        <v>241.15230865022457</v>
       </c>
       <c r="D24" s="2">
-        <v>159.55153368583834</v>
+        <v>224.99702598411187</v>
       </c>
       <c r="E24" s="2">
-        <v>211.15085757148938</v>
+        <v>186.96620920043364</v>
       </c>
       <c r="F24" s="2">
-        <v>183.13135493923937</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="G24" s="2">
-        <v>105.15909314703926</v>
+        <v>124.02985964442912</v>
       </c>
       <c r="H24" s="2">
-        <v>167.16529252466458</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="I24" s="2">
-        <v>125.25502946381992</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="J24" s="2">
-        <v>80.640600918740205</v>
+        <v>165.56283797010582</v>
       </c>
       <c r="K24" s="2">
-        <v>191.48450236987463</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="L24" s="2">
-        <v>158.65563973998485</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="M24" s="2">
-        <v>106.828537318736</v>
+        <v>136.16834099815333</v>
       </c>
       <c r="N24" s="2">
-        <v>85.223776598623346</v>
+        <v>106.03258109480784</v>
       </c>
       <c r="O24" s="2">
-        <v>87.116106911327421</v>
+        <v>135.33697030066872</v>
       </c>
       <c r="P24" s="2">
-        <v>131.27163202690593</v>
+        <v>191.24409203313044</v>
       </c>
       <c r="Q24" s="2">
-        <v>51.316562143824932</v>
+        <v>125.03929936919268</v>
       </c>
       <c r="R24" s="2">
-        <v>35.582608421144116</v>
+        <v>229.17211813202664</v>
       </c>
       <c r="S24" s="2">
-        <v>148.19028888487753</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="T24" s="2">
-        <v>67.261857081319206</v>
+        <v>162.13349425146458</v>
       </c>
       <c r="U24" s="2">
-        <v>145.92444837489415</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="V24" s="2">
-        <v>150.90579374966055</v>
+        <v>242.30025675577815</v>
       </c>
       <c r="W24" s="2">
+        <v>571.63494150457609</v>
+      </c>
+      <c r="X24" s="2">
         <v>157.86722921178691</v>
       </c>
-      <c r="X24" s="2">
-        <v>628.85708364413858</v>
-      </c>
       <c r="Y24" s="2">
-        <v>128.66358697262592</v>
+        <v>150.20428679956024</v>
       </c>
       <c r="Z24" s="2">
-        <v>197.85032152408144</v>
+        <v>142.52126810753256</v>
       </c>
       <c r="AA24" s="2">
-        <v>125.06500528165279</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="AB24" s="2">
-        <v>113.28024160807654</v>
+        <v>211.26784329028064</v>
       </c>
       <c r="AC24" s="2">
-        <v>168.8368407196561</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="AD24" s="2">
-        <v>105.9077890971049</v>
+        <v>163.15001222632372</v>
       </c>
       <c r="AE24" s="2">
-        <v>134.67168262833343</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="AF24" s="2">
-        <v>79.429620132721794</v>
+        <v>140.38408968465222</v>
       </c>
       <c r="AG24" s="2">
-        <v>76.051210161973273</v>
+        <v>136.98272441857836</v>
       </c>
       <c r="AH24" s="2">
-        <v>93.654517048227547</v>
+        <v>103.24423149338566</v>
       </c>
       <c r="AI24" s="2">
-        <v>129.29357496982965</v>
+        <v>252.93470682843082</v>
       </c>
       <c r="AJ24" s="2">
-        <v>8.3293941116642181</v>
+        <v>3.7099088904163136</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>86.975801667560305</v>
+        <v>79.300422827573186</v>
       </c>
       <c r="C25" s="2">
-        <v>298.88843316559144</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="D25" s="2">
-        <v>214.04981710333632</v>
+        <v>159.55153368583834</v>
       </c>
       <c r="E25" s="2">
-        <v>196.66877664256469</v>
+        <v>211.15085757148938</v>
       </c>
       <c r="F25" s="2">
-        <v>182.33471908763198</v>
+        <v>183.13135493923937</v>
       </c>
       <c r="G25" s="2">
-        <v>138.16263922646189</v>
+        <v>105.15909314703926</v>
       </c>
       <c r="H25" s="2">
-        <v>138.12773798857691</v>
+        <v>167.16529252466458</v>
       </c>
       <c r="I25" s="2">
-        <v>156.85848823254082</v>
+        <v>125.25502946381992</v>
       </c>
       <c r="J25" s="2">
-        <v>135.22580595984829</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="K25" s="2">
-        <v>316.97459323691658</v>
+        <v>191.48450236987463</v>
       </c>
       <c r="L25" s="2">
-        <v>72.022935281638695</v>
+        <v>158.65563973998485</v>
       </c>
       <c r="M25" s="2">
-        <v>147.01993140673713</v>
+        <v>106.828537318736</v>
       </c>
       <c r="N25" s="2">
-        <v>103.70071992210784</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="O25" s="2">
-        <v>273.46958385683422</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="P25" s="2">
-        <v>259.48638099811751</v>
+        <v>131.27163202690593</v>
       </c>
       <c r="Q25" s="2">
-        <v>357.56488183561294</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="R25" s="2">
-        <v>303.25524381254525</v>
+        <v>35.582608421144116</v>
       </c>
       <c r="S25" s="2">
-        <v>553.34048404281725</v>
+        <v>148.19028888487753</v>
       </c>
       <c r="T25" s="2">
-        <v>433.55858268746113</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="U25" s="2">
-        <v>91.265423044492252</v>
+        <v>145.92444837489415</v>
       </c>
       <c r="V25" s="2">
-        <v>315.85552088591658</v>
+        <v>150.90579374966055</v>
       </c>
       <c r="W25" s="2">
-        <v>150.20428679956024</v>
+        <v>157.86722921178691</v>
       </c>
       <c r="X25" s="2">
+        <v>628.85708364413858</v>
+      </c>
+      <c r="Y25" s="2">
         <v>128.66358697262592</v>
       </c>
-      <c r="Y25" s="2">
-        <v>1209.8671041590796</v>
-      </c>
       <c r="Z25" s="2">
-        <v>144.07219413132475</v>
+        <v>197.85032152408144</v>
       </c>
       <c r="AA25" s="2">
-        <v>34.747727628327681</v>
+        <v>125.06500528165279</v>
       </c>
       <c r="AB25" s="2">
-        <v>240.77454682360707</v>
+        <v>113.28024160807654</v>
       </c>
       <c r="AC25" s="2">
-        <v>242.76251421256637</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="AD25" s="2">
-        <v>228.27510444337722</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="AE25" s="2">
-        <v>182.00355923930977</v>
+        <v>134.67168262833343</v>
       </c>
       <c r="AF25" s="2">
-        <v>319.62423844000278</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="AG25" s="2">
-        <v>168.38678621839045</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="AH25" s="2">
-        <v>110.63390901506615</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="AI25" s="2">
-        <v>250.76845841651468</v>
+        <v>129.29357496982965</v>
       </c>
       <c r="AJ25" s="2">
-        <v>9.8989951336105975</v>
+        <v>8.3293941116642181</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>48.096235457124408</v>
+        <v>86.975801667560305</v>
       </c>
       <c r="C26" s="2">
-        <v>71.804247203378083</v>
+        <v>298.88843316559144</v>
       </c>
       <c r="D26" s="2">
-        <v>119.42477322092432</v>
+        <v>214.04981710333632</v>
       </c>
       <c r="E26" s="2">
-        <v>164.18656556805502</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="F26" s="2">
-        <v>94.859690341622724</v>
+        <v>182.33471908763198</v>
       </c>
       <c r="G26" s="2">
-        <v>108.53147088682937</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="H26" s="2">
-        <v>91.403523725559012</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="I26" s="2">
-        <v>88.365353761371409</v>
+        <v>156.85848823254082</v>
       </c>
       <c r="J26" s="2">
-        <v>108.45053628077954</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="K26" s="2">
-        <v>177.12909713551551</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="L26" s="2">
-        <v>94.041414506079477</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="M26" s="2">
-        <v>41.506220177290956</v>
+        <v>147.01993140673713</v>
       </c>
       <c r="N26" s="2">
-        <v>71.567080711629714</v>
+        <v>103.70071992210784</v>
       </c>
       <c r="O26" s="2">
-        <v>94.853642301371025</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="P26" s="2">
-        <v>146.37163608302396</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Q26" s="2">
-        <v>67.849797906623991</v>
+        <v>357.56488183561294</v>
       </c>
       <c r="R26" s="2">
-        <v>97.486373264302628</v>
+        <v>303.25524381254525</v>
       </c>
       <c r="S26" s="2">
-        <v>195.29515394921083</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="T26" s="2">
-        <v>105.84527761617709</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="U26" s="2">
-        <v>128.93300316240015</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="V26" s="2">
-        <v>178.26517289086439</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="W26" s="2">
-        <v>142.52126810753256</v>
+        <v>150.20428679956024</v>
       </c>
       <c r="X26" s="2">
-        <v>197.85032152408144</v>
+        <v>128.66358697262592</v>
       </c>
       <c r="Y26" s="2">
+        <v>1209.8671041590796</v>
+      </c>
+      <c r="Z26" s="2">
         <v>144.07219413132475</v>
       </c>
-      <c r="Z26" s="2">
-        <v>439.74285066287052</v>
-      </c>
       <c r="AA26" s="2">
-        <v>79.899335385329579</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="AB26" s="2">
-        <v>124.76513414881794</v>
+        <v>240.77454682360707</v>
       </c>
       <c r="AC26" s="2">
-        <v>95.078004021845118</v>
+        <v>242.76251421256637</v>
       </c>
       <c r="AD26" s="2">
-        <v>93.831760047313423</v>
+        <v>228.27510444337722</v>
       </c>
       <c r="AE26" s="2">
-        <v>119.84617217892264</v>
+        <v>182.00355923930977</v>
       </c>
       <c r="AF26" s="2">
-        <v>71.54653420105106</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="AG26" s="2">
-        <v>68.936820690796665</v>
+        <v>168.38678621839045</v>
       </c>
       <c r="AH26" s="2">
-        <v>128.45837094580423</v>
+        <v>110.63390901506615</v>
       </c>
       <c r="AI26" s="2">
-        <v>133.44441347085538</v>
+        <v>250.76845841651468</v>
       </c>
       <c r="AJ26" s="2">
-        <v>8.9926470514127459</v>
+        <v>9.8989951336105975</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>87.351408239904288</v>
+        <v>48.096235457124408</v>
       </c>
       <c r="C27" s="2">
-        <v>111.43945478450183</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="D27" s="2">
-        <v>129.82225030118101</v>
+        <v>119.42477322092432</v>
       </c>
       <c r="E27" s="2">
-        <v>128.10973717340758</v>
+        <v>164.18656556805502</v>
       </c>
       <c r="F27" s="2">
-        <v>53.675001320300026</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="G27" s="2">
-        <v>74.741122158063831</v>
+        <v>108.53147088682937</v>
       </c>
       <c r="H27" s="2">
-        <v>109.51706971724869</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="I27" s="2">
-        <v>80.08950551702371</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="J27" s="2">
-        <v>26.369500186548059</v>
+        <v>108.45053628077954</v>
       </c>
       <c r="K27" s="2">
-        <v>122.96093553755861</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="L27" s="2">
-        <v>165.82529262500913</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="M27" s="2">
-        <v>75.401018589211333</v>
+        <v>41.506220177290956</v>
       </c>
       <c r="N27" s="2">
-        <v>59.172917352252909</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="O27" s="2">
-        <v>65.071783678878262</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="P27" s="2">
-        <v>98.06780864946208</v>
+        <v>146.37163608302396</v>
       </c>
       <c r="Q27" s="2">
-        <v>53.578182415381313</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="R27" s="2">
-        <v>67.437693902691919</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="S27" s="2">
-        <v>40.581894946375208</v>
+        <v>195.29515394921083</v>
       </c>
       <c r="T27" s="2">
-        <v>12.362771975126645</v>
+        <v>105.84527761617709</v>
       </c>
       <c r="U27" s="2">
-        <v>116.08120186993273</v>
+        <v>128.93300316240015</v>
       </c>
       <c r="V27" s="2">
-        <v>132.61655851596953</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="W27" s="2">
-        <v>99.650467666795208</v>
+        <v>142.52126810753256</v>
       </c>
       <c r="X27" s="2">
-        <v>125.06500528165279</v>
+        <v>197.85032152408144</v>
       </c>
       <c r="Y27" s="2">
-        <v>34.747727628327681</v>
+        <v>144.07219413132475</v>
       </c>
       <c r="Z27" s="2">
+        <v>439.74285066287052</v>
+      </c>
+      <c r="AA27" s="2">
         <v>79.899335385329579</v>
       </c>
-      <c r="AA27" s="2">
-        <v>479.70348966136964</v>
-      </c>
       <c r="AB27" s="2">
-        <v>96.875514448255217</v>
+        <v>124.76513414881794</v>
       </c>
       <c r="AC27" s="2">
-        <v>21.059363281792837</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AD27" s="2">
-        <v>92.299538476363693</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AE27" s="2">
-        <v>27.820001056386673</v>
+        <v>119.84617217892264</v>
       </c>
       <c r="AF27" s="2">
-        <v>33.611963226741132</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AG27" s="2">
-        <v>42.329788373121445</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AH27" s="2">
-        <v>58.406206162105256</v>
+        <v>128.45837094580423</v>
       </c>
       <c r="AI27" s="2">
-        <v>136.78487885851126</v>
+        <v>133.44441347085538</v>
       </c>
       <c r="AJ27" s="2">
-        <v>0.73503887714953864</v>
+        <v>8.9926470514127459</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>185.57127907696375</v>
+        <v>87.351408239904288</v>
       </c>
       <c r="C28" s="2">
-        <v>343.1569415680126</v>
+        <v>111.43945478450183</v>
       </c>
       <c r="D28" s="2">
-        <v>285.42221214451922</v>
+        <v>129.82225030118101</v>
       </c>
       <c r="E28" s="2">
-        <v>195.67478926640177</v>
+        <v>128.10973717340758</v>
       </c>
       <c r="F28" s="2">
-        <v>146.45685120188563</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="G28" s="2">
-        <v>205.52971625058493</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="H28" s="2">
-        <v>289.78306384273918</v>
+        <v>109.51706971724869</v>
       </c>
       <c r="I28" s="2">
-        <v>271.46820872045174</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="J28" s="2">
-        <v>178.1678290413758</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="K28" s="2">
-        <v>396.35675306308644</v>
+        <v>122.96093553755861</v>
       </c>
       <c r="L28" s="2">
-        <v>120.62583007144414</v>
+        <v>165.82529262500913</v>
       </c>
       <c r="M28" s="2">
-        <v>186.68811405136699</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="N28" s="2">
-        <v>109.66022273595465</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="O28" s="2">
-        <v>207.36809374720599</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="P28" s="2">
-        <v>272.23324186599973</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="Q28" s="2">
-        <v>212.68404085167327</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="R28" s="2">
-        <v>263.66207538828655</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="S28" s="2">
-        <v>314.74757018371292</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="T28" s="2">
-        <v>248.2669691986157</v>
+        <v>12.362771975126645</v>
       </c>
       <c r="U28" s="2">
-        <v>115.18922798577128</v>
+        <v>116.08120186993273</v>
       </c>
       <c r="V28" s="2">
-        <v>297.50079837228157</v>
+        <v>132.61655851596953</v>
       </c>
       <c r="W28" s="2">
-        <v>211.26784329028064</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="X28" s="2">
-        <v>113.28024160807654</v>
+        <v>125.06500528165279</v>
       </c>
       <c r="Y28" s="2">
-        <v>240.77454682360707</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="Z28" s="2">
-        <v>124.76513414881794</v>
+        <v>79.899335385329579</v>
       </c>
       <c r="AA28" s="2">
+        <v>479.70348966136964</v>
+      </c>
+      <c r="AB28" s="2">
         <v>96.875514448255217</v>
       </c>
-      <c r="AB28" s="2">
-        <v>692.31791733224975</v>
-      </c>
       <c r="AC28" s="2">
-        <v>146.26417094999402</v>
+        <v>21.059363281792837</v>
       </c>
       <c r="AD28" s="2">
-        <v>193.65156510459056</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AE28" s="2">
-        <v>250.29473275864518</v>
+        <v>27.820001056386673</v>
       </c>
       <c r="AF28" s="2">
-        <v>232.03162606208667</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AG28" s="2">
-        <v>130.24368656762829</v>
+        <v>42.329788373121445</v>
       </c>
       <c r="AH28" s="2">
-        <v>107.02067704221142</v>
+        <v>58.406206162105256</v>
       </c>
       <c r="AI28" s="2">
-        <v>274.4660712598382</v>
+        <v>136.78487885851126</v>
       </c>
       <c r="AJ28" s="2">
-        <v>1.1511745195493277</v>
+        <v>0.73503887714953864</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>110.45592297489389</v>
+        <v>185.57127907696375</v>
       </c>
       <c r="C29" s="2">
-        <v>246.98858003890598</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="D29" s="2">
-        <v>152.04070029398508</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="E29" s="2">
-        <v>141.8640674074573</v>
+        <v>195.67478926640177</v>
       </c>
       <c r="F29" s="2">
-        <v>285.43280900234117</v>
+        <v>146.45685120188563</v>
       </c>
       <c r="G29" s="2">
-        <v>101.26209180105236</v>
+        <v>205.52971625058493</v>
       </c>
       <c r="H29" s="2">
-        <v>150.40515920172965</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="I29" s="2">
-        <v>191.78676933604606</v>
+        <v>271.46820872045174</v>
       </c>
       <c r="J29" s="2">
-        <v>98.377737243468786</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="K29" s="2">
-        <v>249.19836635872809</v>
+        <v>396.35675306308644</v>
       </c>
       <c r="L29" s="2">
-        <v>71.235072299085743</v>
+        <v>120.62583007144414</v>
       </c>
       <c r="M29" s="2">
-        <v>117.88409421190754</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="N29" s="2">
-        <v>115.82963637627815</v>
+        <v>109.66022273595465</v>
       </c>
       <c r="O29" s="2">
-        <v>110.88883408561448</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="P29" s="2">
-        <v>125.66350170105912</v>
+        <v>272.23324186599973</v>
       </c>
       <c r="Q29" s="2">
-        <v>154.67817954636763</v>
+        <v>212.68404085167327</v>
       </c>
       <c r="R29" s="2">
-        <v>133.82299263943048</v>
+        <v>263.66207538828655</v>
       </c>
       <c r="S29" s="2">
-        <v>218.0755684264671</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="T29" s="2">
-        <v>236.33810606103117</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="U29" s="2">
-        <v>57.656572750020857</v>
+        <v>115.18922798577128</v>
       </c>
       <c r="V29" s="2">
-        <v>181.63100538466776</v>
+        <v>297.50079837228157</v>
       </c>
       <c r="W29" s="2">
-        <v>156.35117624772391</v>
+        <v>211.26784329028064</v>
       </c>
       <c r="X29" s="2">
-        <v>168.8368407196561</v>
+        <v>113.28024160807654</v>
       </c>
       <c r="Y29" s="2">
-        <v>242.76251421256637</v>
+        <v>240.77454682360707</v>
       </c>
       <c r="Z29" s="2">
-        <v>95.078004021845118</v>
+        <v>124.76513414881794</v>
       </c>
       <c r="AA29" s="2">
-        <v>21.059363281792837</v>
+        <v>96.875514448255217</v>
       </c>
       <c r="AB29" s="2">
+        <v>692.31791733224975</v>
+      </c>
+      <c r="AC29" s="2">
         <v>146.26417094999402</v>
       </c>
-      <c r="AC29" s="2">
-        <v>513.92402465670114</v>
-      </c>
       <c r="AD29" s="2">
-        <v>149.02412751931894</v>
+        <v>193.65156510459056</v>
       </c>
       <c r="AE29" s="2">
-        <v>144.29299474076268</v>
+        <v>250.29473275864518</v>
       </c>
       <c r="AF29" s="2">
-        <v>132.28393833653158</v>
+        <v>232.03162606208667</v>
       </c>
       <c r="AG29" s="2">
-        <v>82.313975048175308</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AH29" s="2">
-        <v>51.470114974042126</v>
+        <v>107.02067704221142</v>
       </c>
       <c r="AI29" s="2">
-        <v>163.42338227209333</v>
+        <v>274.4660712598382</v>
       </c>
       <c r="AJ29" s="2">
-        <v>3.2849331040125591</v>
+        <v>1.1511745195493277</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>84.737451806767524</v>
+        <v>110.45592297489389</v>
       </c>
       <c r="C30" s="2">
-        <v>205.89914899222646</v>
+        <v>246.98858003890598</v>
       </c>
       <c r="D30" s="2">
-        <v>202.59261904156267</v>
+        <v>152.04070029398508</v>
       </c>
       <c r="E30" s="2">
-        <v>205.30238835256824</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="F30" s="2">
-        <v>127.61260150800848</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="G30" s="2">
-        <v>138.09358579792573</v>
+        <v>101.26209180105236</v>
       </c>
       <c r="H30" s="2">
-        <v>84.603949108836957</v>
+        <v>150.40515920172965</v>
       </c>
       <c r="I30" s="2">
-        <v>169.6005056495419</v>
+        <v>191.78676933604606</v>
       </c>
       <c r="J30" s="2">
-        <v>67.293386455081745</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="K30" s="2">
-        <v>301.48926285497038</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="L30" s="2">
-        <v>102.09438731975064</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="M30" s="2">
-        <v>118.92646708236742</v>
+        <v>117.88409421190754</v>
       </c>
       <c r="N30" s="2">
-        <v>41.508475309720168</v>
+        <v>115.82963637627815</v>
       </c>
       <c r="O30" s="2">
-        <v>167.52545705243415</v>
+        <v>110.88883408561448</v>
       </c>
       <c r="P30" s="2">
-        <v>165.16239197600535</v>
+        <v>125.66350170105912</v>
       </c>
       <c r="Q30" s="2">
-        <v>95.545536267340097</v>
+        <v>154.67817954636763</v>
       </c>
       <c r="R30" s="2">
-        <v>306.05824352191001</v>
+        <v>133.82299263943048</v>
       </c>
       <c r="S30" s="2">
-        <v>191.00651545207296</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="T30" s="2">
-        <v>188.48650571104719</v>
+        <v>236.33810606103117</v>
       </c>
       <c r="U30" s="2">
-        <v>96.472069016605019</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="V30" s="2">
-        <v>250.7894396986915</v>
+        <v>181.63100538466776</v>
       </c>
       <c r="W30" s="2">
-        <v>163.15001222632372</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="X30" s="2">
-        <v>105.9077890971049</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="Y30" s="2">
-        <v>228.27510444337722</v>
+        <v>242.76251421256637</v>
       </c>
       <c r="Z30" s="2">
-        <v>93.831760047313423</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AA30" s="2">
-        <v>92.299538476363693</v>
+        <v>21.059363281792837</v>
       </c>
       <c r="AB30" s="2">
-        <v>193.65156510459056</v>
+        <v>146.26417094999402</v>
       </c>
       <c r="AC30" s="2">
+        <v>513.92402465670114</v>
+      </c>
+      <c r="AD30" s="2">
         <v>149.02412751931894</v>
       </c>
-      <c r="AD30" s="2">
-        <v>563.80140699400204</v>
-      </c>
       <c r="AE30" s="2">
-        <v>113.7934069716987</v>
+        <v>144.29299474076268</v>
       </c>
       <c r="AF30" s="2">
-        <v>178.7654731210913</v>
+        <v>132.28393833653158</v>
       </c>
       <c r="AG30" s="2">
-        <v>68.679994062457581</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AH30" s="2">
-        <v>106.93559914887112</v>
+        <v>51.470114974042126</v>
       </c>
       <c r="AI30" s="2">
-        <v>251.9948406059431</v>
+        <v>163.42338227209333</v>
       </c>
       <c r="AJ30" s="2">
-        <v>0.14491350649046275</v>
+        <v>3.2849331040125591</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>142.93009779980105</v>
+        <v>84.737451806767524</v>
       </c>
       <c r="C31" s="2">
-        <v>285.85212351796002</v>
+        <v>205.89914899222646</v>
       </c>
       <c r="D31" s="2">
-        <v>268.09914318451069</v>
+        <v>202.59261904156267</v>
       </c>
       <c r="E31" s="2">
-        <v>170.83827402026787</v>
+        <v>205.30238835256824</v>
       </c>
       <c r="F31" s="2">
-        <v>105.5091928983724</v>
+        <v>127.61260150800848</v>
       </c>
       <c r="G31" s="2">
-        <v>191.84772996684228</v>
+        <v>138.09358579792573</v>
       </c>
       <c r="H31" s="2">
-        <v>234.16100471047412</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="I31" s="2">
-        <v>200.7469200148355</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="J31" s="2">
-        <v>110.64617933239825</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="K31" s="2">
-        <v>323.53972515804298</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="L31" s="2">
-        <v>131.72799395978635</v>
+        <v>102.09438731975064</v>
       </c>
       <c r="M31" s="2">
-        <v>144.0909217684362</v>
+        <v>118.92646708236742</v>
       </c>
       <c r="N31" s="2">
-        <v>87.907641664722789</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="O31" s="2">
-        <v>149.94029582364553</v>
+        <v>167.52545705243415</v>
       </c>
       <c r="P31" s="2">
-        <v>308.33902222680797</v>
+        <v>165.16239197600535</v>
       </c>
       <c r="Q31" s="2">
-        <v>256.28578800037286</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="R31" s="2">
-        <v>203.54624800442815</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="S31" s="2">
-        <v>399.39223543329865</v>
+        <v>191.00651545207296</v>
       </c>
       <c r="T31" s="2">
-        <v>248.22324024451484</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="U31" s="2">
-        <v>60.919383187046833</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="V31" s="2">
-        <v>309.50975548335617</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="W31" s="2">
-        <v>192.38393611383751</v>
+        <v>163.15001222632372</v>
       </c>
       <c r="X31" s="2">
-        <v>134.67168262833343</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="Y31" s="2">
-        <v>182.00355923930977</v>
+        <v>228.27510444337722</v>
       </c>
       <c r="Z31" s="2">
-        <v>119.84617217892264</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AA31" s="2">
-        <v>27.820001056386673</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AB31" s="2">
-        <v>250.29473275864518</v>
+        <v>193.65156510459056</v>
       </c>
       <c r="AC31" s="2">
-        <v>144.29299474076268</v>
+        <v>149.02412751931894</v>
       </c>
       <c r="AD31" s="2">
+        <v>563.80140699400204</v>
+      </c>
+      <c r="AE31" s="2">
         <v>113.7934069716987</v>
       </c>
-      <c r="AE31" s="2">
-        <v>688.78980895103746</v>
-      </c>
       <c r="AF31" s="2">
-        <v>159.93799081332554</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AG31" s="2">
-        <v>62.182885065159702</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AH31" s="2">
-        <v>53.056000896795361</v>
+        <v>106.93559914887112</v>
       </c>
       <c r="AI31" s="2">
-        <v>213.71352430138114</v>
+        <v>251.9948406059431</v>
       </c>
       <c r="AJ31" s="2">
-        <v>-2.2026901035575857</v>
+        <v>0.14491350649046275</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>69.170003234738488</v>
+        <v>142.93009779980105</v>
       </c>
       <c r="C32" s="2">
-        <v>258.39916315194557</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="D32" s="2">
-        <v>186.0212441841133</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="E32" s="2">
-        <v>151.90534258102852</v>
+        <v>170.83827402026787</v>
       </c>
       <c r="F32" s="2">
-        <v>108.52105446005433</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="G32" s="2">
-        <v>140.15735951127334</v>
+        <v>191.84772996684228</v>
       </c>
       <c r="H32" s="2">
-        <v>159.1455811408938</v>
+        <v>234.16100471047412</v>
       </c>
       <c r="I32" s="2">
-        <v>145.12829205664357</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="J32" s="2">
-        <v>133.48830432935381</v>
+        <v>110.64617933239825</v>
       </c>
       <c r="K32" s="2">
-        <v>301.91221359934354</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="L32" s="2">
-        <v>48.012541311291379</v>
+        <v>131.72799395978635</v>
       </c>
       <c r="M32" s="2">
-        <v>168.39880012754691</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="N32" s="2">
-        <v>81.086486769544706</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="O32" s="2">
-        <v>209.37039822178861</v>
+        <v>149.94029582364553</v>
       </c>
       <c r="P32" s="2">
-        <v>221.29370171731847</v>
+        <v>308.33902222680797</v>
       </c>
       <c r="Q32" s="2">
-        <v>235.47108672824291</v>
+        <v>256.28578800037286</v>
       </c>
       <c r="R32" s="2">
-        <v>268.4656919372826</v>
+        <v>203.54624800442815</v>
       </c>
       <c r="S32" s="2">
-        <v>270.73764185630307</v>
+        <v>399.39223543329865</v>
       </c>
       <c r="T32" s="2">
-        <v>231.25000817449251</v>
+        <v>248.22324024451484</v>
       </c>
       <c r="U32" s="2">
-        <v>21.787078320462694</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="V32" s="2">
-        <v>223.49066459331061</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="W32" s="2">
-        <v>140.38408968465222</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="X32" s="2">
-        <v>79.429620132721794</v>
+        <v>134.67168262833343</v>
       </c>
       <c r="Y32" s="2">
-        <v>319.62423844000278</v>
+        <v>182.00355923930977</v>
       </c>
       <c r="Z32" s="2">
-        <v>71.54653420105106</v>
+        <v>119.84617217892264</v>
       </c>
       <c r="AA32" s="2">
-        <v>33.611963226741132</v>
+        <v>27.820001056386673</v>
       </c>
       <c r="AB32" s="2">
-        <v>232.03162606208667</v>
+        <v>250.29473275864518</v>
       </c>
       <c r="AC32" s="2">
-        <v>132.28393833653158</v>
+        <v>144.29299474076268</v>
       </c>
       <c r="AD32" s="2">
-        <v>178.7654731210913</v>
+        <v>113.7934069716987</v>
       </c>
       <c r="AE32" s="2">
+        <v>688.78980895103746</v>
+      </c>
+      <c r="AF32" s="2">
         <v>159.93799081332554</v>
       </c>
-      <c r="AF32" s="2">
-        <v>717.56740519724576</v>
-      </c>
       <c r="AG32" s="2">
-        <v>139.76253246989776</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AH32" s="2">
-        <v>111.25096616468403</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AI32" s="2">
-        <v>182.18721712997777</v>
+        <v>213.71352430138114</v>
       </c>
       <c r="AJ32" s="2">
-        <v>1.8811358013729702</v>
+        <v>-2.2026901035575857</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>82.358756277108995</v>
+        <v>69.170003234738488</v>
       </c>
       <c r="C33" s="2">
-        <v>202.31138306339813</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="D33" s="2">
-        <v>118.98359740768296</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="E33" s="2">
-        <v>92.444905272018673</v>
+        <v>151.90534258102852</v>
       </c>
       <c r="F33" s="2">
-        <v>104.83719715083578</v>
+        <v>108.52105446005433</v>
       </c>
       <c r="G33" s="2">
-        <v>79.377723381716109</v>
+        <v>140.15735951127334</v>
       </c>
       <c r="H33" s="2">
-        <v>151.13359075246257</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="I33" s="2">
-        <v>180.522480947487</v>
+        <v>145.12829205664357</v>
       </c>
       <c r="J33" s="2">
-        <v>211.23140839310469</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="K33" s="2">
-        <v>120.9052137266375</v>
+        <v>301.91221359934354</v>
       </c>
       <c r="L33" s="2">
-        <v>86.499890084909353</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="M33" s="2">
-        <v>121.616893836727</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="N33" s="2">
-        <v>151.11324751753361</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="O33" s="2">
-        <v>77.44398318164923</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="P33" s="2">
-        <v>131.72185730605403</v>
+        <v>221.29370171731847</v>
       </c>
       <c r="Q33" s="2">
-        <v>115.15758581186131</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="R33" s="2">
-        <v>112.24584064721385</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="S33" s="2">
-        <v>122.36388529461458</v>
+        <v>270.73764185630307</v>
       </c>
       <c r="T33" s="2">
-        <v>145.60098746437978</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="U33" s="2">
-        <v>78.057037873540764</v>
+        <v>21.787078320462694</v>
       </c>
       <c r="V33" s="2">
-        <v>120.39384764956905</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="W33" s="2">
-        <v>136.98272441857836</v>
+        <v>140.38408968465222</v>
       </c>
       <c r="X33" s="2">
-        <v>76.051210161973273</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="Y33" s="2">
-        <v>168.38678621839045</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="Z33" s="2">
-        <v>68.936820690796665</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AA33" s="2">
-        <v>42.329788373121445</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AB33" s="2">
-        <v>130.24368656762829</v>
+        <v>232.03162606208667</v>
       </c>
       <c r="AC33" s="2">
-        <v>82.313975048175308</v>
+        <v>132.28393833653158</v>
       </c>
       <c r="AD33" s="2">
-        <v>68.679994062457581</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AE33" s="2">
-        <v>62.182885065159702</v>
+        <v>159.93799081332554</v>
       </c>
       <c r="AF33" s="2">
+        <v>717.56740519724576</v>
+      </c>
+      <c r="AG33" s="2">
         <v>139.76253246989776</v>
       </c>
-      <c r="AG33" s="2">
-        <v>398.88124606400993</v>
-      </c>
       <c r="AH33" s="2">
-        <v>60.990726296304288</v>
+        <v>111.25096616468403</v>
       </c>
       <c r="AI33" s="2">
-        <v>114.85128548249315</v>
+        <v>182.18721712997777</v>
       </c>
       <c r="AJ33" s="2">
-        <v>7.4110150579329979</v>
+        <v>1.8811358013729702</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>8.1649803695795402</v>
+        <v>82.358756277108995</v>
       </c>
       <c r="C34" s="2">
-        <v>13.975259205978638</v>
+        <v>202.31138306339813</v>
       </c>
       <c r="D34" s="2">
-        <v>70.11951733352862</v>
+        <v>118.98359740768296</v>
       </c>
       <c r="E34" s="2">
-        <v>146.76727709554564</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="F34" s="2">
-        <v>64.226422145388767</v>
+        <v>104.83719715083578</v>
       </c>
       <c r="G34" s="2">
-        <v>69.708961276440959</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="H34" s="2">
-        <v>55.780550667750738</v>
+        <v>151.13359075246257</v>
       </c>
       <c r="I34" s="2">
-        <v>35.802153222879895</v>
+        <v>180.522480947487</v>
       </c>
       <c r="J34" s="2">
-        <v>72.606150947101668</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="K34" s="2">
-        <v>124.94613956133232</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="L34" s="2">
-        <v>71.835602510157244</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="M34" s="2">
-        <v>31.170007378826824</v>
+        <v>121.616893836727</v>
       </c>
       <c r="N34" s="2">
-        <v>39.212363566967007</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="O34" s="2">
-        <v>105.72820911861342</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="P34" s="2">
-        <v>115.72278478089477</v>
+        <v>131.72185730605403</v>
       </c>
       <c r="Q34" s="2">
-        <v>20.015755498576198</v>
+        <v>115.15758581186131</v>
       </c>
       <c r="R34" s="2">
-        <v>107.4569121428264</v>
+        <v>112.24584064721385</v>
       </c>
       <c r="S34" s="2">
-        <v>66.556604606616546</v>
+        <v>122.36388529461458</v>
       </c>
       <c r="T34" s="2">
-        <v>38.467916507858817</v>
+        <v>145.60098746437978</v>
       </c>
       <c r="U34" s="2">
-        <v>87.169651057370842</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="V34" s="2">
-        <v>99.387070311455034</v>
+        <v>120.39384764956905</v>
       </c>
       <c r="W34" s="2">
-        <v>103.24423149338566</v>
+        <v>136.98272441857836</v>
       </c>
       <c r="X34" s="2">
-        <v>93.654517048227547</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="Y34" s="2">
-        <v>110.63390901506615</v>
+        <v>168.38678621839045</v>
       </c>
       <c r="Z34" s="2">
-        <v>128.45837094580423</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AA34" s="2">
-        <v>58.406206162105256</v>
+        <v>42.329788373121445</v>
       </c>
       <c r="AB34" s="2">
-        <v>107.02067704221142</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AC34" s="2">
-        <v>51.470114974042126</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AD34" s="2">
-        <v>106.93559914887112</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AE34" s="2">
-        <v>53.056000896795361</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AF34" s="2">
-        <v>111.25096616468403</v>
+        <v>139.76253246989776</v>
       </c>
       <c r="AG34" s="2">
+        <v>398.88124606400993</v>
+      </c>
+      <c r="AH34" s="2">
         <v>60.990726296304288</v>
       </c>
-      <c r="AH34" s="2">
-        <v>332.75118771956011</v>
-      </c>
       <c r="AI34" s="2">
-        <v>131.48320525571125</v>
+        <v>114.85128548249315</v>
       </c>
       <c r="AJ34" s="2">
-        <v>7.6875299727851418</v>
+        <v>7.4110150579329979</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>152.59305467898622</v>
+        <v>8.1649803695795402</v>
       </c>
       <c r="C35" s="2">
-        <v>341.61545538602434</v>
+        <v>13.975259205978638</v>
       </c>
       <c r="D35" s="2">
-        <v>313.88674956103398</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="E35" s="2">
-        <v>261.09958839741131</v>
+        <v>146.76727709554564</v>
       </c>
       <c r="F35" s="2">
-        <v>205.85741985094154</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="G35" s="2">
-        <v>205.64795019893123</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="H35" s="2">
-        <v>208.85122278344457</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="I35" s="2">
-        <v>293.57924943581298</v>
+        <v>35.802153222879895</v>
       </c>
       <c r="J35" s="2">
-        <v>148.09795549277288</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="K35" s="2">
-        <v>396.98320448909578</v>
+        <v>124.94613956133232</v>
       </c>
       <c r="L35" s="2">
-        <v>205.37467904529368</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="M35" s="2">
-        <v>190.64121786924881</v>
+        <v>31.170007378826824</v>
       </c>
       <c r="N35" s="2">
-        <v>131.23207470926553</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="O35" s="2">
-        <v>234.63224645485644</v>
+        <v>105.72820911861342</v>
       </c>
       <c r="P35" s="2">
-        <v>261.66767661709116</v>
+        <v>115.72278478089477</v>
       </c>
       <c r="Q35" s="2">
-        <v>220.94513750645314</v>
+        <v>20.015755498576198</v>
       </c>
       <c r="R35" s="2">
-        <v>293.99535247559885</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="S35" s="2">
-        <v>367.90002629035922</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="T35" s="2">
-        <v>294.62416971213156</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="U35" s="2">
-        <v>118.00567793560012</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="V35" s="2">
-        <v>420.8796707612691</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="W35" s="2">
-        <v>252.93470682843082</v>
+        <v>103.24423149338566</v>
       </c>
       <c r="X35" s="2">
-        <v>129.29357496982965</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="Y35" s="2">
-        <v>250.76845841651468</v>
+        <v>110.63390901506615</v>
       </c>
       <c r="Z35" s="2">
-        <v>133.44441347085538</v>
+        <v>128.45837094580423</v>
       </c>
       <c r="AA35" s="2">
-        <v>136.78487885851126</v>
+        <v>58.406206162105256</v>
       </c>
       <c r="AB35" s="2">
-        <v>274.4660712598382</v>
+        <v>107.02067704221142</v>
       </c>
       <c r="AC35" s="2">
-        <v>163.42338227209333</v>
+        <v>51.470114974042126</v>
       </c>
       <c r="AD35" s="2">
-        <v>251.9948406059431</v>
+        <v>106.93559914887112</v>
       </c>
       <c r="AE35" s="2">
-        <v>213.71352430138114</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AF35" s="2">
-        <v>182.18721712997777</v>
+        <v>111.25096616468403</v>
       </c>
       <c r="AG35" s="2">
-        <v>114.85128548249315</v>
+        <v>60.990726296304288</v>
       </c>
       <c r="AH35" s="2">
+        <v>332.75118771956011</v>
+      </c>
+      <c r="AI35" s="2">
         <v>131.48320525571125</v>
       </c>
-      <c r="AI35" s="2">
-        <v>945.42319879401521</v>
-      </c>
       <c r="AJ35" s="2">
-        <v>-2.1220361878184453</v>
+        <v>7.6875299727851418</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2">
+        <v>152.59305467898622</v>
+      </c>
+      <c r="C36" s="2">
+        <v>341.61545538602434</v>
+      </c>
+      <c r="D36" s="2">
+        <v>313.88674956103398</v>
+      </c>
+      <c r="E36" s="2">
+        <v>261.09958839741131</v>
+      </c>
+      <c r="F36" s="2">
+        <v>205.85741985094154</v>
+      </c>
+      <c r="G36" s="2">
+        <v>205.64795019893123</v>
+      </c>
+      <c r="H36" s="2">
+        <v>208.85122278344457</v>
+      </c>
+      <c r="I36" s="2">
+        <v>293.57924943581298</v>
+      </c>
+      <c r="J36" s="2">
+        <v>148.09795549277288</v>
+      </c>
+      <c r="K36" s="2">
+        <v>396.98320448909578</v>
+      </c>
+      <c r="L36" s="2">
+        <v>205.37467904529368</v>
+      </c>
+      <c r="M36" s="2">
+        <v>190.64121786924881</v>
+      </c>
+      <c r="N36" s="2">
+        <v>131.23207470926553</v>
+      </c>
+      <c r="O36" s="2">
+        <v>234.63224645485644</v>
+      </c>
+      <c r="P36" s="2">
+        <v>261.66767661709116</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>220.94513750645314</v>
+      </c>
+      <c r="R36" s="2">
+        <v>293.99535247559885</v>
+      </c>
+      <c r="S36" s="2">
+        <v>367.90002629035922</v>
+      </c>
+      <c r="T36" s="2">
+        <v>294.62416971213156</v>
+      </c>
+      <c r="U36" s="2">
+        <v>118.00567793560012</v>
+      </c>
+      <c r="V36" s="2">
+        <v>420.8796707612691</v>
+      </c>
+      <c r="W36" s="2">
+        <v>252.93470682843082</v>
+      </c>
+      <c r="X36" s="2">
+        <v>129.29357496982965</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>250.76845841651468</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>133.44441347085538</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>136.78487885851126</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>274.4660712598382</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>163.42338227209333</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>251.9948406059431</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>213.71352430138114</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>182.18721712997777</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>114.85128548249315</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>131.48320525571125</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>945.42319879401521</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>-2.1220361878184453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2">
         <v>2.7626656999069068</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>1.4987422577254836</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>-2.7200732923054822</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>4.2523054508408107</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>5.1033740819395526</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <v>9.0714988551442541</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="2">
         <v>-0.68389570994587867</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I37" s="2">
         <v>0.46221255354074797</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J37" s="2">
         <v>6.5994493255562467</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="2">
         <v>4.1210709777962204</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <v>2.0945591127529246</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M37" s="2">
         <v>0.86120533912917052</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N37" s="2">
         <v>1.8336803660598988</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O37" s="2">
         <v>0.26742936917059534</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P37" s="2">
         <v>5.5938319634512306</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q37" s="2">
         <v>2.5260578366523889</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R37" s="2">
         <v>6.2779338804389804</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S37" s="2">
         <v>5.6092366200626467</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T37" s="2">
         <v>2.8853417908161023</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U37" s="2">
         <v>6.1385302978581811</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V37" s="2">
         <v>5.7693234801404731</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W37" s="2">
         <v>3.7099088904163136</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X37" s="2">
         <v>8.3293941116642181</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y37" s="2">
         <v>9.8989951336105975</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z37" s="2">
         <v>8.9926470514127459</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA37" s="2">
         <v>0.73503887714953864</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AB37" s="2">
         <v>1.1511745195493277</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AC37" s="2">
         <v>3.2849331040125591</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD37" s="2">
         <v>0.14491350649046275</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE37" s="2">
         <v>-2.2026901035575857</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AF37" s="2">
         <v>1.8811358013729702</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AG37" s="2">
         <v>7.4110150579329979</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AH37" s="2">
         <v>7.6875299727851418</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AI37" s="2">
         <v>-2.1220361878184453</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AJ37" s="2">
         <v>8.6058986609208468</v>
       </c>
     </row>

--- a/covariancedata.xlsx
+++ b/covariancedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kashikawanchoo/Downloads/Mini_Projects/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784159D-8E7E-3141-ADF9-D6EEECC323C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C44C3-925F-F648-9068-821ECF11ABA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E17A3965-B33F-459D-8CEF-FB9FA1A9E5B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{E17A3965-B33F-459D-8CEF-FB9FA1A9E5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>MMM</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>BIF</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
   </si>
 </sst>
 </file>
@@ -494,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997C17B-D0E1-4CAC-8616-D9D4F9C038AC}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,3856 +617,3851 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>427.78662121409315</v>
+      </c>
+      <c r="C2" s="2">
+        <v>318.94939455403647</v>
+      </c>
+      <c r="D2" s="2">
+        <v>170.75766605445233</v>
+      </c>
+      <c r="E2" s="2">
+        <v>143.20069436176857</v>
+      </c>
+      <c r="F2" s="2">
+        <v>90.278596282661525</v>
+      </c>
+      <c r="G2" s="2">
+        <v>105.25269988935744</v>
+      </c>
+      <c r="H2" s="2">
+        <v>203.88932364204626</v>
+      </c>
+      <c r="I2" s="2">
+        <v>252.32055661927834</v>
+      </c>
+      <c r="J2" s="2">
+        <v>108.30131640678589</v>
+      </c>
+      <c r="K2" s="2">
+        <v>200.50313914820566</v>
+      </c>
+      <c r="L2" s="2">
+        <v>115.06862158885836</v>
+      </c>
+      <c r="M2" s="2">
+        <v>181.00745688442851</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93.563217131766521</v>
+      </c>
+      <c r="O2" s="2">
+        <v>84.499208257831356</v>
+      </c>
+      <c r="P2" s="2">
+        <v>137.14556104241098</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>129.13553230338633</v>
+      </c>
+      <c r="R2" s="2">
+        <v>136.14701772793222</v>
+      </c>
+      <c r="S2" s="2">
+        <v>215.11526776160673</v>
+      </c>
+      <c r="T2" s="2">
+        <v>165.76853839791477</v>
+      </c>
+      <c r="U2" s="2">
+        <v>85.84730480690186</v>
+      </c>
+      <c r="V2" s="2">
+        <v>157.12167283294951</v>
+      </c>
+      <c r="W2" s="2">
+        <v>113.28014369578361</v>
+      </c>
+      <c r="X2" s="2">
+        <v>79.300422827573186</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>86.975801667560305</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>48.096235457124408</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>87.351408239904288</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>185.57127907696375</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>110.45592297489389</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>84.737451806767524</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>142.93009779980105</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>69.170003234738488</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>82.358756277108995</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>8.1649803695795402</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>152.59305467898622</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>2.7626656999069068</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>427.78662121409315</v>
+        <v>318.94939455403647</v>
       </c>
       <c r="C3" s="2">
-        <v>318.94939455403647</v>
+        <v>1443.5635900274315</v>
       </c>
       <c r="D3" s="2">
-        <v>170.75766605445233</v>
+        <v>291.84536795348561</v>
       </c>
       <c r="E3" s="2">
-        <v>143.20069436176857</v>
+        <v>183.88366913702015</v>
       </c>
       <c r="F3" s="2">
-        <v>90.278596282661525</v>
+        <v>226.06250202967146</v>
       </c>
       <c r="G3" s="2">
-        <v>105.25269988935744</v>
+        <v>219.65137220382215</v>
       </c>
       <c r="H3" s="2">
-        <v>203.88932364204626</v>
+        <v>302.49611120399464</v>
       </c>
       <c r="I3" s="2">
-        <v>252.32055661927834</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="J3" s="2">
-        <v>108.30131640678589</v>
+        <v>242.83825730736905</v>
       </c>
       <c r="K3" s="2">
-        <v>200.50313914820566</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="L3" s="2">
-        <v>115.06862158885836</v>
+        <v>116.31136965816854</v>
       </c>
       <c r="M3" s="2">
-        <v>181.00745688442851</v>
+        <v>341.01969348749583</v>
       </c>
       <c r="N3" s="2">
-        <v>93.563217131766521</v>
+        <v>208.35227731785</v>
       </c>
       <c r="O3" s="2">
-        <v>84.499208257831356</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="P3" s="2">
-        <v>137.14556104241098</v>
+        <v>370.59441619017616</v>
       </c>
       <c r="Q3" s="2">
-        <v>129.13553230338633</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="R3" s="2">
-        <v>136.14701772793222</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="S3" s="2">
-        <v>215.11526776160673</v>
+        <v>506.37347394879293</v>
       </c>
       <c r="T3" s="2">
-        <v>165.76853839791477</v>
+        <v>404.50413447791937</v>
       </c>
       <c r="U3" s="2">
-        <v>85.84730480690186</v>
+        <v>55.358840210033236</v>
       </c>
       <c r="V3" s="2">
-        <v>157.12167283294951</v>
+        <v>386.03568116512037</v>
       </c>
       <c r="W3" s="2">
-        <v>113.28014369578361</v>
+        <v>241.15230865022457</v>
       </c>
       <c r="X3" s="2">
-        <v>79.300422827573186</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="Y3" s="2">
-        <v>86.975801667560305</v>
+        <v>298.88843316559144</v>
       </c>
       <c r="Z3" s="2">
-        <v>48.096235457124408</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="AA3" s="2">
-        <v>87.351408239904288</v>
+        <v>111.43945478450183</v>
       </c>
       <c r="AB3" s="2">
-        <v>185.57127907696375</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="AC3" s="2">
-        <v>110.45592297489389</v>
+        <v>246.98858003890598</v>
       </c>
       <c r="AD3" s="2">
-        <v>84.737451806767524</v>
+        <v>205.89914899222646</v>
       </c>
       <c r="AE3" s="2">
-        <v>142.93009779980105</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="AF3" s="2">
-        <v>69.170003234738488</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="AG3" s="2">
-        <v>82.358756277108995</v>
+        <v>202.31138306339813</v>
       </c>
       <c r="AH3" s="2">
-        <v>8.1649803695795402</v>
+        <v>13.975259205978638</v>
       </c>
       <c r="AI3" s="2">
-        <v>152.59305467898622</v>
+        <v>341.61545538602434</v>
       </c>
       <c r="AJ3" s="2">
-        <v>2.7626656999069068</v>
+        <v>1.4987422577254836</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>318.94939455403647</v>
+        <v>170.75766605445233</v>
       </c>
       <c r="C4" s="2">
-        <v>1443.5635900274315</v>
+        <v>291.84536795348561</v>
       </c>
       <c r="D4" s="2">
-        <v>291.84536795348561</v>
+        <v>620.01265265868074</v>
       </c>
       <c r="E4" s="2">
-        <v>183.88366913702015</v>
+        <v>241.67667287795797</v>
       </c>
       <c r="F4" s="2">
-        <v>226.06250202967146</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="G4" s="2">
-        <v>219.65137220382215</v>
+        <v>220.32692598971806</v>
       </c>
       <c r="H4" s="2">
-        <v>302.49611120399464</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="I4" s="2">
-        <v>489.91490380122502</v>
+        <v>243.93213914948922</v>
       </c>
       <c r="J4" s="2">
-        <v>242.83825730736905</v>
+        <v>136.23502699993207</v>
       </c>
       <c r="K4" s="2">
-        <v>408.71278354973731</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="L4" s="2">
-        <v>116.31136965816854</v>
+        <v>185.84805232353955</v>
       </c>
       <c r="M4" s="2">
-        <v>341.01969348749583</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="N4" s="2">
-        <v>208.35227731785</v>
+        <v>113.02439881934129</v>
       </c>
       <c r="O4" s="2">
-        <v>201.0832886124773</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="P4" s="2">
-        <v>370.59441619017616</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="Q4" s="2">
-        <v>375.3575740415057</v>
+        <v>175.23729498843988</v>
       </c>
       <c r="R4" s="2">
-        <v>310.0471024202572</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="S4" s="2">
-        <v>506.37347394879293</v>
+        <v>342.10203461542034</v>
       </c>
       <c r="T4" s="2">
-        <v>404.50413447791937</v>
+        <v>248.90380514951406</v>
       </c>
       <c r="U4" s="2">
-        <v>55.358840210033236</v>
+        <v>133.17960268602755</v>
       </c>
       <c r="V4" s="2">
-        <v>386.03568116512037</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="W4" s="2">
-        <v>241.15230865022457</v>
+        <v>224.99702598411187</v>
       </c>
       <c r="X4" s="2">
-        <v>97.810906395725738</v>
+        <v>159.55153368583834</v>
       </c>
       <c r="Y4" s="2">
-        <v>298.88843316559144</v>
+        <v>214.04981710333632</v>
       </c>
       <c r="Z4" s="2">
-        <v>71.804247203378083</v>
+        <v>119.42477322092432</v>
       </c>
       <c r="AA4" s="2">
-        <v>111.43945478450183</v>
+        <v>129.82225030118101</v>
       </c>
       <c r="AB4" s="2">
-        <v>343.1569415680126</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="AC4" s="2">
-        <v>246.98858003890598</v>
+        <v>152.04070029398508</v>
       </c>
       <c r="AD4" s="2">
-        <v>205.89914899222646</v>
+        <v>202.59261904156267</v>
       </c>
       <c r="AE4" s="2">
-        <v>285.85212351796002</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="AF4" s="2">
-        <v>258.39916315194557</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="AG4" s="2">
-        <v>202.31138306339813</v>
+        <v>118.98359740768296</v>
       </c>
       <c r="AH4" s="2">
-        <v>13.975259205978638</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="AI4" s="2">
-        <v>341.61545538602434</v>
+        <v>313.88674956103398</v>
       </c>
       <c r="AJ4" s="2">
-        <v>1.4987422577254836</v>
+        <v>-2.7200732923054822</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>170.75766605445233</v>
+        <v>143.20069436176857</v>
       </c>
       <c r="C5" s="2">
-        <v>291.84536795348561</v>
+        <v>183.88366913702015</v>
       </c>
       <c r="D5" s="2">
-        <v>620.01265265868074</v>
+        <v>241.67667287795797</v>
       </c>
       <c r="E5" s="2">
-        <v>241.67667287795797</v>
+        <v>806.94443866724987</v>
       </c>
       <c r="F5" s="2">
-        <v>162.42343337619269</v>
+        <v>136.93656667581581</v>
       </c>
       <c r="G5" s="2">
-        <v>220.32692598971806</v>
+        <v>144.72546043700572</v>
       </c>
       <c r="H5" s="2">
-        <v>269.84545721360848</v>
+        <v>187.12175498444796</v>
       </c>
       <c r="I5" s="2">
-        <v>243.93213914948922</v>
+        <v>192.30247603599506</v>
       </c>
       <c r="J5" s="2">
-        <v>136.23502699993207</v>
+        <v>127.07697778599002</v>
       </c>
       <c r="K5" s="2">
-        <v>413.14476396087127</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="L5" s="2">
-        <v>185.84805232353955</v>
+        <v>140.33988801706425</v>
       </c>
       <c r="M5" s="2">
-        <v>193.39444093770129</v>
+        <v>175.55334084063418</v>
       </c>
       <c r="N5" s="2">
-        <v>113.02439881934129</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="O5" s="2">
-        <v>204.47790189544389</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="P5" s="2">
-        <v>268.48019254081157</v>
+        <v>209.03090280930763</v>
       </c>
       <c r="Q5" s="2">
-        <v>175.23729498843988</v>
+        <v>112.43188146143657</v>
       </c>
       <c r="R5" s="2">
-        <v>285.78521619883679</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="S5" s="2">
-        <v>342.10203461542034</v>
+        <v>215.07527051520898</v>
       </c>
       <c r="T5" s="2">
-        <v>248.90380514951406</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="U5" s="2">
-        <v>133.17960268602755</v>
+        <v>112.71875502656673</v>
       </c>
       <c r="V5" s="2">
-        <v>357.25892961301997</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="W5" s="2">
-        <v>224.99702598411187</v>
+        <v>186.96620920043364</v>
       </c>
       <c r="X5" s="2">
-        <v>159.55153368583834</v>
+        <v>211.15085757148938</v>
       </c>
       <c r="Y5" s="2">
-        <v>214.04981710333632</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="Z5" s="2">
-        <v>119.42477322092432</v>
+        <v>164.18656556805502</v>
       </c>
       <c r="AA5" s="2">
-        <v>129.82225030118101</v>
+        <v>128.10973717340758</v>
       </c>
       <c r="AB5" s="2">
-        <v>285.42221214451922</v>
+        <v>195.67478926640177</v>
       </c>
       <c r="AC5" s="2">
-        <v>152.04070029398508</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="AD5" s="2">
-        <v>202.59261904156267</v>
+        <v>205.30238835256824</v>
       </c>
       <c r="AE5" s="2">
-        <v>268.09914318451069</v>
+        <v>170.83827402026787</v>
       </c>
       <c r="AF5" s="2">
-        <v>186.0212441841133</v>
+        <v>151.90534258102852</v>
       </c>
       <c r="AG5" s="2">
-        <v>118.98359740768296</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="AH5" s="2">
-        <v>70.11951733352862</v>
+        <v>146.76727709554564</v>
       </c>
       <c r="AI5" s="2">
-        <v>313.88674956103398</v>
+        <v>261.09958839741131</v>
       </c>
       <c r="AJ5" s="2">
-        <v>-2.7200732923054822</v>
+        <v>4.2523054508408107</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>143.20069436176857</v>
+        <v>90.278596282661525</v>
       </c>
       <c r="C6" s="2">
-        <v>183.88366913702015</v>
+        <v>226.06250202967146</v>
       </c>
       <c r="D6" s="2">
-        <v>241.67667287795797</v>
+        <v>162.42343337619269</v>
       </c>
       <c r="E6" s="2">
-        <v>806.94443866724987</v>
+        <v>136.93656667581581</v>
       </c>
       <c r="F6" s="2">
-        <v>136.93656667581581</v>
+        <v>597.29555388039876</v>
       </c>
       <c r="G6" s="2">
-        <v>144.72546043700572</v>
+        <v>109.04813747186792</v>
       </c>
       <c r="H6" s="2">
-        <v>187.12175498444796</v>
+        <v>149.688129414873</v>
       </c>
       <c r="I6" s="2">
-        <v>192.30247603599506</v>
+        <v>185.78692594825753</v>
       </c>
       <c r="J6" s="2">
-        <v>127.07697778599002</v>
+        <v>108.40826209825264</v>
       </c>
       <c r="K6" s="2">
-        <v>294.13396230963349</v>
+        <v>233.04336655224688</v>
       </c>
       <c r="L6" s="2">
-        <v>140.33988801706425</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="M6" s="2">
-        <v>175.55334084063418</v>
+        <v>103.74347282853452</v>
       </c>
       <c r="N6" s="2">
-        <v>99.33937199209285</v>
+        <v>119.75681097457645</v>
       </c>
       <c r="O6" s="2">
-        <v>192.9276288874587</v>
+        <v>119.84124204399535</v>
       </c>
       <c r="P6" s="2">
-        <v>209.03090280930763</v>
+        <v>125.79621562096442</v>
       </c>
       <c r="Q6" s="2">
-        <v>112.43188146143657</v>
+        <v>155.88917819746456</v>
       </c>
       <c r="R6" s="2">
-        <v>222.4007556424431</v>
+        <v>149.27121235804003</v>
       </c>
       <c r="S6" s="2">
-        <v>215.07527051520898</v>
+        <v>167.02790109339634</v>
       </c>
       <c r="T6" s="2">
-        <v>141.28425474020241</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="U6" s="2">
-        <v>112.71875502656673</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="V6" s="2">
-        <v>264.22172188476247</v>
+        <v>153.11983147169053</v>
       </c>
       <c r="W6" s="2">
-        <v>186.96620920043364</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="X6" s="2">
-        <v>211.15085757148938</v>
+        <v>183.13135493923937</v>
       </c>
       <c r="Y6" s="2">
-        <v>196.66877664256469</v>
+        <v>182.33471908763198</v>
       </c>
       <c r="Z6" s="2">
-        <v>164.18656556805502</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="AA6" s="2">
-        <v>128.10973717340758</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="AB6" s="2">
-        <v>195.67478926640177</v>
+        <v>146.45685120188563</v>
       </c>
       <c r="AC6" s="2">
-        <v>141.8640674074573</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="AD6" s="2">
-        <v>205.30238835256824</v>
+        <v>127.61260150800848</v>
       </c>
       <c r="AE6" s="2">
-        <v>170.83827402026787</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="AF6" s="2">
-        <v>151.90534258102852</v>
+        <v>108.52105446005433</v>
       </c>
       <c r="AG6" s="2">
-        <v>92.444905272018673</v>
+        <v>104.83719715083578</v>
       </c>
       <c r="AH6" s="2">
-        <v>146.76727709554564</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="AI6" s="2">
-        <v>261.09958839741131</v>
+        <v>205.85741985094154</v>
       </c>
       <c r="AJ6" s="2">
-        <v>4.2523054508408107</v>
+        <v>5.1033740819395526</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>90.278596282661525</v>
+        <v>105.25269988935744</v>
       </c>
       <c r="C7" s="2">
-        <v>226.06250202967146</v>
+        <v>219.65137220382215</v>
       </c>
       <c r="D7" s="2">
-        <v>162.42343337619269</v>
+        <v>220.32692598971806</v>
       </c>
       <c r="E7" s="2">
-        <v>136.93656667581581</v>
+        <v>144.72546043700572</v>
       </c>
       <c r="F7" s="2">
-        <v>597.29555388039876</v>
+        <v>109.04813747186792</v>
       </c>
       <c r="G7" s="2">
-        <v>109.04813747186792</v>
+        <v>570.09201448107058</v>
       </c>
       <c r="H7" s="2">
-        <v>149.688129414873</v>
+        <v>125.57838097445264</v>
       </c>
       <c r="I7" s="2">
-        <v>185.78692594825753</v>
+        <v>180.79963479062815</v>
       </c>
       <c r="J7" s="2">
-        <v>108.40826209825264</v>
+        <v>122.89404653724397</v>
       </c>
       <c r="K7" s="2">
-        <v>233.04336655224688</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="L7" s="2">
-        <v>92.308924426872736</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="M7" s="2">
-        <v>103.74347282853452</v>
+        <v>138.32570821238457</v>
       </c>
       <c r="N7" s="2">
-        <v>119.75681097457645</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="O7" s="2">
-        <v>119.84124204399535</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="P7" s="2">
-        <v>125.79621562096442</v>
+        <v>251.54529919627572</v>
       </c>
       <c r="Q7" s="2">
-        <v>155.88917819746456</v>
+        <v>111.55251459621643</v>
       </c>
       <c r="R7" s="2">
-        <v>149.27121235804003</v>
+        <v>185.22327353551367</v>
       </c>
       <c r="S7" s="2">
-        <v>167.02790109339634</v>
+        <v>216.43501583290447</v>
       </c>
       <c r="T7" s="2">
-        <v>199.79395929571649</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="U7" s="2">
-        <v>80.015176229995902</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="V7" s="2">
-        <v>153.11983147169053</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="W7" s="2">
-        <v>174.60862003666779</v>
+        <v>124.02985964442912</v>
       </c>
       <c r="X7" s="2">
-        <v>183.13135493923937</v>
+        <v>105.15909314703926</v>
       </c>
       <c r="Y7" s="2">
-        <v>182.33471908763198</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="Z7" s="2">
-        <v>94.859690341622724</v>
+        <v>108.53147088682937</v>
       </c>
       <c r="AA7" s="2">
-        <v>53.675001320300026</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="AB7" s="2">
-        <v>146.45685120188563</v>
+        <v>205.52971625058493</v>
       </c>
       <c r="AC7" s="2">
-        <v>285.43280900234117</v>
+        <v>101.26209180105236</v>
       </c>
       <c r="AD7" s="2">
-        <v>127.61260150800848</v>
+        <v>138.09358579792573</v>
       </c>
       <c r="AE7" s="2">
-        <v>105.5091928983724</v>
+        <v>191.84772996684228</v>
       </c>
       <c r="AF7" s="2">
-        <v>108.52105446005433</v>
+        <v>140.15735951127334</v>
       </c>
       <c r="AG7" s="2">
-        <v>104.83719715083578</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="AH7" s="2">
-        <v>64.226422145388767</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="AI7" s="2">
-        <v>205.85741985094154</v>
+        <v>205.64795019893123</v>
       </c>
       <c r="AJ7" s="2">
-        <v>5.1033740819395526</v>
+        <v>9.0714988551442541</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>105.25269988935744</v>
+        <v>203.88932364204626</v>
       </c>
       <c r="C8" s="2">
-        <v>219.65137220382215</v>
+        <v>302.49611120399464</v>
       </c>
       <c r="D8" s="2">
-        <v>220.32692598971806</v>
+        <v>269.84545721360848</v>
       </c>
       <c r="E8" s="2">
-        <v>144.72546043700572</v>
+        <v>187.12175498444796</v>
       </c>
       <c r="F8" s="2">
-        <v>109.04813747186792</v>
+        <v>149.688129414873</v>
       </c>
       <c r="G8" s="2">
-        <v>570.09201448107058</v>
+        <v>125.57838097445264</v>
       </c>
       <c r="H8" s="2">
-        <v>125.57838097445264</v>
+        <v>781.0518995678417</v>
       </c>
       <c r="I8" s="2">
-        <v>180.79963479062815</v>
+        <v>280.30504619215031</v>
       </c>
       <c r="J8" s="2">
-        <v>122.89404653724397</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="K8" s="2">
-        <v>383.3199036749437</v>
+        <v>251.24721436420126</v>
       </c>
       <c r="L8" s="2">
-        <v>111.3875824222295</v>
+        <v>180.62492182429742</v>
       </c>
       <c r="M8" s="2">
-        <v>138.32570821238457</v>
+        <v>192.81629066413018</v>
       </c>
       <c r="N8" s="2">
-        <v>68.06412250932965</v>
+        <v>170.15459740112573</v>
       </c>
       <c r="O8" s="2">
-        <v>127.23973828136521</v>
+        <v>136.67598427902263</v>
       </c>
       <c r="P8" s="2">
-        <v>251.54529919627572</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="Q8" s="2">
-        <v>111.55251459621643</v>
+        <v>142.99511660708367</v>
       </c>
       <c r="R8" s="2">
-        <v>185.22327353551367</v>
+        <v>144.67239228758774</v>
       </c>
       <c r="S8" s="2">
-        <v>216.43501583290447</v>
+        <v>230.25819308606742</v>
       </c>
       <c r="T8" s="2">
-        <v>187.62135599764139</v>
+        <v>127.64373077765754</v>
       </c>
       <c r="U8" s="2">
-        <v>69.785371377166143</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="V8" s="2">
-        <v>374.47763327643872</v>
+        <v>197.90921028774486</v>
       </c>
       <c r="W8" s="2">
-        <v>124.02985964442912</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="X8" s="2">
-        <v>105.15909314703926</v>
+        <v>167.16529252466458</v>
       </c>
       <c r="Y8" s="2">
-        <v>138.16263922646189</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="Z8" s="2">
-        <v>108.53147088682937</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="AA8" s="2">
-        <v>74.741122158063831</v>
+        <v>109.51706971724869</v>
       </c>
       <c r="AB8" s="2">
-        <v>205.52971625058493</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="AC8" s="2">
-        <v>101.26209180105236</v>
+        <v>150.40515920172965</v>
       </c>
       <c r="AD8" s="2">
-        <v>138.09358579792573</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="AE8" s="2">
-        <v>191.84772996684228</v>
+        <v>234.16100471047412</v>
       </c>
       <c r="AF8" s="2">
-        <v>140.15735951127334</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="AG8" s="2">
-        <v>79.377723381716109</v>
+        <v>151.13359075246257</v>
       </c>
       <c r="AH8" s="2">
-        <v>69.708961276440959</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="AI8" s="2">
-        <v>205.64795019893123</v>
+        <v>208.85122278344457</v>
       </c>
       <c r="AJ8" s="2">
-        <v>9.0714988551442541</v>
+        <v>-0.68389570994587867</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>203.88932364204626</v>
+        <v>252.32055661927834</v>
       </c>
       <c r="C9" s="2">
-        <v>302.49611120399464</v>
+        <v>489.91490380122502</v>
       </c>
       <c r="D9" s="2">
-        <v>269.84545721360848</v>
+        <v>243.93213914948922</v>
       </c>
       <c r="E9" s="2">
-        <v>187.12175498444796</v>
+        <v>192.30247603599506</v>
       </c>
       <c r="F9" s="2">
-        <v>149.688129414873</v>
+        <v>185.78692594825753</v>
       </c>
       <c r="G9" s="2">
-        <v>125.57838097445264</v>
+        <v>180.79963479062815</v>
       </c>
       <c r="H9" s="2">
-        <v>781.0518995678417</v>
+        <v>280.30504619215031</v>
       </c>
       <c r="I9" s="2">
-        <v>280.30504619215031</v>
+        <v>838.37351035793881</v>
       </c>
       <c r="J9" s="2">
-        <v>173.5097797242243</v>
+        <v>220.18753541886923</v>
       </c>
       <c r="K9" s="2">
-        <v>251.24721436420126</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="L9" s="2">
-        <v>180.62492182429742</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="M9" s="2">
-        <v>192.81629066413018</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="N9" s="2">
-        <v>170.15459740112573</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="O9" s="2">
-        <v>136.67598427902263</v>
+        <v>135.09745559205268</v>
       </c>
       <c r="P9" s="2">
-        <v>252.6496579583839</v>
+        <v>249.23855169302476</v>
       </c>
       <c r="Q9" s="2">
-        <v>142.99511660708367</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="R9" s="2">
-        <v>144.67239228758774</v>
+        <v>196.63732419034918</v>
       </c>
       <c r="S9" s="2">
-        <v>230.25819308606742</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="T9" s="2">
-        <v>127.64373077765754</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="U9" s="2">
-        <v>95.631152378042515</v>
+        <v>101.09869063829854</v>
       </c>
       <c r="V9" s="2">
-        <v>197.90921028774486</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="W9" s="2">
-        <v>163.0985006254939</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="X9" s="2">
-        <v>167.16529252466458</v>
+        <v>125.25502946381992</v>
       </c>
       <c r="Y9" s="2">
-        <v>138.12773798857691</v>
+        <v>156.85848823254082</v>
       </c>
       <c r="Z9" s="2">
-        <v>91.403523725559012</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="AA9" s="2">
-        <v>109.51706971724869</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="AB9" s="2">
-        <v>289.78306384273918</v>
+        <v>271.46820872045174</v>
       </c>
       <c r="AC9" s="2">
-        <v>150.40515920172965</v>
+        <v>191.78676933604606</v>
       </c>
       <c r="AD9" s="2">
-        <v>84.603949108836957</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="AE9" s="2">
-        <v>234.16100471047412</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="AF9" s="2">
-        <v>159.1455811408938</v>
+        <v>145.12829205664357</v>
       </c>
       <c r="AG9" s="2">
-        <v>151.13359075246257</v>
+        <v>180.522480947487</v>
       </c>
       <c r="AH9" s="2">
-        <v>55.780550667750738</v>
+        <v>35.802153222879895</v>
       </c>
       <c r="AI9" s="2">
-        <v>208.85122278344457</v>
+        <v>293.57924943581298</v>
       </c>
       <c r="AJ9" s="2">
-        <v>-0.68389570994587867</v>
+        <v>0.46221255354074797</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>252.32055661927834</v>
+        <v>108.30131640678589</v>
       </c>
       <c r="C10" s="2">
-        <v>489.91490380122502</v>
+        <v>242.83825730736905</v>
       </c>
       <c r="D10" s="2">
-        <v>243.93213914948922</v>
+        <v>136.23502699993207</v>
       </c>
       <c r="E10" s="2">
-        <v>192.30247603599506</v>
+        <v>127.07697778599002</v>
       </c>
       <c r="F10" s="2">
-        <v>185.78692594825753</v>
+        <v>108.40826209825264</v>
       </c>
       <c r="G10" s="2">
-        <v>180.79963479062815</v>
+        <v>122.89404653724397</v>
       </c>
       <c r="H10" s="2">
-        <v>280.30504619215031</v>
+        <v>173.5097797242243</v>
       </c>
       <c r="I10" s="2">
-        <v>838.37351035793881</v>
+        <v>220.18753541886923</v>
       </c>
       <c r="J10" s="2">
-        <v>220.18753541886923</v>
+        <v>427.5260294914907</v>
       </c>
       <c r="K10" s="2">
-        <v>331.84029128463823</v>
+        <v>175.77684077764803</v>
       </c>
       <c r="L10" s="2">
-        <v>124.14118164992939</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="M10" s="2">
-        <v>262.13667558192969</v>
+        <v>134.59344549350874</v>
       </c>
       <c r="N10" s="2">
-        <v>168.44448811912821</v>
+        <v>171.99425366262642</v>
       </c>
       <c r="O10" s="2">
-        <v>135.09745559205268</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="P10" s="2">
-        <v>249.23855169302476</v>
+        <v>149.48931298742752</v>
       </c>
       <c r="Q10" s="2">
-        <v>147.26273782696541</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="R10" s="2">
-        <v>196.63732419034918</v>
+        <v>119.16158558104587</v>
       </c>
       <c r="S10" s="2">
-        <v>297.52217131521729</v>
+        <v>144.63945202686403</v>
       </c>
       <c r="T10" s="2">
-        <v>238.3637960786499</v>
+        <v>173.15977494776553</v>
       </c>
       <c r="U10" s="2">
-        <v>101.09869063829854</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="V10" s="2">
-        <v>280.94754563979768</v>
+        <v>150.84930551726367</v>
       </c>
       <c r="W10" s="2">
-        <v>207.55670991793721</v>
+        <v>165.56283797010582</v>
       </c>
       <c r="X10" s="2">
-        <v>125.25502946381992</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="Y10" s="2">
-        <v>156.85848823254082</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="Z10" s="2">
-        <v>88.365353761371409</v>
+        <v>108.45053628077954</v>
       </c>
       <c r="AA10" s="2">
-        <v>80.08950551702371</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="AB10" s="2">
-        <v>271.46820872045174</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="AC10" s="2">
-        <v>191.78676933604606</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="AD10" s="2">
-        <v>169.6005056495419</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="AE10" s="2">
-        <v>200.7469200148355</v>
+        <v>110.64617933239825</v>
       </c>
       <c r="AF10" s="2">
-        <v>145.12829205664357</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="AG10" s="2">
-        <v>180.522480947487</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="AH10" s="2">
-        <v>35.802153222879895</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="AI10" s="2">
-        <v>293.57924943581298</v>
+        <v>148.09795549277288</v>
       </c>
       <c r="AJ10" s="2">
-        <v>0.46221255354074797</v>
+        <v>6.5994493255562467</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>108.30131640678589</v>
+        <v>200.50313914820566</v>
       </c>
       <c r="C11" s="2">
-        <v>242.83825730736905</v>
+        <v>408.71278354973731</v>
       </c>
       <c r="D11" s="2">
-        <v>136.23502699993207</v>
+        <v>413.14476396087127</v>
       </c>
       <c r="E11" s="2">
-        <v>127.07697778599002</v>
+        <v>294.13396230963349</v>
       </c>
       <c r="F11" s="2">
-        <v>108.40826209825264</v>
+        <v>233.04336655224688</v>
       </c>
       <c r="G11" s="2">
-        <v>122.89404653724397</v>
+        <v>383.3199036749437</v>
       </c>
       <c r="H11" s="2">
-        <v>173.5097797242243</v>
+        <v>251.24721436420126</v>
       </c>
       <c r="I11" s="2">
-        <v>220.18753541886923</v>
+        <v>331.84029128463823</v>
       </c>
       <c r="J11" s="2">
-        <v>427.5260294914907</v>
+        <v>175.77684077764803</v>
       </c>
       <c r="K11" s="2">
-        <v>175.77684077764803</v>
+        <v>1358.787686183151</v>
       </c>
       <c r="L11" s="2">
-        <v>91.742790542443686</v>
+        <v>195.3051796373278</v>
       </c>
       <c r="M11" s="2">
-        <v>134.59344549350874</v>
+        <v>238.15967503158038</v>
       </c>
       <c r="N11" s="2">
-        <v>171.99425366262642</v>
+        <v>126.30311912455112</v>
       </c>
       <c r="O11" s="2">
-        <v>84.46557649713256</v>
+        <v>271.41290296929685</v>
       </c>
       <c r="P11" s="2">
-        <v>149.48931298742752</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="Q11" s="2">
-        <v>86.427360201401385</v>
+        <v>231.48432071032732</v>
       </c>
       <c r="R11" s="2">
-        <v>119.16158558104587</v>
+        <v>354.00694907312237</v>
       </c>
       <c r="S11" s="2">
-        <v>144.63945202686403</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="T11" s="2">
-        <v>173.15977494776553</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="U11" s="2">
-        <v>85.209278775506945</v>
+        <v>167.53980080791092</v>
       </c>
       <c r="V11" s="2">
-        <v>150.84930551726367</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="W11" s="2">
-        <v>165.56283797010582</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="X11" s="2">
-        <v>80.640600918740205</v>
+        <v>191.48450236987463</v>
       </c>
       <c r="Y11" s="2">
-        <v>135.22580595984829</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="Z11" s="2">
-        <v>108.45053628077954</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="AA11" s="2">
-        <v>26.369500186548059</v>
+        <v>122.96093553755861</v>
       </c>
       <c r="AB11" s="2">
-        <v>178.1678290413758</v>
+        <v>396.35675306308644</v>
       </c>
       <c r="AC11" s="2">
-        <v>98.377737243468786</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="AD11" s="2">
-        <v>67.293386455081745</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="AE11" s="2">
-        <v>110.64617933239825</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="AF11" s="2">
-        <v>133.48830432935381</v>
+        <v>301.91221359934354</v>
       </c>
       <c r="AG11" s="2">
-        <v>211.23140839310469</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="AH11" s="2">
-        <v>72.606150947101668</v>
+        <v>124.94613956133232</v>
       </c>
       <c r="AI11" s="2">
-        <v>148.09795549277288</v>
+        <v>396.98320448909578</v>
       </c>
       <c r="AJ11" s="2">
-        <v>6.5994493255562467</v>
+        <v>4.1210709777962204</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>200.50313914820566</v>
+        <v>115.06862158885836</v>
       </c>
       <c r="C12" s="2">
-        <v>408.71278354973731</v>
+        <v>116.31136965816854</v>
       </c>
       <c r="D12" s="2">
-        <v>413.14476396087127</v>
+        <v>185.84805232353955</v>
       </c>
       <c r="E12" s="2">
-        <v>294.13396230963349</v>
+        <v>140.33988801706425</v>
       </c>
       <c r="F12" s="2">
-        <v>233.04336655224688</v>
+        <v>92.308924426872736</v>
       </c>
       <c r="G12" s="2">
-        <v>383.3199036749437</v>
+        <v>111.3875824222295</v>
       </c>
       <c r="H12" s="2">
-        <v>251.24721436420126</v>
+        <v>180.62492182429742</v>
       </c>
       <c r="I12" s="2">
-        <v>331.84029128463823</v>
+        <v>124.14118164992939</v>
       </c>
       <c r="J12" s="2">
-        <v>175.77684077764803</v>
+        <v>91.742790542443686</v>
       </c>
       <c r="K12" s="2">
-        <v>1358.787686183151</v>
+        <v>195.3051796373278</v>
       </c>
       <c r="L12" s="2">
-        <v>195.3051796373278</v>
+        <v>503.97717427459997</v>
       </c>
       <c r="M12" s="2">
-        <v>238.15967503158038</v>
+        <v>108.44078065854272</v>
       </c>
       <c r="N12" s="2">
-        <v>126.30311912455112</v>
+        <v>100.65767553665017</v>
       </c>
       <c r="O12" s="2">
-        <v>271.41290296929685</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="P12" s="2">
-        <v>372.50991851566602</v>
+        <v>127.11667649537377</v>
       </c>
       <c r="Q12" s="2">
-        <v>231.48432071032732</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="R12" s="2">
-        <v>354.00694907312237</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="S12" s="2">
-        <v>488.72347404409368</v>
+        <v>104.82028100088206</v>
       </c>
       <c r="T12" s="2">
-        <v>382.65433855922231</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="U12" s="2">
-        <v>167.53980080791092</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="V12" s="2">
-        <v>572.0380229936676</v>
+        <v>200.74189320986176</v>
       </c>
       <c r="W12" s="2">
-        <v>235.0059811950203</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="X12" s="2">
-        <v>191.48450236987463</v>
+        <v>158.65563973998485</v>
       </c>
       <c r="Y12" s="2">
-        <v>316.97459323691658</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="Z12" s="2">
-        <v>177.12909713551551</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="AA12" s="2">
-        <v>122.96093553755861</v>
+        <v>165.82529262500913</v>
       </c>
       <c r="AB12" s="2">
-        <v>396.35675306308644</v>
+        <v>120.62583007144414</v>
       </c>
       <c r="AC12" s="2">
-        <v>249.19836635872809</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="AD12" s="2">
-        <v>301.48926285497038</v>
+        <v>102.09438731975064</v>
       </c>
       <c r="AE12" s="2">
-        <v>323.53972515804298</v>
+        <v>131.72799395978635</v>
       </c>
       <c r="AF12" s="2">
-        <v>301.91221359934354</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="AG12" s="2">
-        <v>120.9052137266375</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="AH12" s="2">
-        <v>124.94613956133232</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="AI12" s="2">
-        <v>396.98320448909578</v>
+        <v>205.37467904529368</v>
       </c>
       <c r="AJ12" s="2">
-        <v>4.1210709777962204</v>
+        <v>2.0945591127529246</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>115.06862158885836</v>
+        <v>181.00745688442851</v>
       </c>
       <c r="C13" s="2">
-        <v>116.31136965816854</v>
+        <v>341.01969348749583</v>
       </c>
       <c r="D13" s="2">
-        <v>185.84805232353955</v>
+        <v>193.39444093770129</v>
       </c>
       <c r="E13" s="2">
-        <v>140.33988801706425</v>
+        <v>175.55334084063418</v>
       </c>
       <c r="F13" s="2">
-        <v>92.308924426872736</v>
+        <v>103.74347282853452</v>
       </c>
       <c r="G13" s="2">
-        <v>111.3875824222295</v>
+        <v>138.32570821238457</v>
       </c>
       <c r="H13" s="2">
-        <v>180.62492182429742</v>
+        <v>192.81629066413018</v>
       </c>
       <c r="I13" s="2">
-        <v>124.14118164992939</v>
+        <v>262.13667558192969</v>
       </c>
       <c r="J13" s="2">
-        <v>91.742790542443686</v>
+        <v>134.59344549350874</v>
       </c>
       <c r="K13" s="2">
-        <v>195.3051796373278</v>
+        <v>238.15967503158038</v>
       </c>
       <c r="L13" s="2">
-        <v>503.97717427459997</v>
+        <v>108.44078065854272</v>
       </c>
       <c r="M13" s="2">
-        <v>108.44078065854272</v>
+        <v>459.80909542628228</v>
       </c>
       <c r="N13" s="2">
-        <v>100.65767553665017</v>
+        <v>118.62388953632595</v>
       </c>
       <c r="O13" s="2">
-        <v>57.945289154956072</v>
+        <v>135.10811775801392</v>
       </c>
       <c r="P13" s="2">
-        <v>127.11667649537377</v>
+        <v>139.501244722682</v>
       </c>
       <c r="Q13" s="2">
-        <v>72.437453574559527</v>
+        <v>128.13600354240052</v>
       </c>
       <c r="R13" s="2">
-        <v>84.302761996605113</v>
+        <v>167.12036312952466</v>
       </c>
       <c r="S13" s="2">
-        <v>104.82028100088206</v>
+        <v>193.38890278254826</v>
       </c>
       <c r="T13" s="2">
-        <v>61.502970093786168</v>
+        <v>161.74073601764644</v>
       </c>
       <c r="U13" s="2">
-        <v>128.57685413453819</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="V13" s="2">
-        <v>200.74189320986176</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="W13" s="2">
-        <v>147.86773917655279</v>
+        <v>136.16834099815333</v>
       </c>
       <c r="X13" s="2">
-        <v>158.65563973998485</v>
+        <v>106.828537318736</v>
       </c>
       <c r="Y13" s="2">
-        <v>72.022935281638695</v>
+        <v>147.01993140673713</v>
       </c>
       <c r="Z13" s="2">
-        <v>94.041414506079477</v>
+        <v>41.506220177290956</v>
       </c>
       <c r="AA13" s="2">
-        <v>165.82529262500913</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="AB13" s="2">
-        <v>120.62583007144414</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="AC13" s="2">
-        <v>71.235072299085743</v>
+        <v>117.88409421190754</v>
       </c>
       <c r="AD13" s="2">
-        <v>102.09438731975064</v>
+        <v>118.92646708236742</v>
       </c>
       <c r="AE13" s="2">
-        <v>131.72799395978635</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="AF13" s="2">
-        <v>48.012541311291379</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="AG13" s="2">
-        <v>86.499890084909353</v>
+        <v>121.616893836727</v>
       </c>
       <c r="AH13" s="2">
-        <v>71.835602510157244</v>
+        <v>31.170007378826824</v>
       </c>
       <c r="AI13" s="2">
-        <v>205.37467904529368</v>
+        <v>190.64121786924881</v>
       </c>
       <c r="AJ13" s="2">
-        <v>2.0945591127529246</v>
+        <v>0.86120533912917052</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>181.00745688442851</v>
+        <v>93.563217131766521</v>
       </c>
       <c r="C14" s="2">
-        <v>341.01969348749583</v>
+        <v>208.35227731785</v>
       </c>
       <c r="D14" s="2">
-        <v>193.39444093770129</v>
+        <v>113.02439881934129</v>
       </c>
       <c r="E14" s="2">
-        <v>175.55334084063418</v>
+        <v>99.33937199209285</v>
       </c>
       <c r="F14" s="2">
-        <v>103.74347282853452</v>
+        <v>119.75681097457645</v>
       </c>
       <c r="G14" s="2">
-        <v>138.32570821238457</v>
+        <v>68.06412250932965</v>
       </c>
       <c r="H14" s="2">
-        <v>192.81629066413018</v>
+        <v>170.15459740112573</v>
       </c>
       <c r="I14" s="2">
-        <v>262.13667558192969</v>
+        <v>168.44448811912821</v>
       </c>
       <c r="J14" s="2">
-        <v>134.59344549350874</v>
+        <v>171.99425366262642</v>
       </c>
       <c r="K14" s="2">
-        <v>238.15967503158038</v>
+        <v>126.30311912455112</v>
       </c>
       <c r="L14" s="2">
-        <v>108.44078065854272</v>
+        <v>100.65767553665017</v>
       </c>
       <c r="M14" s="2">
-        <v>459.80909542628228</v>
+        <v>118.62388953632595</v>
       </c>
       <c r="N14" s="2">
-        <v>118.62388953632595</v>
+        <v>294.32254631190136</v>
       </c>
       <c r="O14" s="2">
-        <v>135.10811775801392</v>
+        <v>63.741222126939007</v>
       </c>
       <c r="P14" s="2">
-        <v>139.501244722682</v>
+        <v>121.78234326620017</v>
       </c>
       <c r="Q14" s="2">
-        <v>128.13600354240052</v>
+        <v>103.47885801711872</v>
       </c>
       <c r="R14" s="2">
-        <v>167.12036312952466</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="S14" s="2">
-        <v>193.38890278254826</v>
+        <v>114.58721658693514</v>
       </c>
       <c r="T14" s="2">
-        <v>161.74073601764644</v>
+        <v>140.53359294640407</v>
       </c>
       <c r="U14" s="2">
-        <v>71.215619934374232</v>
+        <v>62.512086287662456</v>
       </c>
       <c r="V14" s="2">
-        <v>194.54109988576079</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="W14" s="2">
-        <v>136.16834099815333</v>
+        <v>106.03258109480784</v>
       </c>
       <c r="X14" s="2">
-        <v>106.828537318736</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="Y14" s="2">
-        <v>147.01993140673713</v>
+        <v>103.70071992210784</v>
       </c>
       <c r="Z14" s="2">
-        <v>41.506220177290956</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="AA14" s="2">
-        <v>75.401018589211333</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="AB14" s="2">
-        <v>186.68811405136699</v>
+        <v>109.66022273595465</v>
       </c>
       <c r="AC14" s="2">
-        <v>117.88409421190754</v>
+        <v>115.82963637627815</v>
       </c>
       <c r="AD14" s="2">
-        <v>118.92646708236742</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="AE14" s="2">
-        <v>144.0909217684362</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="AF14" s="2">
-        <v>168.39880012754691</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="AG14" s="2">
-        <v>121.616893836727</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="AH14" s="2">
-        <v>31.170007378826824</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="AI14" s="2">
-        <v>190.64121786924881</v>
+        <v>131.23207470926553</v>
       </c>
       <c r="AJ14" s="2">
-        <v>0.86120533912917052</v>
+        <v>1.8336803660598988</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>93.563217131766521</v>
+        <v>84.499208257831356</v>
       </c>
       <c r="C15" s="2">
-        <v>208.35227731785</v>
+        <v>201.0832886124773</v>
       </c>
       <c r="D15" s="2">
-        <v>113.02439881934129</v>
+        <v>204.47790189544389</v>
       </c>
       <c r="E15" s="2">
-        <v>99.33937199209285</v>
+        <v>192.9276288874587</v>
       </c>
       <c r="F15" s="2">
-        <v>119.75681097457645</v>
+        <v>119.84124204399535</v>
       </c>
       <c r="G15" s="2">
-        <v>68.06412250932965</v>
+        <v>127.23973828136521</v>
       </c>
       <c r="H15" s="2">
-        <v>170.15459740112573</v>
+        <v>136.67598427902263</v>
       </c>
       <c r="I15" s="2">
-        <v>168.44448811912821</v>
+        <v>135.09745559205268</v>
       </c>
       <c r="J15" s="2">
-        <v>171.99425366262642</v>
+        <v>84.46557649713256</v>
       </c>
       <c r="K15" s="2">
-        <v>126.30311912455112</v>
+        <v>271.41290296929685</v>
       </c>
       <c r="L15" s="2">
-        <v>100.65767553665017</v>
+        <v>57.945289154956072</v>
       </c>
       <c r="M15" s="2">
-        <v>118.62388953632595</v>
+        <v>135.10811775801392</v>
       </c>
       <c r="N15" s="2">
-        <v>294.32254631190136</v>
+        <v>63.741222126939007</v>
       </c>
       <c r="O15" s="2">
-        <v>63.741222126939007</v>
+        <v>466.65689750258787</v>
       </c>
       <c r="P15" s="2">
-        <v>121.78234326620017</v>
+        <v>193.68991843799023</v>
       </c>
       <c r="Q15" s="2">
-        <v>103.47885801711872</v>
+        <v>164.46631065710034</v>
       </c>
       <c r="R15" s="2">
-        <v>67.399145730913588</v>
+        <v>239.89849014505882</v>
       </c>
       <c r="S15" s="2">
-        <v>114.58721658693514</v>
+        <v>290.798772494236</v>
       </c>
       <c r="T15" s="2">
-        <v>140.53359294640407</v>
+        <v>237.64225261060812</v>
       </c>
       <c r="U15" s="2">
-        <v>62.512086287662456</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="V15" s="2">
-        <v>99.389567888432452</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="W15" s="2">
-        <v>106.03258109480784</v>
+        <v>135.33697030066872</v>
       </c>
       <c r="X15" s="2">
-        <v>85.223776598623346</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="Y15" s="2">
-        <v>103.70071992210784</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="Z15" s="2">
-        <v>71.567080711629714</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="AA15" s="2">
-        <v>59.172917352252909</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="AB15" s="2">
-        <v>109.66022273595465</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="AC15" s="2">
-        <v>115.82963637627815</v>
+        <v>110.88883408561448</v>
       </c>
       <c r="AD15" s="2">
-        <v>41.508475309720168</v>
+        <v>167.52545705243415</v>
       </c>
       <c r="AE15" s="2">
-        <v>87.907641664722789</v>
+        <v>149.94029582364553</v>
       </c>
       <c r="AF15" s="2">
-        <v>81.086486769544706</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="AG15" s="2">
-        <v>151.11324751753361</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="AH15" s="2">
-        <v>39.212363566967007</v>
+        <v>105.72820911861342</v>
       </c>
       <c r="AI15" s="2">
-        <v>131.23207470926553</v>
+        <v>234.63224645485644</v>
       </c>
       <c r="AJ15" s="2">
-        <v>1.8336803660598988</v>
+        <v>0.26742936917059534</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>84.499208257831356</v>
+        <v>137.14556104241098</v>
       </c>
       <c r="C16" s="2">
-        <v>201.0832886124773</v>
+        <v>370.59441619017616</v>
       </c>
       <c r="D16" s="2">
-        <v>204.47790189544389</v>
+        <v>268.48019254081157</v>
       </c>
       <c r="E16" s="2">
-        <v>192.9276288874587</v>
+        <v>209.03090280930763</v>
       </c>
       <c r="F16" s="2">
-        <v>119.84124204399535</v>
+        <v>125.79621562096442</v>
       </c>
       <c r="G16" s="2">
-        <v>127.23973828136521</v>
+        <v>251.54529919627572</v>
       </c>
       <c r="H16" s="2">
-        <v>136.67598427902263</v>
+        <v>252.6496579583839</v>
       </c>
       <c r="I16" s="2">
-        <v>135.09745559205268</v>
+        <v>249.23855169302476</v>
       </c>
       <c r="J16" s="2">
-        <v>84.46557649713256</v>
+        <v>149.48931298742752</v>
       </c>
       <c r="K16" s="2">
-        <v>271.41290296929685</v>
+        <v>372.50991851566602</v>
       </c>
       <c r="L16" s="2">
-        <v>57.945289154956072</v>
+        <v>127.11667649537377</v>
       </c>
       <c r="M16" s="2">
-        <v>135.10811775801392</v>
+        <v>139.501244722682</v>
       </c>
       <c r="N16" s="2">
-        <v>63.741222126939007</v>
+        <v>121.78234326620017</v>
       </c>
       <c r="O16" s="2">
-        <v>466.65689750258787</v>
+        <v>193.68991843799023</v>
       </c>
       <c r="P16" s="2">
-        <v>193.68991843799023</v>
+        <v>1086.8773107326451</v>
       </c>
       <c r="Q16" s="2">
-        <v>164.46631065710034</v>
+        <v>245.6704146611259</v>
       </c>
       <c r="R16" s="2">
-        <v>239.89849014505882</v>
+        <v>251.00856971975074</v>
       </c>
       <c r="S16" s="2">
-        <v>290.798772494236</v>
+        <v>429.37894065076455</v>
       </c>
       <c r="T16" s="2">
-        <v>237.64225261060812</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="U16" s="2">
-        <v>89.89307816297439</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="V16" s="2">
-        <v>217.07156143559041</v>
+        <v>392.28232371086057</v>
       </c>
       <c r="W16" s="2">
-        <v>135.33697030066872</v>
+        <v>191.24409203313044</v>
       </c>
       <c r="X16" s="2">
-        <v>87.116106911327421</v>
+        <v>131.27163202690593</v>
       </c>
       <c r="Y16" s="2">
-        <v>273.46958385683422</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Z16" s="2">
-        <v>94.853642301371025</v>
+        <v>146.37163608302396</v>
       </c>
       <c r="AA16" s="2">
-        <v>65.071783678878262</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="AB16" s="2">
-        <v>207.36809374720599</v>
+        <v>272.23324186599973</v>
       </c>
       <c r="AC16" s="2">
-        <v>110.88883408561448</v>
+        <v>125.66350170105912</v>
       </c>
       <c r="AD16" s="2">
-        <v>167.52545705243415</v>
+        <v>165.16239197600535</v>
       </c>
       <c r="AE16" s="2">
-        <v>149.94029582364553</v>
+        <v>308.33902222680797</v>
       </c>
       <c r="AF16" s="2">
-        <v>209.37039822178861</v>
+        <v>221.29370171731847</v>
       </c>
       <c r="AG16" s="2">
-        <v>77.44398318164923</v>
+        <v>131.72185730605403</v>
       </c>
       <c r="AH16" s="2">
-        <v>105.72820911861342</v>
+        <v>115.72278478089477</v>
       </c>
       <c r="AI16" s="2">
-        <v>234.63224645485644</v>
+        <v>261.66767661709116</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0.26742936917059534</v>
+        <v>5.5938319634512306</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>137.14556104241098</v>
+        <v>129.13553230338633</v>
       </c>
       <c r="C17" s="2">
-        <v>370.59441619017616</v>
+        <v>375.3575740415057</v>
       </c>
       <c r="D17" s="2">
-        <v>268.48019254081157</v>
+        <v>175.23729498843988</v>
       </c>
       <c r="E17" s="2">
-        <v>209.03090280930763</v>
+        <v>112.43188146143657</v>
       </c>
       <c r="F17" s="2">
-        <v>125.79621562096442</v>
+        <v>155.88917819746456</v>
       </c>
       <c r="G17" s="2">
-        <v>251.54529919627572</v>
+        <v>111.55251459621643</v>
       </c>
       <c r="H17" s="2">
-        <v>252.6496579583839</v>
+        <v>142.99511660708367</v>
       </c>
       <c r="I17" s="2">
-        <v>249.23855169302476</v>
+        <v>147.26273782696541</v>
       </c>
       <c r="J17" s="2">
-        <v>149.48931298742752</v>
+        <v>86.427360201401385</v>
       </c>
       <c r="K17" s="2">
-        <v>372.50991851566602</v>
+        <v>231.48432071032732</v>
       </c>
       <c r="L17" s="2">
-        <v>127.11667649537377</v>
+        <v>72.437453574559527</v>
       </c>
       <c r="M17" s="2">
-        <v>139.501244722682</v>
+        <v>128.13600354240052</v>
       </c>
       <c r="N17" s="2">
-        <v>121.78234326620017</v>
+        <v>103.47885801711872</v>
       </c>
       <c r="O17" s="2">
-        <v>193.68991843799023</v>
+        <v>164.46631065710034</v>
       </c>
       <c r="P17" s="2">
-        <v>1086.8773107326451</v>
+        <v>245.6704146611259</v>
       </c>
       <c r="Q17" s="2">
-        <v>245.6704146611259</v>
+        <v>978.61309168424441</v>
       </c>
       <c r="R17" s="2">
-        <v>251.00856971975074</v>
+        <v>252.52021059264899</v>
       </c>
       <c r="S17" s="2">
-        <v>429.37894065076455</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="T17" s="2">
-        <v>239.5144709788452</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="U17" s="2">
-        <v>92.04110921170934</v>
+        <v>19.947362356354745</v>
       </c>
       <c r="V17" s="2">
-        <v>392.28232371086057</v>
+        <v>253.47970241250792</v>
       </c>
       <c r="W17" s="2">
-        <v>191.24409203313044</v>
+        <v>125.03929936919268</v>
       </c>
       <c r="X17" s="2">
-        <v>131.27163202690593</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="Y17" s="2">
-        <v>259.48638099811751</v>
+        <v>357.56488183561294</v>
       </c>
       <c r="Z17" s="2">
-        <v>146.37163608302396</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="AA17" s="2">
-        <v>98.06780864946208</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="AB17" s="2">
-        <v>272.23324186599973</v>
+        <v>212.68404085167327</v>
       </c>
       <c r="AC17" s="2">
-        <v>125.66350170105912</v>
+        <v>154.67817954636763</v>
       </c>
       <c r="AD17" s="2">
-        <v>165.16239197600535</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="AE17" s="2">
-        <v>308.33902222680797</v>
+        <v>256.28578800037286</v>
       </c>
       <c r="AF17" s="2">
-        <v>221.29370171731847</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="AG17" s="2">
-        <v>131.72185730605403</v>
+        <v>115.15758581186131</v>
       </c>
       <c r="AH17" s="2">
-        <v>115.72278478089477</v>
+        <v>20.015755498576198</v>
       </c>
       <c r="AI17" s="2">
-        <v>261.66767661709116</v>
+        <v>220.94513750645314</v>
       </c>
       <c r="AJ17" s="2">
-        <v>5.5938319634512306</v>
+        <v>2.5260578366523889</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>129.13553230338633</v>
+        <v>136.14701772793222</v>
       </c>
       <c r="C18" s="2">
-        <v>375.3575740415057</v>
+        <v>310.0471024202572</v>
       </c>
       <c r="D18" s="2">
-        <v>175.23729498843988</v>
+        <v>285.78521619883679</v>
       </c>
       <c r="E18" s="2">
-        <v>112.43188146143657</v>
+        <v>222.4007556424431</v>
       </c>
       <c r="F18" s="2">
-        <v>155.88917819746456</v>
+        <v>149.27121235804003</v>
       </c>
       <c r="G18" s="2">
-        <v>111.55251459621643</v>
+        <v>185.22327353551367</v>
       </c>
       <c r="H18" s="2">
-        <v>142.99511660708367</v>
+        <v>144.67239228758774</v>
       </c>
       <c r="I18" s="2">
-        <v>147.26273782696541</v>
+        <v>196.63732419034918</v>
       </c>
       <c r="J18" s="2">
-        <v>86.427360201401385</v>
+        <v>119.16158558104587</v>
       </c>
       <c r="K18" s="2">
-        <v>231.48432071032732</v>
+        <v>354.00694907312237</v>
       </c>
       <c r="L18" s="2">
-        <v>72.437453574559527</v>
+        <v>84.302761996605113</v>
       </c>
       <c r="M18" s="2">
-        <v>128.13600354240052</v>
+        <v>167.12036312952466</v>
       </c>
       <c r="N18" s="2">
-        <v>103.47885801711872</v>
+        <v>67.399145730913588</v>
       </c>
       <c r="O18" s="2">
-        <v>164.46631065710034</v>
+        <v>239.89849014505882</v>
       </c>
       <c r="P18" s="2">
-        <v>245.6704146611259</v>
+        <v>251.00856971975074</v>
       </c>
       <c r="Q18" s="2">
-        <v>978.61309168424441</v>
+        <v>252.52021059264899</v>
       </c>
       <c r="R18" s="2">
-        <v>252.52021059264899</v>
+        <v>910.13109087652469</v>
       </c>
       <c r="S18" s="2">
-        <v>535.62283932289301</v>
+        <v>341.09453450445494</v>
       </c>
       <c r="T18" s="2">
-        <v>375.2416364702961</v>
+        <v>295.93421881220456</v>
       </c>
       <c r="U18" s="2">
-        <v>19.947362356354745</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="V18" s="2">
-        <v>253.47970241250792</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="W18" s="2">
-        <v>125.03929936919268</v>
+        <v>229.17211813202664</v>
       </c>
       <c r="X18" s="2">
-        <v>51.316562143824932</v>
+        <v>35.582608421144116</v>
       </c>
       <c r="Y18" s="2">
-        <v>357.56488183561294</v>
+        <v>303.25524381254525</v>
       </c>
       <c r="Z18" s="2">
-        <v>67.849797906623991</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="AA18" s="2">
-        <v>53.578182415381313</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="AB18" s="2">
-        <v>212.68404085167327</v>
+        <v>263.66207538828655</v>
       </c>
       <c r="AC18" s="2">
-        <v>154.67817954636763</v>
+        <v>133.82299263943048</v>
       </c>
       <c r="AD18" s="2">
-        <v>95.545536267340097</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="AE18" s="2">
-        <v>256.28578800037286</v>
+        <v>203.54624800442815</v>
       </c>
       <c r="AF18" s="2">
-        <v>235.47108672824291</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="AG18" s="2">
-        <v>115.15758581186131</v>
+        <v>112.24584064721385</v>
       </c>
       <c r="AH18" s="2">
-        <v>20.015755498576198</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="AI18" s="2">
-        <v>220.94513750645314</v>
+        <v>293.99535247559885</v>
       </c>
       <c r="AJ18" s="2">
-        <v>2.5260578366523889</v>
+        <v>6.2779338804389804</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>136.14701772793222</v>
+        <v>215.11526776160673</v>
       </c>
       <c r="C19" s="2">
-        <v>310.0471024202572</v>
+        <v>506.37347394879293</v>
       </c>
       <c r="D19" s="2">
-        <v>285.78521619883679</v>
+        <v>342.10203461542034</v>
       </c>
       <c r="E19" s="2">
-        <v>222.4007556424431</v>
+        <v>215.07527051520898</v>
       </c>
       <c r="F19" s="2">
-        <v>149.27121235804003</v>
+        <v>167.02790109339634</v>
       </c>
       <c r="G19" s="2">
-        <v>185.22327353551367</v>
+        <v>216.43501583290447</v>
       </c>
       <c r="H19" s="2">
-        <v>144.67239228758774</v>
+        <v>230.25819308606742</v>
       </c>
       <c r="I19" s="2">
-        <v>196.63732419034918</v>
+        <v>297.52217131521729</v>
       </c>
       <c r="J19" s="2">
-        <v>119.16158558104587</v>
+        <v>144.63945202686403</v>
       </c>
       <c r="K19" s="2">
-        <v>354.00694907312237</v>
+        <v>488.72347404409368</v>
       </c>
       <c r="L19" s="2">
-        <v>84.302761996605113</v>
+        <v>104.82028100088206</v>
       </c>
       <c r="M19" s="2">
-        <v>167.12036312952466</v>
+        <v>193.38890278254826</v>
       </c>
       <c r="N19" s="2">
-        <v>67.399145730913588</v>
+        <v>114.58721658693514</v>
       </c>
       <c r="O19" s="2">
-        <v>239.89849014505882</v>
+        <v>290.798772494236</v>
       </c>
       <c r="P19" s="2">
-        <v>251.00856971975074</v>
+        <v>429.37894065076455</v>
       </c>
       <c r="Q19" s="2">
-        <v>252.52021059264899</v>
+        <v>535.62283932289301</v>
       </c>
       <c r="R19" s="2">
-        <v>910.13109087652469</v>
+        <v>341.09453450445494</v>
       </c>
       <c r="S19" s="2">
-        <v>341.09453450445494</v>
+        <v>1783.3369441713976</v>
       </c>
       <c r="T19" s="2">
-        <v>295.93421881220456</v>
+        <v>550.79191919530172</v>
       </c>
       <c r="U19" s="2">
-        <v>57.247904196337423</v>
+        <v>126.75507674567965</v>
       </c>
       <c r="V19" s="2">
-        <v>338.66684620604821</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="W19" s="2">
-        <v>229.17211813202664</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="X19" s="2">
-        <v>35.582608421144116</v>
+        <v>148.19028888487753</v>
       </c>
       <c r="Y19" s="2">
-        <v>303.25524381254525</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="Z19" s="2">
-        <v>97.486373264302628</v>
+        <v>195.29515394921083</v>
       </c>
       <c r="AA19" s="2">
-        <v>67.437693902691919</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="AB19" s="2">
-        <v>263.66207538828655</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="AC19" s="2">
-        <v>133.82299263943048</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="AD19" s="2">
-        <v>306.05824352191001</v>
+        <v>191.00651545207296</v>
       </c>
       <c r="AE19" s="2">
-        <v>203.54624800442815</v>
+        <v>399.39223543329865</v>
       </c>
       <c r="AF19" s="2">
-        <v>268.4656919372826</v>
+        <v>270.73764185630307</v>
       </c>
       <c r="AG19" s="2">
-        <v>112.24584064721385</v>
+        <v>122.36388529461458</v>
       </c>
       <c r="AH19" s="2">
-        <v>107.4569121428264</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="AI19" s="2">
-        <v>293.99535247559885</v>
+        <v>367.90002629035922</v>
       </c>
       <c r="AJ19" s="2">
-        <v>6.2779338804389804</v>
+        <v>5.6092366200626467</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>215.11526776160673</v>
+        <v>165.76853839791477</v>
       </c>
       <c r="C20" s="2">
-        <v>506.37347394879293</v>
+        <v>404.50413447791937</v>
       </c>
       <c r="D20" s="2">
-        <v>342.10203461542034</v>
+        <v>248.90380514951406</v>
       </c>
       <c r="E20" s="2">
-        <v>215.07527051520898</v>
+        <v>141.28425474020241</v>
       </c>
       <c r="F20" s="2">
-        <v>167.02790109339634</v>
+        <v>199.79395929571649</v>
       </c>
       <c r="G20" s="2">
-        <v>216.43501583290447</v>
+        <v>187.62135599764139</v>
       </c>
       <c r="H20" s="2">
-        <v>230.25819308606742</v>
+        <v>127.64373077765754</v>
       </c>
       <c r="I20" s="2">
-        <v>297.52217131521729</v>
+        <v>238.3637960786499</v>
       </c>
       <c r="J20" s="2">
-        <v>144.63945202686403</v>
+        <v>173.15977494776553</v>
       </c>
       <c r="K20" s="2">
-        <v>488.72347404409368</v>
+        <v>382.65433855922231</v>
       </c>
       <c r="L20" s="2">
-        <v>104.82028100088206</v>
+        <v>61.502970093786168</v>
       </c>
       <c r="M20" s="2">
-        <v>193.38890278254826</v>
+        <v>161.74073601764644</v>
       </c>
       <c r="N20" s="2">
-        <v>114.58721658693514</v>
+        <v>140.53359294640407</v>
       </c>
       <c r="O20" s="2">
-        <v>290.798772494236</v>
+        <v>237.64225261060812</v>
       </c>
       <c r="P20" s="2">
-        <v>429.37894065076455</v>
+        <v>239.5144709788452</v>
       </c>
       <c r="Q20" s="2">
-        <v>535.62283932289301</v>
+        <v>375.2416364702961</v>
       </c>
       <c r="R20" s="2">
-        <v>341.09453450445494</v>
+        <v>295.93421881220456</v>
       </c>
       <c r="S20" s="2">
-        <v>1783.3369441713976</v>
+        <v>550.79191919530172</v>
       </c>
       <c r="T20" s="2">
-        <v>550.79191919530172</v>
+        <v>969.61592179225852</v>
       </c>
       <c r="U20" s="2">
-        <v>126.75507674567965</v>
+        <v>85.398734410171826</v>
       </c>
       <c r="V20" s="2">
-        <v>458.90299983472732</v>
+        <v>361.24143922807997</v>
       </c>
       <c r="W20" s="2">
-        <v>211.99582921518669</v>
+        <v>162.13349425146458</v>
       </c>
       <c r="X20" s="2">
-        <v>148.19028888487753</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="Y20" s="2">
-        <v>553.34048404281725</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="Z20" s="2">
-        <v>195.29515394921083</v>
+        <v>105.84527761617709</v>
       </c>
       <c r="AA20" s="2">
-        <v>40.581894946375208</v>
+        <v>12.362771975126645</v>
       </c>
       <c r="AB20" s="2">
-        <v>314.74757018371292</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="AC20" s="2">
-        <v>218.0755684264671</v>
+        <v>236.33810606103117</v>
       </c>
       <c r="AD20" s="2">
-        <v>191.00651545207296</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="AE20" s="2">
-        <v>399.39223543329865</v>
+        <v>248.22324024451484</v>
       </c>
       <c r="AF20" s="2">
-        <v>270.73764185630307</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="AG20" s="2">
-        <v>122.36388529461458</v>
+        <v>145.60098746437978</v>
       </c>
       <c r="AH20" s="2">
-        <v>66.556604606616546</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="AI20" s="2">
-        <v>367.90002629035922</v>
+        <v>294.62416971213156</v>
       </c>
       <c r="AJ20" s="2">
-        <v>5.6092366200626467</v>
+        <v>2.8853417908161023</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>165.76853839791477</v>
+        <v>85.84730480690186</v>
       </c>
       <c r="C21" s="2">
-        <v>404.50413447791937</v>
+        <v>55.358840210033236</v>
       </c>
       <c r="D21" s="2">
-        <v>248.90380514951406</v>
+        <v>133.17960268602755</v>
       </c>
       <c r="E21" s="2">
-        <v>141.28425474020241</v>
+        <v>112.71875502656673</v>
       </c>
       <c r="F21" s="2">
-        <v>199.79395929571649</v>
+        <v>80.015176229995902</v>
       </c>
       <c r="G21" s="2">
-        <v>187.62135599764139</v>
+        <v>69.785371377166143</v>
       </c>
       <c r="H21" s="2">
-        <v>127.64373077765754</v>
+        <v>95.631152378042515</v>
       </c>
       <c r="I21" s="2">
-        <v>238.3637960786499</v>
+        <v>101.09869063829854</v>
       </c>
       <c r="J21" s="2">
-        <v>173.15977494776553</v>
+        <v>85.209278775506945</v>
       </c>
       <c r="K21" s="2">
-        <v>382.65433855922231</v>
+        <v>167.53980080791092</v>
       </c>
       <c r="L21" s="2">
-        <v>61.502970093786168</v>
+        <v>128.57685413453819</v>
       </c>
       <c r="M21" s="2">
-        <v>161.74073601764644</v>
+        <v>71.215619934374232</v>
       </c>
       <c r="N21" s="2">
-        <v>140.53359294640407</v>
+        <v>62.512086287662456</v>
       </c>
       <c r="O21" s="2">
-        <v>237.64225261060812</v>
+        <v>89.89307816297439</v>
       </c>
       <c r="P21" s="2">
-        <v>239.5144709788452</v>
+        <v>92.04110921170934</v>
       </c>
       <c r="Q21" s="2">
-        <v>375.2416364702961</v>
+        <v>19.947362356354745</v>
       </c>
       <c r="R21" s="2">
-        <v>295.93421881220456</v>
+        <v>57.247904196337423</v>
       </c>
       <c r="S21" s="2">
-        <v>550.79191919530172</v>
+        <v>126.75507674567965</v>
       </c>
       <c r="T21" s="2">
-        <v>969.61592179225852</v>
+        <v>85.398734410171826</v>
       </c>
       <c r="U21" s="2">
-        <v>85.398734410171826</v>
+        <v>342.83574308192988</v>
       </c>
       <c r="V21" s="2">
-        <v>361.24143922807997</v>
+        <v>78.194670118302625</v>
       </c>
       <c r="W21" s="2">
-        <v>162.13349425146458</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="X21" s="2">
-        <v>67.261857081319206</v>
+        <v>145.92444837489415</v>
       </c>
       <c r="Y21" s="2">
-        <v>433.55858268746113</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="Z21" s="2">
-        <v>105.84527761617709</v>
+        <v>128.93300316240015</v>
       </c>
       <c r="AA21" s="2">
-        <v>12.362771975126645</v>
+        <v>116.08120186993273</v>
       </c>
       <c r="AB21" s="2">
-        <v>248.2669691986157</v>
+        <v>115.18922798577128</v>
       </c>
       <c r="AC21" s="2">
-        <v>236.33810606103117</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="AD21" s="2">
-        <v>188.48650571104719</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="AE21" s="2">
-        <v>248.22324024451484</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="AF21" s="2">
-        <v>231.25000817449251</v>
+        <v>21.787078320462694</v>
       </c>
       <c r="AG21" s="2">
-        <v>145.60098746437978</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="AH21" s="2">
-        <v>38.467916507858817</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="AI21" s="2">
-        <v>294.62416971213156</v>
+        <v>118.00567793560012</v>
       </c>
       <c r="AJ21" s="2">
-        <v>2.8853417908161023</v>
+        <v>6.1385302978581811</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>85.84730480690186</v>
+        <v>157.12167283294951</v>
       </c>
       <c r="C22" s="2">
-        <v>55.358840210033236</v>
+        <v>386.03568116512037</v>
       </c>
       <c r="D22" s="2">
-        <v>133.17960268602755</v>
+        <v>357.25892961301997</v>
       </c>
       <c r="E22" s="2">
-        <v>112.71875502656673</v>
+        <v>264.22172188476247</v>
       </c>
       <c r="F22" s="2">
-        <v>80.015176229995902</v>
+        <v>153.11983147169053</v>
       </c>
       <c r="G22" s="2">
-        <v>69.785371377166143</v>
+        <v>374.47763327643872</v>
       </c>
       <c r="H22" s="2">
-        <v>95.631152378042515</v>
+        <v>197.90921028774486</v>
       </c>
       <c r="I22" s="2">
-        <v>101.09869063829854</v>
+        <v>280.94754563979768</v>
       </c>
       <c r="J22" s="2">
-        <v>85.209278775506945</v>
+        <v>150.84930551726367</v>
       </c>
       <c r="K22" s="2">
-        <v>167.53980080791092</v>
+        <v>572.0380229936676</v>
       </c>
       <c r="L22" s="2">
-        <v>128.57685413453819</v>
+        <v>200.74189320986176</v>
       </c>
       <c r="M22" s="2">
-        <v>71.215619934374232</v>
+        <v>194.54109988576079</v>
       </c>
       <c r="N22" s="2">
-        <v>62.512086287662456</v>
+        <v>99.389567888432452</v>
       </c>
       <c r="O22" s="2">
-        <v>89.89307816297439</v>
+        <v>217.07156143559041</v>
       </c>
       <c r="P22" s="2">
-        <v>92.04110921170934</v>
+        <v>392.28232371086057</v>
       </c>
       <c r="Q22" s="2">
-        <v>19.947362356354745</v>
+        <v>253.47970241250792</v>
       </c>
       <c r="R22" s="2">
-        <v>57.247904196337423</v>
+        <v>338.66684620604821</v>
       </c>
       <c r="S22" s="2">
-        <v>126.75507674567965</v>
+        <v>458.90299983472732</v>
       </c>
       <c r="T22" s="2">
-        <v>85.398734410171826</v>
+        <v>361.24143922807997</v>
       </c>
       <c r="U22" s="2">
-        <v>342.83574308192988</v>
+        <v>78.194670118302625</v>
       </c>
       <c r="V22" s="2">
-        <v>78.194670118302625</v>
+        <v>1059.7489095044148</v>
       </c>
       <c r="W22" s="2">
-        <v>98.855396875204917</v>
+        <v>242.30025675577815</v>
       </c>
       <c r="X22" s="2">
-        <v>145.92444837489415</v>
+        <v>150.90579374966055</v>
       </c>
       <c r="Y22" s="2">
-        <v>91.265423044492252</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="Z22" s="2">
-        <v>128.93300316240015</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="AA22" s="2">
-        <v>116.08120186993273</v>
+        <v>132.61655851596953</v>
       </c>
       <c r="AB22" s="2">
-        <v>115.18922798577128</v>
+        <v>297.50079837228157</v>
       </c>
       <c r="AC22" s="2">
-        <v>57.656572750020857</v>
+        <v>181.63100538466776</v>
       </c>
       <c r="AD22" s="2">
-        <v>96.472069016605019</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="AE22" s="2">
-        <v>60.919383187046833</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="AF22" s="2">
-        <v>21.787078320462694</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="AG22" s="2">
-        <v>78.057037873540764</v>
+        <v>120.39384764956905</v>
       </c>
       <c r="AH22" s="2">
-        <v>87.169651057370842</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="AI22" s="2">
-        <v>118.00567793560012</v>
+        <v>420.8796707612691</v>
       </c>
       <c r="AJ22" s="2">
-        <v>6.1385302978581811</v>
+        <v>5.7693234801404731</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>157.12167283294951</v>
+        <v>113.28014369578361</v>
       </c>
       <c r="C23" s="2">
-        <v>386.03568116512037</v>
+        <v>241.15230865022457</v>
       </c>
       <c r="D23" s="2">
-        <v>357.25892961301997</v>
+        <v>224.99702598411187</v>
       </c>
       <c r="E23" s="2">
-        <v>264.22172188476247</v>
+        <v>186.96620920043364</v>
       </c>
       <c r="F23" s="2">
-        <v>153.11983147169053</v>
+        <v>174.60862003666779</v>
       </c>
       <c r="G23" s="2">
-        <v>374.47763327643872</v>
+        <v>124.02985964442912</v>
       </c>
       <c r="H23" s="2">
-        <v>197.90921028774486</v>
+        <v>163.0985006254939</v>
       </c>
       <c r="I23" s="2">
-        <v>280.94754563979768</v>
+        <v>207.55670991793721</v>
       </c>
       <c r="J23" s="2">
-        <v>150.84930551726367</v>
+        <v>165.56283797010582</v>
       </c>
       <c r="K23" s="2">
-        <v>572.0380229936676</v>
+        <v>235.0059811950203</v>
       </c>
       <c r="L23" s="2">
-        <v>200.74189320986176</v>
+        <v>147.86773917655279</v>
       </c>
       <c r="M23" s="2">
-        <v>194.54109988576079</v>
+        <v>136.16834099815333</v>
       </c>
       <c r="N23" s="2">
-        <v>99.389567888432452</v>
+        <v>106.03258109480784</v>
       </c>
       <c r="O23" s="2">
-        <v>217.07156143559041</v>
+        <v>135.33697030066872</v>
       </c>
       <c r="P23" s="2">
-        <v>392.28232371086057</v>
+        <v>191.24409203313044</v>
       </c>
       <c r="Q23" s="2">
-        <v>253.47970241250792</v>
+        <v>125.03929936919268</v>
       </c>
       <c r="R23" s="2">
-        <v>338.66684620604821</v>
+        <v>229.17211813202664</v>
       </c>
       <c r="S23" s="2">
-        <v>458.90299983472732</v>
+        <v>211.99582921518669</v>
       </c>
       <c r="T23" s="2">
-        <v>361.24143922807997</v>
+        <v>162.13349425146458</v>
       </c>
       <c r="U23" s="2">
-        <v>78.194670118302625</v>
+        <v>98.855396875204917</v>
       </c>
       <c r="V23" s="2">
-        <v>1059.7489095044148</v>
+        <v>242.30025675577815</v>
       </c>
       <c r="W23" s="2">
-        <v>242.30025675577815</v>
+        <v>571.63494150457609</v>
       </c>
       <c r="X23" s="2">
-        <v>150.90579374966055</v>
+        <v>157.86722921178691</v>
       </c>
       <c r="Y23" s="2">
-        <v>315.85552088591658</v>
+        <v>150.20428679956024</v>
       </c>
       <c r="Z23" s="2">
-        <v>178.26517289086439</v>
+        <v>142.52126810753256</v>
       </c>
       <c r="AA23" s="2">
-        <v>132.61655851596953</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="AB23" s="2">
-        <v>297.50079837228157</v>
+        <v>211.26784329028064</v>
       </c>
       <c r="AC23" s="2">
-        <v>181.63100538466776</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="AD23" s="2">
-        <v>250.7894396986915</v>
+        <v>163.15001222632372</v>
       </c>
       <c r="AE23" s="2">
-        <v>309.50975548335617</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="AF23" s="2">
-        <v>223.49066459331061</v>
+        <v>140.38408968465222</v>
       </c>
       <c r="AG23" s="2">
-        <v>120.39384764956905</v>
+        <v>136.98272441857836</v>
       </c>
       <c r="AH23" s="2">
-        <v>99.387070311455034</v>
+        <v>103.24423149338566</v>
       </c>
       <c r="AI23" s="2">
-        <v>420.8796707612691</v>
+        <v>252.93470682843082</v>
       </c>
       <c r="AJ23" s="2">
-        <v>5.7693234801404731</v>
+        <v>3.7099088904163136</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>113.28014369578361</v>
+        <v>79.300422827573186</v>
       </c>
       <c r="C24" s="2">
-        <v>241.15230865022457</v>
+        <v>97.810906395725738</v>
       </c>
       <c r="D24" s="2">
-        <v>224.99702598411187</v>
+        <v>159.55153368583834</v>
       </c>
       <c r="E24" s="2">
-        <v>186.96620920043364</v>
+        <v>211.15085757148938</v>
       </c>
       <c r="F24" s="2">
-        <v>174.60862003666779</v>
+        <v>183.13135493923937</v>
       </c>
       <c r="G24" s="2">
-        <v>124.02985964442912</v>
+        <v>105.15909314703926</v>
       </c>
       <c r="H24" s="2">
-        <v>163.0985006254939</v>
+        <v>167.16529252466458</v>
       </c>
       <c r="I24" s="2">
-        <v>207.55670991793721</v>
+        <v>125.25502946381992</v>
       </c>
       <c r="J24" s="2">
-        <v>165.56283797010582</v>
+        <v>80.640600918740205</v>
       </c>
       <c r="K24" s="2">
-        <v>235.0059811950203</v>
+        <v>191.48450236987463</v>
       </c>
       <c r="L24" s="2">
-        <v>147.86773917655279</v>
+        <v>158.65563973998485</v>
       </c>
       <c r="M24" s="2">
-        <v>136.16834099815333</v>
+        <v>106.828537318736</v>
       </c>
       <c r="N24" s="2">
-        <v>106.03258109480784</v>
+        <v>85.223776598623346</v>
       </c>
       <c r="O24" s="2">
-        <v>135.33697030066872</v>
+        <v>87.116106911327421</v>
       </c>
       <c r="P24" s="2">
-        <v>191.24409203313044</v>
+        <v>131.27163202690593</v>
       </c>
       <c r="Q24" s="2">
-        <v>125.03929936919268</v>
+        <v>51.316562143824932</v>
       </c>
       <c r="R24" s="2">
-        <v>229.17211813202664</v>
+        <v>35.582608421144116</v>
       </c>
       <c r="S24" s="2">
-        <v>211.99582921518669</v>
+        <v>148.19028888487753</v>
       </c>
       <c r="T24" s="2">
-        <v>162.13349425146458</v>
+        <v>67.261857081319206</v>
       </c>
       <c r="U24" s="2">
-        <v>98.855396875204917</v>
+        <v>145.92444837489415</v>
       </c>
       <c r="V24" s="2">
-        <v>242.30025675577815</v>
+        <v>150.90579374966055</v>
       </c>
       <c r="W24" s="2">
-        <v>571.63494150457609</v>
+        <v>157.86722921178691</v>
       </c>
       <c r="X24" s="2">
-        <v>157.86722921178691</v>
+        <v>628.85708364413858</v>
       </c>
       <c r="Y24" s="2">
-        <v>150.20428679956024</v>
+        <v>128.66358697262592</v>
       </c>
       <c r="Z24" s="2">
-        <v>142.52126810753256</v>
+        <v>197.85032152408144</v>
       </c>
       <c r="AA24" s="2">
-        <v>99.650467666795208</v>
+        <v>125.06500528165279</v>
       </c>
       <c r="AB24" s="2">
-        <v>211.26784329028064</v>
+        <v>113.28024160807654</v>
       </c>
       <c r="AC24" s="2">
-        <v>156.35117624772391</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="AD24" s="2">
-        <v>163.15001222632372</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="AE24" s="2">
-        <v>192.38393611383751</v>
+        <v>134.67168262833343</v>
       </c>
       <c r="AF24" s="2">
-        <v>140.38408968465222</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="AG24" s="2">
-        <v>136.98272441857836</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="AH24" s="2">
-        <v>103.24423149338566</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="AI24" s="2">
-        <v>252.93470682843082</v>
+        <v>129.29357496982965</v>
       </c>
       <c r="AJ24" s="2">
-        <v>3.7099088904163136</v>
+        <v>8.3293941116642181</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>79.300422827573186</v>
+        <v>86.975801667560305</v>
       </c>
       <c r="C25" s="2">
-        <v>97.810906395725738</v>
+        <v>298.88843316559144</v>
       </c>
       <c r="D25" s="2">
-        <v>159.55153368583834</v>
+        <v>214.04981710333632</v>
       </c>
       <c r="E25" s="2">
-        <v>211.15085757148938</v>
+        <v>196.66877664256469</v>
       </c>
       <c r="F25" s="2">
-        <v>183.13135493923937</v>
+        <v>182.33471908763198</v>
       </c>
       <c r="G25" s="2">
-        <v>105.15909314703926</v>
+        <v>138.16263922646189</v>
       </c>
       <c r="H25" s="2">
-        <v>167.16529252466458</v>
+        <v>138.12773798857691</v>
       </c>
       <c r="I25" s="2">
-        <v>125.25502946381992</v>
+        <v>156.85848823254082</v>
       </c>
       <c r="J25" s="2">
-        <v>80.640600918740205</v>
+        <v>135.22580595984829</v>
       </c>
       <c r="K25" s="2">
-        <v>191.48450236987463</v>
+        <v>316.97459323691658</v>
       </c>
       <c r="L25" s="2">
-        <v>158.65563973998485</v>
+        <v>72.022935281638695</v>
       </c>
       <c r="M25" s="2">
-        <v>106.828537318736</v>
+        <v>147.01993140673713</v>
       </c>
       <c r="N25" s="2">
-        <v>85.223776598623346</v>
+        <v>103.70071992210784</v>
       </c>
       <c r="O25" s="2">
-        <v>87.116106911327421</v>
+        <v>273.46958385683422</v>
       </c>
       <c r="P25" s="2">
-        <v>131.27163202690593</v>
+        <v>259.48638099811751</v>
       </c>
       <c r="Q25" s="2">
-        <v>51.316562143824932</v>
+        <v>357.56488183561294</v>
       </c>
       <c r="R25" s="2">
-        <v>35.582608421144116</v>
+        <v>303.25524381254525</v>
       </c>
       <c r="S25" s="2">
-        <v>148.19028888487753</v>
+        <v>553.34048404281725</v>
       </c>
       <c r="T25" s="2">
-        <v>67.261857081319206</v>
+        <v>433.55858268746113</v>
       </c>
       <c r="U25" s="2">
-        <v>145.92444837489415</v>
+        <v>91.265423044492252</v>
       </c>
       <c r="V25" s="2">
-        <v>150.90579374966055</v>
+        <v>315.85552088591658</v>
       </c>
       <c r="W25" s="2">
-        <v>157.86722921178691</v>
+        <v>150.20428679956024</v>
       </c>
       <c r="X25" s="2">
-        <v>628.85708364413858</v>
+        <v>128.66358697262592</v>
       </c>
       <c r="Y25" s="2">
-        <v>128.66358697262592</v>
+        <v>1209.8671041590796</v>
       </c>
       <c r="Z25" s="2">
-        <v>197.85032152408144</v>
+        <v>144.07219413132475</v>
       </c>
       <c r="AA25" s="2">
-        <v>125.06500528165279</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="AB25" s="2">
-        <v>113.28024160807654</v>
+        <v>240.77454682360707</v>
       </c>
       <c r="AC25" s="2">
-        <v>168.8368407196561</v>
+        <v>242.76251421256637</v>
       </c>
       <c r="AD25" s="2">
-        <v>105.9077890971049</v>
+        <v>228.27510444337722</v>
       </c>
       <c r="AE25" s="2">
-        <v>134.67168262833343</v>
+        <v>182.00355923930977</v>
       </c>
       <c r="AF25" s="2">
-        <v>79.429620132721794</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="AG25" s="2">
-        <v>76.051210161973273</v>
+        <v>168.38678621839045</v>
       </c>
       <c r="AH25" s="2">
-        <v>93.654517048227547</v>
+        <v>110.63390901506615</v>
       </c>
       <c r="AI25" s="2">
-        <v>129.29357496982965</v>
+        <v>250.76845841651468</v>
       </c>
       <c r="AJ25" s="2">
-        <v>8.3293941116642181</v>
+        <v>9.8989951336105975</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>86.975801667560305</v>
+        <v>48.096235457124408</v>
       </c>
       <c r="C26" s="2">
-        <v>298.88843316559144</v>
+        <v>71.804247203378083</v>
       </c>
       <c r="D26" s="2">
-        <v>214.04981710333632</v>
+        <v>119.42477322092432</v>
       </c>
       <c r="E26" s="2">
-        <v>196.66877664256469</v>
+        <v>164.18656556805502</v>
       </c>
       <c r="F26" s="2">
-        <v>182.33471908763198</v>
+        <v>94.859690341622724</v>
       </c>
       <c r="G26" s="2">
-        <v>138.16263922646189</v>
+        <v>108.53147088682937</v>
       </c>
       <c r="H26" s="2">
-        <v>138.12773798857691</v>
+        <v>91.403523725559012</v>
       </c>
       <c r="I26" s="2">
-        <v>156.85848823254082</v>
+        <v>88.365353761371409</v>
       </c>
       <c r="J26" s="2">
-        <v>135.22580595984829</v>
+        <v>108.45053628077954</v>
       </c>
       <c r="K26" s="2">
-        <v>316.97459323691658</v>
+        <v>177.12909713551551</v>
       </c>
       <c r="L26" s="2">
-        <v>72.022935281638695</v>
+        <v>94.041414506079477</v>
       </c>
       <c r="M26" s="2">
-        <v>147.01993140673713</v>
+        <v>41.506220177290956</v>
       </c>
       <c r="N26" s="2">
-        <v>103.70071992210784</v>
+        <v>71.567080711629714</v>
       </c>
       <c r="O26" s="2">
-        <v>273.46958385683422</v>
+        <v>94.853642301371025</v>
       </c>
       <c r="P26" s="2">
-        <v>259.48638099811751</v>
+        <v>146.37163608302396</v>
       </c>
       <c r="Q26" s="2">
-        <v>357.56488183561294</v>
+        <v>67.849797906623991</v>
       </c>
       <c r="R26" s="2">
-        <v>303.25524381254525</v>
+        <v>97.486373264302628</v>
       </c>
       <c r="S26" s="2">
-        <v>553.34048404281725</v>
+        <v>195.29515394921083</v>
       </c>
       <c r="T26" s="2">
-        <v>433.55858268746113</v>
+        <v>105.84527761617709</v>
       </c>
       <c r="U26" s="2">
-        <v>91.265423044492252</v>
+        <v>128.93300316240015</v>
       </c>
       <c r="V26" s="2">
-        <v>315.85552088591658</v>
+        <v>178.26517289086439</v>
       </c>
       <c r="W26" s="2">
-        <v>150.20428679956024</v>
+        <v>142.52126810753256</v>
       </c>
       <c r="X26" s="2">
-        <v>128.66358697262592</v>
+        <v>197.85032152408144</v>
       </c>
       <c r="Y26" s="2">
-        <v>1209.8671041590796</v>
+        <v>144.07219413132475</v>
       </c>
       <c r="Z26" s="2">
-        <v>144.07219413132475</v>
+        <v>439.74285066287052</v>
       </c>
       <c r="AA26" s="2">
-        <v>34.747727628327681</v>
+        <v>79.899335385329579</v>
       </c>
       <c r="AB26" s="2">
-        <v>240.77454682360707</v>
+        <v>124.76513414881794</v>
       </c>
       <c r="AC26" s="2">
-        <v>242.76251421256637</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AD26" s="2">
-        <v>228.27510444337722</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AE26" s="2">
-        <v>182.00355923930977</v>
+        <v>119.84617217892264</v>
       </c>
       <c r="AF26" s="2">
-        <v>319.62423844000278</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AG26" s="2">
-        <v>168.38678621839045</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AH26" s="2">
-        <v>110.63390901506615</v>
+        <v>128.45837094580423</v>
       </c>
       <c r="AI26" s="2">
-        <v>250.76845841651468</v>
+        <v>133.44441347085538</v>
       </c>
       <c r="AJ26" s="2">
-        <v>9.8989951336105975</v>
+        <v>8.9926470514127459</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>48.096235457124408</v>
+        <v>87.351408239904288</v>
       </c>
       <c r="C27" s="2">
-        <v>71.804247203378083</v>
+        <v>111.43945478450183</v>
       </c>
       <c r="D27" s="2">
-        <v>119.42477322092432</v>
+        <v>129.82225030118101</v>
       </c>
       <c r="E27" s="2">
-        <v>164.18656556805502</v>
+        <v>128.10973717340758</v>
       </c>
       <c r="F27" s="2">
-        <v>94.859690341622724</v>
+        <v>53.675001320300026</v>
       </c>
       <c r="G27" s="2">
-        <v>108.53147088682937</v>
+        <v>74.741122158063831</v>
       </c>
       <c r="H27" s="2">
-        <v>91.403523725559012</v>
+        <v>109.51706971724869</v>
       </c>
       <c r="I27" s="2">
-        <v>88.365353761371409</v>
+        <v>80.08950551702371</v>
       </c>
       <c r="J27" s="2">
-        <v>108.45053628077954</v>
+        <v>26.369500186548059</v>
       </c>
       <c r="K27" s="2">
-        <v>177.12909713551551</v>
+        <v>122.96093553755861</v>
       </c>
       <c r="L27" s="2">
-        <v>94.041414506079477</v>
+        <v>165.82529262500913</v>
       </c>
       <c r="M27" s="2">
-        <v>41.506220177290956</v>
+        <v>75.401018589211333</v>
       </c>
       <c r="N27" s="2">
-        <v>71.567080711629714</v>
+        <v>59.172917352252909</v>
       </c>
       <c r="O27" s="2">
-        <v>94.853642301371025</v>
+        <v>65.071783678878262</v>
       </c>
       <c r="P27" s="2">
-        <v>146.37163608302396</v>
+        <v>98.06780864946208</v>
       </c>
       <c r="Q27" s="2">
-        <v>67.849797906623991</v>
+        <v>53.578182415381313</v>
       </c>
       <c r="R27" s="2">
-        <v>97.486373264302628</v>
+        <v>67.437693902691919</v>
       </c>
       <c r="S27" s="2">
-        <v>195.29515394921083</v>
+        <v>40.581894946375208</v>
       </c>
       <c r="T27" s="2">
-        <v>105.84527761617709</v>
+        <v>12.362771975126645</v>
       </c>
       <c r="U27" s="2">
-        <v>128.93300316240015</v>
+        <v>116.08120186993273</v>
       </c>
       <c r="V27" s="2">
-        <v>178.26517289086439</v>
+        <v>132.61655851596953</v>
       </c>
       <c r="W27" s="2">
-        <v>142.52126810753256</v>
+        <v>99.650467666795208</v>
       </c>
       <c r="X27" s="2">
-        <v>197.85032152408144</v>
+        <v>125.06500528165279</v>
       </c>
       <c r="Y27" s="2">
-        <v>144.07219413132475</v>
+        <v>34.747727628327681</v>
       </c>
       <c r="Z27" s="2">
-        <v>439.74285066287052</v>
+        <v>79.899335385329579</v>
       </c>
       <c r="AA27" s="2">
-        <v>79.899335385329579</v>
+        <v>479.70348966136964</v>
       </c>
       <c r="AB27" s="2">
-        <v>124.76513414881794</v>
+        <v>96.875514448255217</v>
       </c>
       <c r="AC27" s="2">
-        <v>95.078004021845118</v>
+        <v>21.059363281792837</v>
       </c>
       <c r="AD27" s="2">
-        <v>93.831760047313423</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AE27" s="2">
-        <v>119.84617217892264</v>
+        <v>27.820001056386673</v>
       </c>
       <c r="AF27" s="2">
-        <v>71.54653420105106</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AG27" s="2">
-        <v>68.936820690796665</v>
+        <v>42.329788373121445</v>
       </c>
       <c r="AH27" s="2">
-        <v>128.45837094580423</v>
+        <v>58.406206162105256</v>
       </c>
       <c r="AI27" s="2">
-        <v>133.44441347085538</v>
+        <v>136.78487885851126</v>
       </c>
       <c r="AJ27" s="2">
-        <v>8.9926470514127459</v>
+        <v>0.73503887714953864</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>87.351408239904288</v>
+        <v>185.57127907696375</v>
       </c>
       <c r="C28" s="2">
-        <v>111.43945478450183</v>
+        <v>343.1569415680126</v>
       </c>
       <c r="D28" s="2">
-        <v>129.82225030118101</v>
+        <v>285.42221214451922</v>
       </c>
       <c r="E28" s="2">
-        <v>128.10973717340758</v>
+        <v>195.67478926640177</v>
       </c>
       <c r="F28" s="2">
-        <v>53.675001320300026</v>
+        <v>146.45685120188563</v>
       </c>
       <c r="G28" s="2">
-        <v>74.741122158063831</v>
+        <v>205.52971625058493</v>
       </c>
       <c r="H28" s="2">
-        <v>109.51706971724869</v>
+        <v>289.78306384273918</v>
       </c>
       <c r="I28" s="2">
-        <v>80.08950551702371</v>
+        <v>271.46820872045174</v>
       </c>
       <c r="J28" s="2">
-        <v>26.369500186548059</v>
+        <v>178.1678290413758</v>
       </c>
       <c r="K28" s="2">
-        <v>122.96093553755861</v>
+        <v>396.35675306308644</v>
       </c>
       <c r="L28" s="2">
-        <v>165.82529262500913</v>
+        <v>120.62583007144414</v>
       </c>
       <c r="M28" s="2">
-        <v>75.401018589211333</v>
+        <v>186.68811405136699</v>
       </c>
       <c r="N28" s="2">
-        <v>59.172917352252909</v>
+        <v>109.66022273595465</v>
       </c>
       <c r="O28" s="2">
-        <v>65.071783678878262</v>
+        <v>207.36809374720599</v>
       </c>
       <c r="P28" s="2">
-        <v>98.06780864946208</v>
+        <v>272.23324186599973</v>
       </c>
       <c r="Q28" s="2">
-        <v>53.578182415381313</v>
+        <v>212.68404085167327</v>
       </c>
       <c r="R28" s="2">
-        <v>67.437693902691919</v>
+        <v>263.66207538828655</v>
       </c>
       <c r="S28" s="2">
-        <v>40.581894946375208</v>
+        <v>314.74757018371292</v>
       </c>
       <c r="T28" s="2">
-        <v>12.362771975126645</v>
+        <v>248.2669691986157</v>
       </c>
       <c r="U28" s="2">
-        <v>116.08120186993273</v>
+        <v>115.18922798577128</v>
       </c>
       <c r="V28" s="2">
-        <v>132.61655851596953</v>
+        <v>297.50079837228157</v>
       </c>
       <c r="W28" s="2">
-        <v>99.650467666795208</v>
+        <v>211.26784329028064</v>
       </c>
       <c r="X28" s="2">
-        <v>125.06500528165279</v>
+        <v>113.28024160807654</v>
       </c>
       <c r="Y28" s="2">
-        <v>34.747727628327681</v>
+        <v>240.77454682360707</v>
       </c>
       <c r="Z28" s="2">
-        <v>79.899335385329579</v>
+        <v>124.76513414881794</v>
       </c>
       <c r="AA28" s="2">
-        <v>479.70348966136964</v>
+        <v>96.875514448255217</v>
       </c>
       <c r="AB28" s="2">
-        <v>96.875514448255217</v>
+        <v>692.31791733224975</v>
       </c>
       <c r="AC28" s="2">
-        <v>21.059363281792837</v>
+        <v>146.26417094999402</v>
       </c>
       <c r="AD28" s="2">
-        <v>92.299538476363693</v>
+        <v>193.65156510459056</v>
       </c>
       <c r="AE28" s="2">
-        <v>27.820001056386673</v>
+        <v>250.29473275864518</v>
       </c>
       <c r="AF28" s="2">
-        <v>33.611963226741132</v>
+        <v>232.03162606208667</v>
       </c>
       <c r="AG28" s="2">
-        <v>42.329788373121445</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AH28" s="2">
-        <v>58.406206162105256</v>
+        <v>107.02067704221142</v>
       </c>
       <c r="AI28" s="2">
-        <v>136.78487885851126</v>
+        <v>274.4660712598382</v>
       </c>
       <c r="AJ28" s="2">
-        <v>0.73503887714953864</v>
+        <v>1.1511745195493277</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>185.57127907696375</v>
+        <v>110.45592297489389</v>
       </c>
       <c r="C29" s="2">
-        <v>343.1569415680126</v>
+        <v>246.98858003890598</v>
       </c>
       <c r="D29" s="2">
-        <v>285.42221214451922</v>
+        <v>152.04070029398508</v>
       </c>
       <c r="E29" s="2">
-        <v>195.67478926640177</v>
+        <v>141.8640674074573</v>
       </c>
       <c r="F29" s="2">
-        <v>146.45685120188563</v>
+        <v>285.43280900234117</v>
       </c>
       <c r="G29" s="2">
-        <v>205.52971625058493</v>
+        <v>101.26209180105236</v>
       </c>
       <c r="H29" s="2">
-        <v>289.78306384273918</v>
+        <v>150.40515920172965</v>
       </c>
       <c r="I29" s="2">
-        <v>271.46820872045174</v>
+        <v>191.78676933604606</v>
       </c>
       <c r="J29" s="2">
-        <v>178.1678290413758</v>
+        <v>98.377737243468786</v>
       </c>
       <c r="K29" s="2">
-        <v>396.35675306308644</v>
+        <v>249.19836635872809</v>
       </c>
       <c r="L29" s="2">
-        <v>120.62583007144414</v>
+        <v>71.235072299085743</v>
       </c>
       <c r="M29" s="2">
-        <v>186.68811405136699</v>
+        <v>117.88409421190754</v>
       </c>
       <c r="N29" s="2">
-        <v>109.66022273595465</v>
+        <v>115.82963637627815</v>
       </c>
       <c r="O29" s="2">
-        <v>207.36809374720599</v>
+        <v>110.88883408561448</v>
       </c>
       <c r="P29" s="2">
-        <v>272.23324186599973</v>
+        <v>125.66350170105912</v>
       </c>
       <c r="Q29" s="2">
-        <v>212.68404085167327</v>
+        <v>154.67817954636763</v>
       </c>
       <c r="R29" s="2">
-        <v>263.66207538828655</v>
+        <v>133.82299263943048</v>
       </c>
       <c r="S29" s="2">
-        <v>314.74757018371292</v>
+        <v>218.0755684264671</v>
       </c>
       <c r="T29" s="2">
-        <v>248.2669691986157</v>
+        <v>236.33810606103117</v>
       </c>
       <c r="U29" s="2">
-        <v>115.18922798577128</v>
+        <v>57.656572750020857</v>
       </c>
       <c r="V29" s="2">
-        <v>297.50079837228157</v>
+        <v>181.63100538466776</v>
       </c>
       <c r="W29" s="2">
-        <v>211.26784329028064</v>
+        <v>156.35117624772391</v>
       </c>
       <c r="X29" s="2">
-        <v>113.28024160807654</v>
+        <v>168.8368407196561</v>
       </c>
       <c r="Y29" s="2">
-        <v>240.77454682360707</v>
+        <v>242.76251421256637</v>
       </c>
       <c r="Z29" s="2">
-        <v>124.76513414881794</v>
+        <v>95.078004021845118</v>
       </c>
       <c r="AA29" s="2">
-        <v>96.875514448255217</v>
+        <v>21.059363281792837</v>
       </c>
       <c r="AB29" s="2">
-        <v>692.31791733224975</v>
+        <v>146.26417094999402</v>
       </c>
       <c r="AC29" s="2">
-        <v>146.26417094999402</v>
+        <v>513.92402465670114</v>
       </c>
       <c r="AD29" s="2">
-        <v>193.65156510459056</v>
+        <v>149.02412751931894</v>
       </c>
       <c r="AE29" s="2">
-        <v>250.29473275864518</v>
+        <v>144.29299474076268</v>
       </c>
       <c r="AF29" s="2">
-        <v>232.03162606208667</v>
+        <v>132.28393833653158</v>
       </c>
       <c r="AG29" s="2">
-        <v>130.24368656762829</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AH29" s="2">
-        <v>107.02067704221142</v>
+        <v>51.470114974042126</v>
       </c>
       <c r="AI29" s="2">
-        <v>274.4660712598382</v>
+        <v>163.42338227209333</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1.1511745195493277</v>
+        <v>3.2849331040125591</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>110.45592297489389</v>
+        <v>84.737451806767524</v>
       </c>
       <c r="C30" s="2">
-        <v>246.98858003890598</v>
+        <v>205.89914899222646</v>
       </c>
       <c r="D30" s="2">
-        <v>152.04070029398508</v>
+        <v>202.59261904156267</v>
       </c>
       <c r="E30" s="2">
-        <v>141.8640674074573</v>
+        <v>205.30238835256824</v>
       </c>
       <c r="F30" s="2">
-        <v>285.43280900234117</v>
+        <v>127.61260150800848</v>
       </c>
       <c r="G30" s="2">
-        <v>101.26209180105236</v>
+        <v>138.09358579792573</v>
       </c>
       <c r="H30" s="2">
-        <v>150.40515920172965</v>
+        <v>84.603949108836957</v>
       </c>
       <c r="I30" s="2">
-        <v>191.78676933604606</v>
+        <v>169.6005056495419</v>
       </c>
       <c r="J30" s="2">
-        <v>98.377737243468786</v>
+        <v>67.293386455081745</v>
       </c>
       <c r="K30" s="2">
-        <v>249.19836635872809</v>
+        <v>301.48926285497038</v>
       </c>
       <c r="L30" s="2">
-        <v>71.235072299085743</v>
+        <v>102.09438731975064</v>
       </c>
       <c r="M30" s="2">
-        <v>117.88409421190754</v>
+        <v>118.92646708236742</v>
       </c>
       <c r="N30" s="2">
-        <v>115.82963637627815</v>
+        <v>41.508475309720168</v>
       </c>
       <c r="O30" s="2">
-        <v>110.88883408561448</v>
+        <v>167.52545705243415</v>
       </c>
       <c r="P30" s="2">
-        <v>125.66350170105912</v>
+        <v>165.16239197600535</v>
       </c>
       <c r="Q30" s="2">
-        <v>154.67817954636763</v>
+        <v>95.545536267340097</v>
       </c>
       <c r="R30" s="2">
-        <v>133.82299263943048</v>
+        <v>306.05824352191001</v>
       </c>
       <c r="S30" s="2">
-        <v>218.0755684264671</v>
+        <v>191.00651545207296</v>
       </c>
       <c r="T30" s="2">
-        <v>236.33810606103117</v>
+        <v>188.48650571104719</v>
       </c>
       <c r="U30" s="2">
-        <v>57.656572750020857</v>
+        <v>96.472069016605019</v>
       </c>
       <c r="V30" s="2">
-        <v>181.63100538466776</v>
+        <v>250.7894396986915</v>
       </c>
       <c r="W30" s="2">
-        <v>156.35117624772391</v>
+        <v>163.15001222632372</v>
       </c>
       <c r="X30" s="2">
-        <v>168.8368407196561</v>
+        <v>105.9077890971049</v>
       </c>
       <c r="Y30" s="2">
-        <v>242.76251421256637</v>
+        <v>228.27510444337722</v>
       </c>
       <c r="Z30" s="2">
-        <v>95.078004021845118</v>
+        <v>93.831760047313423</v>
       </c>
       <c r="AA30" s="2">
-        <v>21.059363281792837</v>
+        <v>92.299538476363693</v>
       </c>
       <c r="AB30" s="2">
-        <v>146.26417094999402</v>
+        <v>193.65156510459056</v>
       </c>
       <c r="AC30" s="2">
-        <v>513.92402465670114</v>
+        <v>149.02412751931894</v>
       </c>
       <c r="AD30" s="2">
-        <v>149.02412751931894</v>
+        <v>563.80140699400204</v>
       </c>
       <c r="AE30" s="2">
-        <v>144.29299474076268</v>
+        <v>113.7934069716987</v>
       </c>
       <c r="AF30" s="2">
-        <v>132.28393833653158</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AG30" s="2">
-        <v>82.313975048175308</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AH30" s="2">
-        <v>51.470114974042126</v>
+        <v>106.93559914887112</v>
       </c>
       <c r="AI30" s="2">
-        <v>163.42338227209333</v>
+        <v>251.9948406059431</v>
       </c>
       <c r="AJ30" s="2">
-        <v>3.2849331040125591</v>
+        <v>0.14491350649046275</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>84.737451806767524</v>
+        <v>142.93009779980105</v>
       </c>
       <c r="C31" s="2">
-        <v>205.89914899222646</v>
+        <v>285.85212351796002</v>
       </c>
       <c r="D31" s="2">
-        <v>202.59261904156267</v>
+        <v>268.09914318451069</v>
       </c>
       <c r="E31" s="2">
-        <v>205.30238835256824</v>
+        <v>170.83827402026787</v>
       </c>
       <c r="F31" s="2">
-        <v>127.61260150800848</v>
+        <v>105.5091928983724</v>
       </c>
       <c r="G31" s="2">
-        <v>138.09358579792573</v>
+        <v>191.84772996684228</v>
       </c>
       <c r="H31" s="2">
-        <v>84.603949108836957</v>
+        <v>234.16100471047412</v>
       </c>
       <c r="I31" s="2">
-        <v>169.6005056495419</v>
+        <v>200.7469200148355</v>
       </c>
       <c r="J31" s="2">
-        <v>67.293386455081745</v>
+        <v>110.64617933239825</v>
       </c>
       <c r="K31" s="2">
-        <v>301.48926285497038</v>
+        <v>323.53972515804298</v>
       </c>
       <c r="L31" s="2">
-        <v>102.09438731975064</v>
+        <v>131.72799395978635</v>
       </c>
       <c r="M31" s="2">
-        <v>118.92646708236742</v>
+        <v>144.0909217684362</v>
       </c>
       <c r="N31" s="2">
-        <v>41.508475309720168</v>
+        <v>87.907641664722789</v>
       </c>
       <c r="O31" s="2">
-        <v>167.52545705243415</v>
+        <v>149.94029582364553</v>
       </c>
       <c r="P31" s="2">
-        <v>165.16239197600535</v>
+        <v>308.33902222680797</v>
       </c>
       <c r="Q31" s="2">
-        <v>95.545536267340097</v>
+        <v>256.28578800037286</v>
       </c>
       <c r="R31" s="2">
-        <v>306.05824352191001</v>
+        <v>203.54624800442815</v>
       </c>
       <c r="S31" s="2">
-        <v>191.00651545207296</v>
+        <v>399.39223543329865</v>
       </c>
       <c r="T31" s="2">
-        <v>188.48650571104719</v>
+        <v>248.22324024451484</v>
       </c>
       <c r="U31" s="2">
-        <v>96.472069016605019</v>
+        <v>60.919383187046833</v>
       </c>
       <c r="V31" s="2">
-        <v>250.7894396986915</v>
+        <v>309.50975548335617</v>
       </c>
       <c r="W31" s="2">
-        <v>163.15001222632372</v>
+        <v>192.38393611383751</v>
       </c>
       <c r="X31" s="2">
-        <v>105.9077890971049</v>
+        <v>134.67168262833343</v>
       </c>
       <c r="Y31" s="2">
-        <v>228.27510444337722</v>
+        <v>182.00355923930977</v>
       </c>
       <c r="Z31" s="2">
-        <v>93.831760047313423</v>
+        <v>119.84617217892264</v>
       </c>
       <c r="AA31" s="2">
-        <v>92.299538476363693</v>
+        <v>27.820001056386673</v>
       </c>
       <c r="AB31" s="2">
-        <v>193.65156510459056</v>
+        <v>250.29473275864518</v>
       </c>
       <c r="AC31" s="2">
-        <v>149.02412751931894</v>
+        <v>144.29299474076268</v>
       </c>
       <c r="AD31" s="2">
-        <v>563.80140699400204</v>
+        <v>113.7934069716987</v>
       </c>
       <c r="AE31" s="2">
-        <v>113.7934069716987</v>
+        <v>688.78980895103746</v>
       </c>
       <c r="AF31" s="2">
-        <v>178.7654731210913</v>
+        <v>159.93799081332554</v>
       </c>
       <c r="AG31" s="2">
-        <v>68.679994062457581</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AH31" s="2">
-        <v>106.93559914887112</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AI31" s="2">
-        <v>251.9948406059431</v>
+        <v>213.71352430138114</v>
       </c>
       <c r="AJ31" s="2">
-        <v>0.14491350649046275</v>
+        <v>-2.2026901035575857</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>142.93009779980105</v>
+        <v>69.170003234738488</v>
       </c>
       <c r="C32" s="2">
-        <v>285.85212351796002</v>
+        <v>258.39916315194557</v>
       </c>
       <c r="D32" s="2">
-        <v>268.09914318451069</v>
+        <v>186.0212441841133</v>
       </c>
       <c r="E32" s="2">
-        <v>170.83827402026787</v>
+        <v>151.90534258102852</v>
       </c>
       <c r="F32" s="2">
-        <v>105.5091928983724</v>
+        <v>108.52105446005433</v>
       </c>
       <c r="G32" s="2">
-        <v>191.84772996684228</v>
+        <v>140.15735951127334</v>
       </c>
       <c r="H32" s="2">
-        <v>234.16100471047412</v>
+        <v>159.1455811408938</v>
       </c>
       <c r="I32" s="2">
-        <v>200.7469200148355</v>
+        <v>145.12829205664357</v>
       </c>
       <c r="J32" s="2">
-        <v>110.64617933239825</v>
+        <v>133.48830432935381</v>
       </c>
       <c r="K32" s="2">
-        <v>323.53972515804298</v>
+        <v>301.91221359934354</v>
       </c>
       <c r="L32" s="2">
-        <v>131.72799395978635</v>
+        <v>48.012541311291379</v>
       </c>
       <c r="M32" s="2">
-        <v>144.0909217684362</v>
+        <v>168.39880012754691</v>
       </c>
       <c r="N32" s="2">
-        <v>87.907641664722789</v>
+        <v>81.086486769544706</v>
       </c>
       <c r="O32" s="2">
-        <v>149.94029582364553</v>
+        <v>209.37039822178861</v>
       </c>
       <c r="P32" s="2">
-        <v>308.33902222680797</v>
+        <v>221.29370171731847</v>
       </c>
       <c r="Q32" s="2">
-        <v>256.28578800037286</v>
+        <v>235.47108672824291</v>
       </c>
       <c r="R32" s="2">
-        <v>203.54624800442815</v>
+        <v>268.4656919372826</v>
       </c>
       <c r="S32" s="2">
-        <v>399.39223543329865</v>
+        <v>270.73764185630307</v>
       </c>
       <c r="T32" s="2">
-        <v>248.22324024451484</v>
+        <v>231.25000817449251</v>
       </c>
       <c r="U32" s="2">
-        <v>60.919383187046833</v>
+        <v>21.787078320462694</v>
       </c>
       <c r="V32" s="2">
-        <v>309.50975548335617</v>
+        <v>223.49066459331061</v>
       </c>
       <c r="W32" s="2">
-        <v>192.38393611383751</v>
+        <v>140.38408968465222</v>
       </c>
       <c r="X32" s="2">
-        <v>134.67168262833343</v>
+        <v>79.429620132721794</v>
       </c>
       <c r="Y32" s="2">
-        <v>182.00355923930977</v>
+        <v>319.62423844000278</v>
       </c>
       <c r="Z32" s="2">
-        <v>119.84617217892264</v>
+        <v>71.54653420105106</v>
       </c>
       <c r="AA32" s="2">
-        <v>27.820001056386673</v>
+        <v>33.611963226741132</v>
       </c>
       <c r="AB32" s="2">
-        <v>250.29473275864518</v>
+        <v>232.03162606208667</v>
       </c>
       <c r="AC32" s="2">
-        <v>144.29299474076268</v>
+        <v>132.28393833653158</v>
       </c>
       <c r="AD32" s="2">
-        <v>113.7934069716987</v>
+        <v>178.7654731210913</v>
       </c>
       <c r="AE32" s="2">
-        <v>688.78980895103746</v>
+        <v>159.93799081332554</v>
       </c>
       <c r="AF32" s="2">
-        <v>159.93799081332554</v>
+        <v>717.56740519724576</v>
       </c>
       <c r="AG32" s="2">
-        <v>62.182885065159702</v>
+        <v>139.76253246989776</v>
       </c>
       <c r="AH32" s="2">
-        <v>53.056000896795361</v>
+        <v>111.25096616468403</v>
       </c>
       <c r="AI32" s="2">
-        <v>213.71352430138114</v>
+        <v>182.18721712997777</v>
       </c>
       <c r="AJ32" s="2">
-        <v>-2.2026901035575857</v>
+        <v>1.8811358013729702</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>69.170003234738488</v>
+        <v>82.358756277108995</v>
       </c>
       <c r="C33" s="2">
-        <v>258.39916315194557</v>
+        <v>202.31138306339813</v>
       </c>
       <c r="D33" s="2">
-        <v>186.0212441841133</v>
+        <v>118.98359740768296</v>
       </c>
       <c r="E33" s="2">
-        <v>151.90534258102852</v>
+        <v>92.444905272018673</v>
       </c>
       <c r="F33" s="2">
-        <v>108.52105446005433</v>
+        <v>104.83719715083578</v>
       </c>
       <c r="G33" s="2">
-        <v>140.15735951127334</v>
+        <v>79.377723381716109</v>
       </c>
       <c r="H33" s="2">
-        <v>159.1455811408938</v>
+        <v>151.13359075246257</v>
       </c>
       <c r="I33" s="2">
-        <v>145.12829205664357</v>
+        <v>180.522480947487</v>
       </c>
       <c r="J33" s="2">
-        <v>133.48830432935381</v>
+        <v>211.23140839310469</v>
       </c>
       <c r="K33" s="2">
-        <v>301.91221359934354</v>
+        <v>120.9052137266375</v>
       </c>
       <c r="L33" s="2">
-        <v>48.012541311291379</v>
+        <v>86.499890084909353</v>
       </c>
       <c r="M33" s="2">
-        <v>168.39880012754691</v>
+        <v>121.616893836727</v>
       </c>
       <c r="N33" s="2">
-        <v>81.086486769544706</v>
+        <v>151.11324751753361</v>
       </c>
       <c r="O33" s="2">
-        <v>209.37039822178861</v>
+        <v>77.44398318164923</v>
       </c>
       <c r="P33" s="2">
-        <v>221.29370171731847</v>
+        <v>131.72185730605403</v>
       </c>
       <c r="Q33" s="2">
-        <v>235.47108672824291</v>
+        <v>115.15758581186131</v>
       </c>
       <c r="R33" s="2">
-        <v>268.4656919372826</v>
+        <v>112.24584064721385</v>
       </c>
       <c r="S33" s="2">
-        <v>270.73764185630307</v>
+        <v>122.36388529461458</v>
       </c>
       <c r="T33" s="2">
-        <v>231.25000817449251</v>
+        <v>145.60098746437978</v>
       </c>
       <c r="U33" s="2">
-        <v>21.787078320462694</v>
+        <v>78.057037873540764</v>
       </c>
       <c r="V33" s="2">
-        <v>223.49066459331061</v>
+        <v>120.39384764956905</v>
       </c>
       <c r="W33" s="2">
-        <v>140.38408968465222</v>
+        <v>136.98272441857836</v>
       </c>
       <c r="X33" s="2">
-        <v>79.429620132721794</v>
+        <v>76.051210161973273</v>
       </c>
       <c r="Y33" s="2">
-        <v>319.62423844000278</v>
+        <v>168.38678621839045</v>
       </c>
       <c r="Z33" s="2">
-        <v>71.54653420105106</v>
+        <v>68.936820690796665</v>
       </c>
       <c r="AA33" s="2">
-        <v>33.611963226741132</v>
+        <v>42.329788373121445</v>
       </c>
       <c r="AB33" s="2">
-        <v>232.03162606208667</v>
+        <v>130.24368656762829</v>
       </c>
       <c r="AC33" s="2">
-        <v>132.28393833653158</v>
+        <v>82.313975048175308</v>
       </c>
       <c r="AD33" s="2">
-        <v>178.7654731210913</v>
+        <v>68.679994062457581</v>
       </c>
       <c r="AE33" s="2">
-        <v>159.93799081332554</v>
+        <v>62.182885065159702</v>
       </c>
       <c r="AF33" s="2">
-        <v>717.56740519724576</v>
+        <v>139.76253246989776</v>
       </c>
       <c r="AG33" s="2">
-        <v>139.76253246989776</v>
+        <v>398.88124606400993</v>
       </c>
       <c r="AH33" s="2">
-        <v>111.25096616468403</v>
+        <v>60.990726296304288</v>
       </c>
       <c r="AI33" s="2">
-        <v>182.18721712997777</v>
+        <v>114.85128548249315</v>
       </c>
       <c r="AJ33" s="2">
-        <v>1.8811358013729702</v>
+        <v>7.4110150579329979</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>82.358756277108995</v>
+        <v>8.1649803695795402</v>
       </c>
       <c r="C34" s="2">
-        <v>202.31138306339813</v>
+        <v>13.975259205978638</v>
       </c>
       <c r="D34" s="2">
-        <v>118.98359740768296</v>
+        <v>70.11951733352862</v>
       </c>
       <c r="E34" s="2">
-        <v>92.444905272018673</v>
+        <v>146.76727709554564</v>
       </c>
       <c r="F34" s="2">
-        <v>104.83719715083578</v>
+        <v>64.226422145388767</v>
       </c>
       <c r="G34" s="2">
-        <v>79.377723381716109</v>
+        <v>69.708961276440959</v>
       </c>
       <c r="H34" s="2">
-        <v>151.13359075246257</v>
+        <v>55.780550667750738</v>
       </c>
       <c r="I34" s="2">
-        <v>180.522480947487</v>
+        <v>35.802153222879895</v>
       </c>
       <c r="J34" s="2">
-        <v>211.23140839310469</v>
+        <v>72.606150947101668</v>
       </c>
       <c r="K34" s="2">
-        <v>120.9052137266375</v>
+        <v>124.94613956133232</v>
       </c>
       <c r="L34" s="2">
-        <v>86.499890084909353</v>
+        <v>71.835602510157244</v>
       </c>
       <c r="M34" s="2">
-        <v>121.616893836727</v>
+        <v>31.170007378826824</v>
       </c>
       <c r="N34" s="2">
-        <v>151.11324751753361</v>
+        <v>39.212363566967007</v>
       </c>
       <c r="O34" s="2">
-        <v>77.44398318164923</v>
+        <v>105.72820911861342</v>
       </c>
       <c r="P34" s="2">
-        <v>131.72185730605403</v>
+        <v>115.72278478089477</v>
       </c>
       <c r="Q34" s="2">
-        <v>115.15758581186131</v>
+        <v>20.015755498576198</v>
       </c>
       <c r="R34" s="2">
-        <v>112.24584064721385</v>
+        <v>107.4569121428264</v>
       </c>
       <c r="S34" s="2">
-        <v>122.36388529461458</v>
+        <v>66.556604606616546</v>
       </c>
       <c r="T34" s="2">
-        <v>145.60098746437978</v>
+        <v>38.467916507858817</v>
       </c>
       <c r="U34" s="2">
-        <v>78.057037873540764</v>
+        <v>87.169651057370842</v>
       </c>
       <c r="V34" s="2">
-        <v>120.39384764956905</v>
+        <v>99.387070311455034</v>
       </c>
       <c r="W34" s="2">
-        <v>136.98272441857836</v>
+        <v>103.24423149338566</v>
       </c>
       <c r="X34" s="2">
-        <v>76.051210161973273</v>
+        <v>93.654517048227547</v>
       </c>
       <c r="Y34" s="2">
-        <v>168.38678621839045</v>
+        <v>110.63390901506615</v>
       </c>
       <c r="Z34" s="2">
-        <v>68.936820690796665</v>
+        <v>128.45837094580423</v>
       </c>
       <c r="AA34" s="2">
-        <v>42.329788373121445</v>
+        <v>58.406206162105256</v>
       </c>
       <c r="AB34" s="2">
-        <v>130.24368656762829</v>
+        <v>107.02067704221142</v>
       </c>
       <c r="AC34" s="2">
-        <v>82.313975048175308</v>
+        <v>51.470114974042126</v>
       </c>
       <c r="AD34" s="2">
-        <v>68.679994062457581</v>
+        <v>106.93559914887112</v>
       </c>
       <c r="AE34" s="2">
-        <v>62.182885065159702</v>
+        <v>53.056000896795361</v>
       </c>
       <c r="AF34" s="2">
-        <v>139.76253246989776</v>
+        <v>111.25096616468403</v>
       </c>
       <c r="AG34" s="2">
-        <v>398.88124606400993</v>
+        <v>60.990726296304288</v>
       </c>
       <c r="AH34" s="2">
-        <v>60.990726296304288</v>
+        <v>332.75118771956011</v>
       </c>
       <c r="AI34" s="2">
-        <v>114.85128548249315</v>
+        <v>131.48320525571125</v>
       </c>
       <c r="AJ34" s="2">
-        <v>7.4110150579329979</v>
+        <v>7.6875299727851418</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>8.1649803695795402</v>
+        <v>152.59305467898622</v>
       </c>
       <c r="C35" s="2">
-        <v>13.975259205978638</v>
+        <v>341.61545538602434</v>
       </c>
       <c r="D35" s="2">
-        <v>70.11951733352862</v>
+        <v>313.88674956103398</v>
       </c>
       <c r="E35" s="2">
-        <v>146.76727709554564</v>
+        <v>261.09958839741131</v>
       </c>
       <c r="F35" s="2">
-        <v>64.226422145388767</v>
+        <v>205.85741985094154</v>
       </c>
       <c r="G35" s="2">
-        <v>69.708961276440959</v>
+        <v>205.64795019893123</v>
       </c>
       <c r="H35" s="2">
-        <v>55.780550667750738</v>
+        <v>208.85122278344457</v>
       </c>
       <c r="I35" s="2">
-        <v>35.802153222879895</v>
+        <v>293.57924943581298</v>
       </c>
       <c r="J35" s="2">
-        <v>72.606150947101668</v>
+        <v>148.09795549277288</v>
       </c>
       <c r="K35" s="2">
-        <v>124.94613956133232</v>
+        <v>396.98320448909578</v>
       </c>
       <c r="L35" s="2">
-        <v>71.835602510157244</v>
+        <v>205.37467904529368</v>
       </c>
       <c r="M35" s="2">
-        <v>31.170007378826824</v>
+        <v>190.64121786924881</v>
       </c>
       <c r="N35" s="2">
-        <v>39.212363566967007</v>
+        <v>131.23207470926553</v>
       </c>
       <c r="O35" s="2">
-        <v>105.72820911861342</v>
+        <v>234.63224645485644</v>
       </c>
       <c r="P35" s="2">
-        <v>115.72278478089477</v>
+        <v>261.66767661709116</v>
       </c>
       <c r="Q35" s="2">
-        <v>20.015755498576198</v>
+        <v>220.94513750645314</v>
       </c>
       <c r="R35" s="2">
-        <v>107.4569121428264</v>
+        <v>293.99535247559885</v>
       </c>
       <c r="S35" s="2">
-        <v>66.556604606616546</v>
+        <v>367.90002629035922</v>
       </c>
       <c r="T35" s="2">
-        <v>38.467916507858817</v>
+        <v>294.62416971213156</v>
       </c>
       <c r="U35" s="2">
-        <v>87.169651057370842</v>
+        <v>118.00567793560012</v>
       </c>
       <c r="V35" s="2">
-        <v>99.387070311455034</v>
+        <v>420.8796707612691</v>
       </c>
       <c r="W35" s="2">
-        <v>103.24423149338566</v>
+        <v>252.93470682843082</v>
       </c>
       <c r="X35" s="2">
-        <v>93.654517048227547</v>
+        <v>129.29357496982965</v>
       </c>
       <c r="Y35" s="2">
-        <v>110.63390901506615</v>
+        <v>250.76845841651468</v>
       </c>
       <c r="Z35" s="2">
-        <v>128.45837094580423</v>
+        <v>133.44441347085538</v>
       </c>
       <c r="AA35" s="2">
-        <v>58.406206162105256</v>
+        <v>136.78487885851126</v>
       </c>
       <c r="AB35" s="2">
-        <v>107.02067704221142</v>
+        <v>274.4660712598382</v>
       </c>
       <c r="AC35" s="2">
-        <v>51.470114974042126</v>
+        <v>163.42338227209333</v>
       </c>
       <c r="AD35" s="2">
-        <v>106.93559914887112</v>
+        <v>251.9948406059431</v>
       </c>
       <c r="AE35" s="2">
-        <v>53.056000896795361</v>
+        <v>213.71352430138114</v>
       </c>
       <c r="AF35" s="2">
-        <v>111.25096616468403</v>
+        <v>182.18721712997777</v>
       </c>
       <c r="AG35" s="2">
-        <v>60.990726296304288</v>
+        <v>114.85128548249315</v>
       </c>
       <c r="AH35" s="2">
-        <v>332.75118771956011</v>
+        <v>131.48320525571125</v>
       </c>
       <c r="AI35" s="2">
-        <v>131.48320525571125</v>
+        <v>945.42319879401521</v>
       </c>
       <c r="AJ35" s="2">
-        <v>7.6875299727851418</v>
+        <v>-2.1220361878184453</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>152.59305467898622</v>
+        <v>2.7626656999069068</v>
       </c>
       <c r="C36" s="2">
-        <v>341.61545538602434</v>
+        <v>1.4987422577254836</v>
       </c>
       <c r="D36" s="2">
-        <v>313.88674956103398</v>
+        <v>-2.7200732923054822</v>
       </c>
       <c r="E36" s="2">
-        <v>261.09958839741131</v>
+        <v>4.2523054508408107</v>
       </c>
       <c r="F36" s="2">
-        <v>205.85741985094154</v>
+        <v>5.1033740819395526</v>
       </c>
       <c r="G36" s="2">
-        <v>205.64795019893123</v>
+        <v>9.0714988551442541</v>
       </c>
       <c r="H36" s="2">
-        <v>208.85122278344457</v>
+        <v>-0.68389570994587867</v>
       </c>
       <c r="I36" s="2">
-        <v>293.57924943581298</v>
+        <v>0.46221255354074797</v>
       </c>
       <c r="J36" s="2">
-        <v>148.09795549277288</v>
+        <v>6.5994493255562467</v>
       </c>
       <c r="K36" s="2">
-        <v>396.98320448909578</v>
+        <v>4.1210709777962204</v>
       </c>
       <c r="L36" s="2">
-        <v>205.37467904529368</v>
+        <v>2.0945591127529246</v>
       </c>
       <c r="M36" s="2">
-        <v>190.64121786924881</v>
+        <v>0.86120533912917052</v>
       </c>
       <c r="N36" s="2">
-        <v>131.23207470926553</v>
+        <v>1.8336803660598988</v>
       </c>
       <c r="O36" s="2">
-        <v>234.63224645485644</v>
+        <v>0.26742936917059534</v>
       </c>
       <c r="P36" s="2">
-        <v>261.66767661709116</v>
+        <v>5.5938319634512306</v>
       </c>
       <c r="Q36" s="2">
-        <v>220.94513750645314</v>
+        <v>2.5260578366523889</v>
       </c>
       <c r="R36" s="2">
-        <v>293.99535247559885</v>
+        <v>6.2779338804389804</v>
       </c>
       <c r="S36" s="2">
-        <v>367.90002629035922</v>
+        <v>5.6092366200626467</v>
       </c>
       <c r="T36" s="2">
-        <v>294.62416971213156</v>
+        <v>2.8853417908161023</v>
       </c>
       <c r="U36" s="2">
-        <v>118.00567793560012</v>
+        <v>6.1385302978581811</v>
       </c>
       <c r="V36" s="2">
-        <v>420.8796707612691</v>
+        <v>5.7693234801404731</v>
       </c>
       <c r="W36" s="2">
-        <v>252.93470682843082</v>
+        <v>3.7099088904163136</v>
       </c>
       <c r="X36" s="2">
-        <v>129.29357496982965</v>
+        <v>8.3293941116642181</v>
       </c>
       <c r="Y36" s="2">
-        <v>250.76845841651468</v>
+        <v>9.8989951336105975</v>
       </c>
       <c r="Z36" s="2">
-        <v>133.44441347085538</v>
+        <v>8.9926470514127459</v>
       </c>
       <c r="AA36" s="2">
-        <v>136.78487885851126</v>
+        <v>0.73503887714953864</v>
       </c>
       <c r="AB36" s="2">
-        <v>274.4660712598382</v>
+        <v>1.1511745195493277</v>
       </c>
       <c r="AC36" s="2">
-        <v>163.42338227209333</v>
+        <v>3.2849331040125591</v>
       </c>
       <c r="AD36" s="2">
-        <v>251.9948406059431</v>
+        <v>0.14491350649046275</v>
       </c>
       <c r="AE36" s="2">
-        <v>213.71352430138114</v>
+        <v>-2.2026901035575857</v>
       </c>
       <c r="AF36" s="2">
-        <v>182.18721712997777</v>
+        <v>1.8811358013729702</v>
       </c>
       <c r="AG36" s="2">
-        <v>114.85128548249315</v>
+        <v>7.4110150579329979</v>
       </c>
       <c r="AH36" s="2">
-        <v>131.48320525571125</v>
+        <v>7.6875299727851418</v>
       </c>
       <c r="AI36" s="2">
-        <v>945.42319879401521</v>
+        <v>-2.1220361878184453</v>
       </c>
       <c r="AJ36" s="2">
-        <v>-2.1220361878184453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2.7626656999069068</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.4987422577254836</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-2.7200732923054822</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.2523054508408107</v>
-      </c>
-      <c r="F37" s="2">
-        <v>5.1033740819395526</v>
-      </c>
-      <c r="G37" s="2">
-        <v>9.0714988551442541</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-0.68389570994587867</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.46221255354074797</v>
-      </c>
-      <c r="J37" s="2">
-        <v>6.5994493255562467</v>
-      </c>
-      <c r="K37" s="2">
-        <v>4.1210709777962204</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2.0945591127529246</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.86120533912917052</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1.8336803660598988</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0.26742936917059534</v>
-      </c>
-      <c r="P37" s="2">
-        <v>5.5938319634512306</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>2.5260578366523889</v>
-      </c>
-      <c r="R37" s="2">
-        <v>6.2779338804389804</v>
-      </c>
-      <c r="S37" s="2">
-        <v>5.6092366200626467</v>
-      </c>
-      <c r="T37" s="2">
-        <v>2.8853417908161023</v>
-      </c>
-      <c r="U37" s="2">
-        <v>6.1385302978581811</v>
-      </c>
-      <c r="V37" s="2">
-        <v>5.7693234801404731</v>
-      </c>
-      <c r="W37" s="2">
-        <v>3.7099088904163136</v>
-      </c>
-      <c r="X37" s="2">
-        <v>8.3293941116642181</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>9.8989951336105975</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>8.9926470514127459</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0.73503887714953864</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>1.1511745195493277</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>3.2849331040125591</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0.14491350649046275</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>-2.2026901035575857</v>
-      </c>
-      <c r="AF37" s="2">
-        <v>1.8811358013729702</v>
-      </c>
-      <c r="AG37" s="2">
-        <v>7.4110150579329979</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>7.6875299727851418</v>
-      </c>
-      <c r="AI37" s="2">
-        <v>-2.1220361878184453</v>
-      </c>
-      <c r="AJ37" s="2">
         <v>8.6058986609208468</v>
       </c>
     </row>

--- a/covariancedata.xlsx
+++ b/covariancedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kashikawanchoo/Downloads/Mini_Projects/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C44C3-925F-F648-9068-821ECF11ABA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2346FB2-D1BF-AA40-9E21-1FA33475232C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{E17A3965-B33F-459D-8CEF-FB9FA1A9E5B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>MMM</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997C17B-D0E1-4CAC-8616-D9D4F9C038AC}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A2:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,113 +508,6 @@
     <col min="35" max="36" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
